--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2022-03/当前股价大于50日均线,50日均线大于150日均线....xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2022-03/当前股价大于50日均线,50日均线大于150日均线....xlsx
@@ -20,6 +20,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue Regular"/>
+        <charset val="134"/>
+      </rPr>
       <t>当前股价位置属于趋势的周期</t>
     </r>
     <r>
@@ -122,6 +128,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue Regular"/>
+        <charset val="134"/>
+      </rPr>
       <t>价格行为</t>
     </r>
     <r>
@@ -199,6 +211,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
       <t>52</t>
     </r>
     <r>
@@ -213,6 +231,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF161616"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
       <t>52</t>
     </r>
     <r>
@@ -229,9 +253,20 @@
     <t>最高点前8周收盘价</t>
   </si>
   <si>
-    <r>
-      <t>当前股价相对于最低点百分比</t>
-    </r>
+    <t>当前股价相对于最低点百分比
+(至少高出25%)</t>
+  </si>
+  <si>
+    <t>当前股价相对于最高点百分比
+(25%内最好)</t>
+  </si>
+  <si>
+    <t>最高点前8周股价相对于最高点百分比</t>
+  </si>
+  <si>
+    <t>技术足迹</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -239,51 +274,6 @@
         <rFont val="方正书宋_GBK"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(至少高出25%)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>当前股价相对于最高点百分比</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(25%内最好)</t>
-    </r>
-  </si>
-  <si>
-    <t>最高点前8周股价相对于最高点百分比</t>
-  </si>
-  <si>
-    <t>技术足迹</t>
-  </si>
-  <si>
-    <r>
       <t>支撑位和压力位是否同步升高</t>
     </r>
     <r>
@@ -308,6 +298,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>是否有网球行为出现</t>
     </r>
     <r>
@@ -332,6 +328,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>上涨天数是否大于下跌天数</t>
     </r>
     <r>
@@ -360,6 +362,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>成交量收缩情况</t>
     </r>
     <r>
@@ -384,6 +392,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>支撑位</t>
     </r>
     <r>
@@ -398,6 +412,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>阻力位</t>
     </r>
     <r>
@@ -412,6 +432,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>支撑位</t>
     </r>
     <r>
@@ -426,6 +452,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>阻力位</t>
     </r>
     <r>
@@ -440,6 +472,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>支撑位</t>
     </r>
     <r>
@@ -454,6 +492,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>阻力位</t>
     </r>
     <r>
@@ -468,6 +512,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>支撑位</t>
     </r>
     <r>
@@ -482,6 +532,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>阻力位</t>
     </r>
     <r>
@@ -496,6 +552,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>支撑位</t>
     </r>
     <r>
@@ -537,6 +599,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>收缩数量</t>
     </r>
     <r>
@@ -862,16 +930,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="179" formatCode="0.00_);\(0.00\)"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="33">
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
@@ -903,6 +971,18 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF152122"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF161616"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -926,16 +1006,32 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -947,18 +1043,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -970,10 +1066,34 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -994,30 +1114,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1030,27 +1135,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1062,15 +1150,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1088,7 +1168,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="44">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1097,7 +1177,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF3377FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1109,7 +1225,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1121,7 +1243,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1133,7 +1255,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1145,37 +1267,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1193,13 +1309,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1211,61 +1321,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1283,13 +1345,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1301,18 +1369,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1336,39 +1452,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF3377FF"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF3377FF"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1398,6 +1486,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1408,6 +1511,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1430,41 +1544,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1473,214 +1552,349 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="36" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="12" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="9" fillId="12" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="6" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="8" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="9" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="10" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2078,1251 +2292,4111 @@
   <dimension ref="A1:AO47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="AE4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AM2" sqref="AM2:AM3"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.94117647058824" defaultRowHeight="14.8"/>
   <cols>
-    <col min="8" max="8" width="11.8823529411765" customWidth="1"/>
-    <col min="9" max="9" width="12.9852941176471" customWidth="1"/>
+    <col min="4" max="7" width="8.94117647058824" style="6"/>
+    <col min="8" max="8" width="11.8823529411765" style="7" customWidth="1"/>
+    <col min="9" max="9" width="12.9852941176471" style="7" customWidth="1"/>
+    <col min="10" max="10" width="8.94117647058824" style="7"/>
+    <col min="11" max="11" width="12.6470588235294" style="8"/>
+    <col min="12" max="13" width="8.94117647058824" style="8"/>
+    <col min="14" max="15" width="8.94117647058824" style="9"/>
+    <col min="16" max="26" width="8.94117647058824" style="7"/>
+    <col min="27" max="27" width="8.94117647058824" style="9"/>
+    <col min="28" max="28" width="12.6470588235294" style="8"/>
+    <col min="29" max="33" width="8.94117647058824" style="8"/>
+    <col min="34" max="41" width="8.94117647058824" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="11" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="P1" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="15"/>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="15"/>
-      <c r="AC1" s="15"/>
-      <c r="AD1" s="15"/>
-      <c r="AE1" s="15"/>
-      <c r="AF1" s="15"/>
-      <c r="AG1" s="15"/>
-      <c r="AH1" s="15"/>
-      <c r="AI1" s="18" t="s">
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="62"/>
+      <c r="AB1" s="63"/>
+      <c r="AC1" s="63"/>
+      <c r="AD1" s="63"/>
+      <c r="AE1" s="63"/>
+      <c r="AF1" s="63"/>
+      <c r="AG1" s="63"/>
+      <c r="AH1" s="62"/>
+      <c r="AI1" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="AJ1" s="18"/>
-      <c r="AK1" s="18"/>
-      <c r="AL1" s="18" t="s">
+      <c r="AJ1" s="67"/>
+      <c r="AK1" s="67"/>
+      <c r="AL1" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="AM1" s="18"/>
-      <c r="AN1" s="20" t="s">
+      <c r="AM1" s="67"/>
+      <c r="AN1" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="AO1" s="21" t="s">
+      <c r="AO1" s="70" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:41">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="11"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="14" t="s">
+      <c r="N2" s="49"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="14"/>
-      <c r="Z2" s="14"/>
-      <c r="AA2" s="14"/>
-      <c r="AB2" s="14"/>
-      <c r="AC2" s="14"/>
-      <c r="AD2" s="14"/>
-      <c r="AE2" s="14"/>
-      <c r="AF2" s="14"/>
-      <c r="AG2" s="14"/>
-      <c r="AH2" s="14"/>
-      <c r="AI2" s="17" t="s">
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="51"/>
+      <c r="W2" s="51"/>
+      <c r="X2" s="51"/>
+      <c r="Y2" s="51"/>
+      <c r="Z2" s="51"/>
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="42"/>
+      <c r="AC2" s="42"/>
+      <c r="AD2" s="42"/>
+      <c r="AE2" s="42"/>
+      <c r="AF2" s="42"/>
+      <c r="AG2" s="42"/>
+      <c r="AH2" s="64"/>
+      <c r="AI2" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="AJ2" s="17" t="s">
+      <c r="AJ2" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="AK2" s="17" t="s">
+      <c r="AK2" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="AL2" s="17" t="s">
+      <c r="AL2" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="AM2" s="17" t="s">
+      <c r="AM2" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="AN2" s="20"/>
-      <c r="AO2" s="21"/>
+      <c r="AN2" s="69"/>
+      <c r="AO2" s="70"/>
     </row>
     <row r="3" ht="44" spans="1:41">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="9" t="s">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="Q3" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="R3" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="S3" s="9" t="s">
+      <c r="S3" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="T3" s="9" t="s">
+      <c r="T3" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="U3" s="9" t="s">
+      <c r="U3" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="V3" s="9" t="s">
+      <c r="V3" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="W3" s="9" t="s">
+      <c r="W3" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="X3" s="9" t="s">
+      <c r="X3" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="Y3" s="16" t="s">
+      <c r="Y3" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="Z3" s="16" t="s">
+      <c r="Z3" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="AA3" s="17" t="s">
+      <c r="AA3" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="AB3" s="10" t="s">
+      <c r="AB3" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="AC3" s="10" t="s">
+      <c r="AC3" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="AD3" s="10" t="s">
+      <c r="AD3" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="AE3" s="10" t="s">
+      <c r="AE3" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="AF3" s="10" t="s">
+      <c r="AF3" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="AG3" s="10" t="s">
+      <c r="AG3" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="AH3" s="19" t="s">
+      <c r="AH3" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="AI3" s="17"/>
-      <c r="AJ3" s="17"/>
-      <c r="AK3" s="17"/>
-      <c r="AL3" s="17"/>
-      <c r="AM3" s="17"/>
-      <c r="AN3" s="20"/>
-      <c r="AO3" s="21"/>
+      <c r="AI3" s="66"/>
+      <c r="AJ3" s="66"/>
+      <c r="AK3" s="66"/>
+      <c r="AL3" s="66"/>
+      <c r="AM3" s="66"/>
+      <c r="AN3" s="69"/>
+      <c r="AO3" s="70"/>
     </row>
-    <row r="4" ht="28" spans="1:7">
-      <c r="A4" s="5" t="s">
+    <row r="4" s="1" customFormat="1" ht="28" spans="1:41">
+      <c r="A4" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="16">
         <v>31.49</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="16">
         <v>19.84</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="16">
         <v>15.726</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="16">
         <v>14.516</v>
       </c>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="43">
+        <f>(D4-H6)/H6</f>
+        <v>0.295351707116413</v>
+      </c>
+      <c r="L4" s="43">
+        <f>(I6-D4)/I6</f>
+        <v>0.694271844660194</v>
+      </c>
+      <c r="M4" s="43">
+        <f>(I6-J6)/J6</f>
+        <v>0.813380281690141</v>
+      </c>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="60"/>
+      <c r="S4" s="60"/>
+      <c r="T4" s="60"/>
+      <c r="U4" s="60"/>
+      <c r="V4" s="60"/>
+      <c r="W4" s="60"/>
+      <c r="X4" s="60"/>
+      <c r="Y4" s="60"/>
+      <c r="Z4" s="60"/>
+      <c r="AA4" s="52"/>
+      <c r="AB4" s="43" t="e">
+        <f>(I4-P4)/I4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC4" s="43" t="e">
+        <f>(Q4-R4)/Q4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD4" s="43" t="e">
+        <f>(S4-T4)/S4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE4" s="43" t="e">
+        <f>(U4-V4)/U4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF4" s="43" t="e">
+        <f>(W4-X4)/W4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG4" s="43"/>
+      <c r="AH4" s="52"/>
+      <c r="AI4" s="52"/>
+      <c r="AJ4" s="52"/>
+      <c r="AK4" s="52"/>
+      <c r="AL4" s="52"/>
+      <c r="AM4" s="52"/>
+      <c r="AN4" s="52"/>
+      <c r="AO4" s="52"/>
     </row>
-    <row r="5" ht="28" spans="1:7">
-      <c r="A5" s="5" t="s">
+    <row r="5" s="2" customFormat="1" ht="28" spans="1:41">
+      <c r="A5" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="18">
         <v>29.72</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="18">
         <v>24.79</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="18">
         <v>21.405</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="18">
         <v>20.167</v>
       </c>
+      <c r="H5" s="30">
+        <v>7.56</v>
+      </c>
+      <c r="I5" s="30">
+        <v>31.5</v>
+      </c>
+      <c r="J5" s="30">
+        <v>23.08</v>
+      </c>
+      <c r="K5" s="44">
+        <f t="shared" ref="K4:K12" si="0">(D5-H5)/H5</f>
+        <v>2.93121693121693</v>
+      </c>
+      <c r="L5" s="44">
+        <f t="shared" ref="L4:L12" si="1">(I5-D5)/I5</f>
+        <v>0.0565079365079365</v>
+      </c>
+      <c r="M5" s="44">
+        <f t="shared" ref="M4:M12" si="2">(I5-J5)/J5</f>
+        <v>0.364818024263432</v>
+      </c>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="30">
+        <v>27.1</v>
+      </c>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="35"/>
+      <c r="V5" s="35"/>
+      <c r="W5" s="35"/>
+      <c r="X5" s="35"/>
+      <c r="Y5" s="35"/>
+      <c r="Z5" s="35"/>
+      <c r="AA5" s="53"/>
+      <c r="AB5" s="44">
+        <f>(I5-P5)/I5</f>
+        <v>0.13968253968254</v>
+      </c>
+      <c r="AC5" s="44" t="e">
+        <f>(Q5-R5)/Q5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD5" s="44" t="e">
+        <f>(S5-T5)/S5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE5" s="44" t="e">
+        <f>(U5-V5)/U5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF5" s="44" t="e">
+        <f>(W5-X5)/W5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG5" s="44"/>
+      <c r="AH5" s="53"/>
+      <c r="AI5" s="53"/>
+      <c r="AJ5" s="53"/>
+      <c r="AK5" s="53"/>
+      <c r="AL5" s="53"/>
+      <c r="AM5" s="53"/>
+      <c r="AN5" s="53"/>
+      <c r="AO5" s="53"/>
     </row>
-    <row r="6" ht="28" spans="1:7">
-      <c r="A6" s="5" t="s">
+    <row r="6" s="3" customFormat="1" ht="28" spans="1:41">
+      <c r="A6" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="20">
         <v>92.39</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="20">
         <v>88.136</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="20">
         <v>79.494</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="20">
         <v>69.589</v>
       </c>
+      <c r="H6" s="31">
+        <v>24.31</v>
+      </c>
+      <c r="I6" s="31">
+        <v>103</v>
+      </c>
+      <c r="J6" s="31">
+        <v>56.8</v>
+      </c>
+      <c r="K6" s="45">
+        <f>(D6-H6)/H6</f>
+        <v>2.80049362402304</v>
+      </c>
+      <c r="L6" s="45">
+        <f>(I6-D6)/I6</f>
+        <v>0.103009708737864</v>
+      </c>
+      <c r="M6" s="45">
+        <f>(I6-J6)/J6</f>
+        <v>0.813380281690141</v>
+      </c>
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="31">
+        <v>70.46</v>
+      </c>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="31"/>
+      <c r="U6" s="31"/>
+      <c r="V6" s="31"/>
+      <c r="W6" s="31"/>
+      <c r="X6" s="31"/>
+      <c r="Y6" s="31"/>
+      <c r="Z6" s="31"/>
+      <c r="AA6" s="54"/>
+      <c r="AB6" s="45">
+        <f>(I6-P6)/I6</f>
+        <v>0.315922330097087</v>
+      </c>
+      <c r="AC6" s="45" t="e">
+        <f>(Q6-R6)/Q6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD6" s="45" t="e">
+        <f>(S6-T6)/S6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE6" s="45" t="e">
+        <f>(U6-V6)/U6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF6" s="45" t="e">
+        <f>(W6-X6)/W6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG6" s="45"/>
+      <c r="AH6" s="54"/>
+      <c r="AI6" s="54"/>
+      <c r="AJ6" s="54"/>
+      <c r="AK6" s="54"/>
+      <c r="AL6" s="54"/>
+      <c r="AM6" s="54"/>
+      <c r="AN6" s="54"/>
+      <c r="AO6" s="54"/>
     </row>
-    <row r="7" ht="28" spans="1:7">
-      <c r="A7" s="5" t="s">
+    <row r="7" s="3" customFormat="1" ht="28" spans="1:41">
+      <c r="A7" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="20">
         <v>47.05</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="20">
         <v>44.279</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="20">
         <v>40.732</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="20">
         <v>35.498</v>
       </c>
+      <c r="H7" s="32">
+        <v>14.74</v>
+      </c>
+      <c r="I7" s="32">
+        <v>55.9</v>
+      </c>
+      <c r="J7" s="32">
+        <v>36.4</v>
+      </c>
+      <c r="K7" s="45">
+        <f t="shared" si="0"/>
+        <v>2.19199457259159</v>
+      </c>
+      <c r="L7" s="45">
+        <f t="shared" si="1"/>
+        <v>0.158318425760286</v>
+      </c>
+      <c r="M7" s="45">
+        <f t="shared" si="2"/>
+        <v>0.535714285714286</v>
+      </c>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="32">
+        <v>38.25</v>
+      </c>
+      <c r="Q7" s="32">
+        <v>51.51</v>
+      </c>
+      <c r="R7" s="32">
+        <v>40.5</v>
+      </c>
+      <c r="S7" s="31"/>
+      <c r="T7" s="31"/>
+      <c r="U7" s="31"/>
+      <c r="V7" s="31"/>
+      <c r="W7" s="31"/>
+      <c r="X7" s="31"/>
+      <c r="Y7" s="31"/>
+      <c r="Z7" s="31"/>
+      <c r="AA7" s="54"/>
+      <c r="AB7" s="45">
+        <f>(I7-P7)/I7</f>
+        <v>0.315742397137746</v>
+      </c>
+      <c r="AC7" s="45">
+        <f>(Q7-R7)/Q7</f>
+        <v>0.213744903902155</v>
+      </c>
+      <c r="AD7" s="45" t="e">
+        <f>(S7-T7)/S7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE7" s="45" t="e">
+        <f>(U7-V7)/U7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF7" s="45" t="e">
+        <f>(W7-X7)/W7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG7" s="45"/>
+      <c r="AH7" s="54"/>
+      <c r="AI7" s="54"/>
+      <c r="AJ7" s="54"/>
+      <c r="AK7" s="54"/>
+      <c r="AL7" s="54"/>
+      <c r="AM7" s="54"/>
+      <c r="AN7" s="54"/>
+      <c r="AO7" s="54"/>
     </row>
-    <row r="8" ht="28" spans="1:7">
-      <c r="A8" s="5" t="s">
+    <row r="8" ht="28" spans="1:41">
+      <c r="A8" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="22">
         <v>21.8</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="22">
         <v>19.564</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="22">
         <v>17.855</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="22">
         <v>15.752</v>
       </c>
+      <c r="H8" s="33">
+        <v>6.96</v>
+      </c>
+      <c r="I8" s="33">
+        <v>28.48</v>
+      </c>
+      <c r="J8" s="33">
+        <v>18</v>
+      </c>
+      <c r="K8" s="46">
+        <f t="shared" si="0"/>
+        <v>2.13218390804598</v>
+      </c>
+      <c r="L8" s="46">
+        <f t="shared" si="1"/>
+        <v>0.234550561797753</v>
+      </c>
+      <c r="M8" s="46">
+        <f t="shared" si="2"/>
+        <v>0.582222222222222</v>
+      </c>
+      <c r="N8" s="55"/>
+      <c r="O8" s="55"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="33"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="33"/>
+      <c r="W8" s="33"/>
+      <c r="X8" s="33"/>
+      <c r="Y8" s="33"/>
+      <c r="Z8" s="33"/>
+      <c r="AA8" s="55"/>
+      <c r="AB8" s="46">
+        <f>(I8-P8)/I8</f>
+        <v>1</v>
+      </c>
+      <c r="AC8" s="46" t="e">
+        <f>(Q8-R8)/Q8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD8" s="46" t="e">
+        <f>(S8-T8)/S8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE8" s="46" t="e">
+        <f>(U8-V8)/U8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF8" s="46" t="e">
+        <f>(W8-X8)/W8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG8" s="46"/>
+      <c r="AH8" s="55"/>
+      <c r="AI8" s="55"/>
+      <c r="AJ8" s="55"/>
+      <c r="AK8" s="55"/>
+      <c r="AL8" s="55"/>
+      <c r="AM8" s="55"/>
+      <c r="AN8" s="55"/>
+      <c r="AO8" s="55"/>
     </row>
-    <row r="9" ht="28" spans="1:7">
-      <c r="A9" s="5" t="s">
+    <row r="9" s="3" customFormat="1" ht="28" spans="1:41">
+      <c r="A9" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="20">
         <v>44.09</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="20">
         <v>42.047</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="20">
         <v>38.572</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="20">
         <v>35.389</v>
       </c>
+      <c r="H9" s="31">
+        <v>17.36</v>
+      </c>
+      <c r="I9" s="31">
+        <v>55.49</v>
+      </c>
+      <c r="J9" s="31">
+        <v>26.54</v>
+      </c>
+      <c r="K9" s="45">
+        <f t="shared" si="0"/>
+        <v>1.5397465437788</v>
+      </c>
+      <c r="L9" s="45">
+        <f t="shared" si="1"/>
+        <v>0.205442422058028</v>
+      </c>
+      <c r="M9" s="45">
+        <f t="shared" si="2"/>
+        <v>1.09080633006782</v>
+      </c>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="31">
+        <v>36.3</v>
+      </c>
+      <c r="Q9" s="31">
+        <v>48.39</v>
+      </c>
+      <c r="R9" s="31">
+        <v>41</v>
+      </c>
+      <c r="S9" s="31"/>
+      <c r="T9" s="31"/>
+      <c r="U9" s="31"/>
+      <c r="V9" s="31"/>
+      <c r="W9" s="31"/>
+      <c r="X9" s="31"/>
+      <c r="Y9" s="31"/>
+      <c r="Z9" s="31"/>
+      <c r="AA9" s="54"/>
+      <c r="AB9" s="45">
+        <f>(I9-P9)/I9</f>
+        <v>0.345828077131015</v>
+      </c>
+      <c r="AC9" s="45">
+        <f>(Q9-R9)/Q9</f>
+        <v>0.15271750361645</v>
+      </c>
+      <c r="AD9" s="45" t="e">
+        <f>(S9-T9)/S9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE9" s="45" t="e">
+        <f>(U9-V9)/U9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF9" s="45" t="e">
+        <f>(W9-X9)/W9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG9" s="45"/>
+      <c r="AH9" s="54"/>
+      <c r="AI9" s="54"/>
+      <c r="AJ9" s="54"/>
+      <c r="AK9" s="54"/>
+      <c r="AL9" s="54"/>
+      <c r="AM9" s="54"/>
+      <c r="AN9" s="54"/>
+      <c r="AO9" s="54"/>
     </row>
-    <row r="10" ht="28" spans="1:7">
-      <c r="A10" s="5" t="s">
+    <row r="10" s="3" customFormat="1" ht="28" spans="1:41">
+      <c r="A10" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="20">
         <v>7.05</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="20">
         <v>5.08</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="20">
         <v>4.135</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="20">
         <v>4.023</v>
       </c>
+      <c r="H10" s="31">
+        <v>3.35</v>
+      </c>
+      <c r="I10" s="31">
+        <v>9.24</v>
+      </c>
+      <c r="J10" s="31">
+        <v>3.73</v>
+      </c>
+      <c r="K10" s="45">
+        <f t="shared" si="0"/>
+        <v>1.1044776119403</v>
+      </c>
+      <c r="L10" s="45">
+        <f t="shared" si="1"/>
+        <v>0.237012987012987</v>
+      </c>
+      <c r="M10" s="45">
+        <f t="shared" si="2"/>
+        <v>1.47721179624665</v>
+      </c>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="31">
+        <v>6.93</v>
+      </c>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="31"/>
+      <c r="T10" s="31"/>
+      <c r="U10" s="31"/>
+      <c r="V10" s="31"/>
+      <c r="W10" s="31"/>
+      <c r="X10" s="31"/>
+      <c r="Y10" s="31"/>
+      <c r="Z10" s="31"/>
+      <c r="AA10" s="54"/>
+      <c r="AB10" s="45">
+        <f t="shared" ref="AB10:AB17" si="3">(I10-P10)/I10</f>
+        <v>0.25</v>
+      </c>
+      <c r="AC10" s="45" t="e">
+        <f t="shared" ref="AC10:AC17" si="4">(Q10-R10)/Q10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD10" s="45" t="e">
+        <f t="shared" ref="AD10:AD17" si="5">(S10-T10)/S10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE10" s="45" t="e">
+        <f t="shared" ref="AE10:AE17" si="6">(U10-V10)/U10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF10" s="45" t="e">
+        <f t="shared" ref="AF10:AF17" si="7">(W10-X10)/W10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG10" s="45"/>
+      <c r="AH10" s="54"/>
+      <c r="AI10" s="54"/>
+      <c r="AJ10" s="54"/>
+      <c r="AK10" s="54"/>
+      <c r="AL10" s="54"/>
+      <c r="AM10" s="54"/>
+      <c r="AN10" s="54"/>
+      <c r="AO10" s="54"/>
     </row>
-    <row r="11" ht="28" spans="1:7">
-      <c r="A11" s="5" t="s">
+    <row r="11" ht="28" spans="1:41">
+      <c r="A11" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="22">
         <v>33.8</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="22">
         <v>31.941</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="22">
         <v>31.441</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="22">
         <v>29.067</v>
       </c>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="46" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L11" s="46" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M11" s="46" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N11" s="55"/>
+      <c r="O11" s="55"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="33"/>
+      <c r="T11" s="33"/>
+      <c r="U11" s="33"/>
+      <c r="V11" s="33"/>
+      <c r="W11" s="33"/>
+      <c r="X11" s="33"/>
+      <c r="Y11" s="33"/>
+      <c r="Z11" s="33"/>
+      <c r="AA11" s="55"/>
+      <c r="AB11" s="46" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC11" s="46" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD11" s="46" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE11" s="46" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF11" s="46" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG11" s="46"/>
+      <c r="AH11" s="55"/>
+      <c r="AI11" s="55"/>
+      <c r="AJ11" s="55"/>
+      <c r="AK11" s="55"/>
+      <c r="AL11" s="55"/>
+      <c r="AM11" s="55"/>
+      <c r="AN11" s="55"/>
+      <c r="AO11" s="55"/>
     </row>
-    <row r="12" ht="28" spans="1:7">
-      <c r="A12" s="5" t="s">
+    <row r="12" ht="28" spans="1:41">
+      <c r="A12" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="22">
         <v>12.44</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="22">
         <v>10.638</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="22">
         <v>10.475</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="22">
         <v>9.824</v>
       </c>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="46" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L12" s="46" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M12" s="46" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N12" s="55"/>
+      <c r="O12" s="55"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="33"/>
+      <c r="S12" s="33"/>
+      <c r="T12" s="33"/>
+      <c r="U12" s="33"/>
+      <c r="V12" s="33"/>
+      <c r="W12" s="33"/>
+      <c r="X12" s="33"/>
+      <c r="Y12" s="33"/>
+      <c r="Z12" s="33"/>
+      <c r="AA12" s="55"/>
+      <c r="AB12" s="46" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC12" s="46" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD12" s="46" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE12" s="46" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF12" s="46" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG12" s="46"/>
+      <c r="AH12" s="55"/>
+      <c r="AI12" s="55"/>
+      <c r="AJ12" s="55"/>
+      <c r="AK12" s="55"/>
+      <c r="AL12" s="55"/>
+      <c r="AM12" s="55"/>
+      <c r="AN12" s="55"/>
+      <c r="AO12" s="55"/>
     </row>
-    <row r="13" ht="28" spans="1:7">
-      <c r="A13" s="5" t="s">
+    <row r="13" ht="28" spans="1:41">
+      <c r="A13" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="22">
         <v>25.86</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="22">
         <v>24.081</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="22">
         <v>21.509</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="22">
         <v>20.66</v>
       </c>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="46" t="e">
+        <f t="shared" ref="K13:K20" si="8">(D13-H13)/H13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L13" s="46" t="e">
+        <f t="shared" ref="L13:L20" si="9">(I13-D13)/I13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M13" s="46" t="e">
+        <f t="shared" ref="M13:M20" si="10">(I13-J13)/J13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N13" s="55"/>
+      <c r="O13" s="55"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="33"/>
+      <c r="R13" s="33"/>
+      <c r="S13" s="33"/>
+      <c r="T13" s="33"/>
+      <c r="U13" s="33"/>
+      <c r="V13" s="33"/>
+      <c r="W13" s="33"/>
+      <c r="X13" s="33"/>
+      <c r="Y13" s="33"/>
+      <c r="Z13" s="33"/>
+      <c r="AA13" s="55"/>
+      <c r="AB13" s="46" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC13" s="46" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD13" s="46" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE13" s="46" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF13" s="46" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG13" s="46"/>
+      <c r="AH13" s="55"/>
+      <c r="AI13" s="55"/>
+      <c r="AJ13" s="55"/>
+      <c r="AK13" s="55"/>
+      <c r="AL13" s="55"/>
+      <c r="AM13" s="55"/>
+      <c r="AN13" s="55"/>
+      <c r="AO13" s="55"/>
     </row>
-    <row r="14" ht="28" spans="1:7">
-      <c r="A14" s="5" t="s">
+    <row r="14" ht="28" spans="1:41">
+      <c r="A14" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="22">
         <v>11.49</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="22">
         <v>9.774</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="22">
         <v>9.123</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="22">
         <v>8.702</v>
       </c>
+      <c r="H14" s="33">
+        <v>6.46</v>
+      </c>
+      <c r="I14" s="33">
+        <v>12.65</v>
+      </c>
+      <c r="J14" s="33">
+        <v>9.3</v>
+      </c>
+      <c r="K14" s="46">
+        <f t="shared" si="8"/>
+        <v>0.778637770897833</v>
+      </c>
+      <c r="L14" s="46">
+        <f t="shared" si="9"/>
+        <v>0.091699604743083</v>
+      </c>
+      <c r="M14" s="46">
+        <f t="shared" si="10"/>
+        <v>0.360215053763441</v>
+      </c>
+      <c r="N14" s="55"/>
+      <c r="O14" s="55"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="33"/>
+      <c r="S14" s="33"/>
+      <c r="T14" s="33"/>
+      <c r="U14" s="33"/>
+      <c r="V14" s="33"/>
+      <c r="W14" s="33"/>
+      <c r="X14" s="33"/>
+      <c r="Y14" s="33"/>
+      <c r="Z14" s="33"/>
+      <c r="AA14" s="55"/>
+      <c r="AB14" s="46">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AC14" s="46" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD14" s="46" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE14" s="46" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF14" s="46" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG14" s="46"/>
+      <c r="AH14" s="55"/>
+      <c r="AI14" s="55"/>
+      <c r="AJ14" s="55"/>
+      <c r="AK14" s="55"/>
+      <c r="AL14" s="55"/>
+      <c r="AM14" s="55"/>
+      <c r="AN14" s="55"/>
+      <c r="AO14" s="55"/>
     </row>
-    <row r="15" ht="28" spans="1:7">
-      <c r="A15" s="5" t="s">
+    <row r="15" ht="28" spans="1:41">
+      <c r="A15" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="22">
         <v>13.25</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="22">
         <v>11.808</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="22">
         <v>10.669</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="22">
         <v>10.631</v>
       </c>
+      <c r="H15" s="33">
+        <v>8.49</v>
+      </c>
+      <c r="I15" s="33">
+        <v>13.65</v>
+      </c>
+      <c r="J15" s="33">
+        <v>10.5</v>
+      </c>
+      <c r="K15" s="46">
+        <f t="shared" si="8"/>
+        <v>0.560659599528857</v>
+      </c>
+      <c r="L15" s="46">
+        <f t="shared" si="9"/>
+        <v>0.0293040293040293</v>
+      </c>
+      <c r="M15" s="46">
+        <f t="shared" si="10"/>
+        <v>0.3</v>
+      </c>
+      <c r="N15" s="55"/>
+      <c r="O15" s="55"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="33"/>
+      <c r="S15" s="33"/>
+      <c r="T15" s="33"/>
+      <c r="U15" s="33"/>
+      <c r="V15" s="33"/>
+      <c r="W15" s="33"/>
+      <c r="X15" s="33"/>
+      <c r="Y15" s="33"/>
+      <c r="Z15" s="33"/>
+      <c r="AA15" s="55"/>
+      <c r="AB15" s="46">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AC15" s="46" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD15" s="46" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE15" s="46" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF15" s="46" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG15" s="46"/>
+      <c r="AH15" s="55"/>
+      <c r="AI15" s="55"/>
+      <c r="AJ15" s="55"/>
+      <c r="AK15" s="55"/>
+      <c r="AL15" s="55"/>
+      <c r="AM15" s="55"/>
+      <c r="AN15" s="55"/>
+      <c r="AO15" s="55"/>
     </row>
-    <row r="16" ht="28" spans="1:7">
-      <c r="A16" s="5" t="s">
+    <row r="16" s="4" customFormat="1" ht="28" spans="1:41">
+      <c r="A16" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="24">
         <v>6.55</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="24">
         <v>5.227</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="24">
         <v>4.374</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="24">
         <v>4.187</v>
       </c>
+      <c r="H16" s="34">
+        <v>3.23</v>
+      </c>
+      <c r="I16" s="34">
+        <v>7.4</v>
+      </c>
+      <c r="J16" s="34">
+        <v>4.13</v>
+      </c>
+      <c r="K16" s="47">
+        <f t="shared" si="8"/>
+        <v>1.02786377708978</v>
+      </c>
+      <c r="L16" s="47">
+        <f t="shared" si="9"/>
+        <v>0.114864864864865</v>
+      </c>
+      <c r="M16" s="47">
+        <f t="shared" si="10"/>
+        <v>0.791767554479419</v>
+      </c>
+      <c r="N16" s="56"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="34">
+        <v>5.34</v>
+      </c>
+      <c r="Q16" s="34">
+        <v>7</v>
+      </c>
+      <c r="R16" s="34">
+        <v>5.96</v>
+      </c>
+      <c r="S16" s="34"/>
+      <c r="T16" s="34"/>
+      <c r="U16" s="34"/>
+      <c r="V16" s="34"/>
+      <c r="W16" s="34"/>
+      <c r="X16" s="34"/>
+      <c r="Y16" s="34"/>
+      <c r="Z16" s="34"/>
+      <c r="AA16" s="56"/>
+      <c r="AB16" s="47">
+        <f t="shared" si="3"/>
+        <v>0.278378378378378</v>
+      </c>
+      <c r="AC16" s="47">
+        <f t="shared" si="4"/>
+        <v>0.148571428571429</v>
+      </c>
+      <c r="AD16" s="47" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE16" s="47" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF16" s="47" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG16" s="47"/>
+      <c r="AH16" s="56"/>
+      <c r="AI16" s="56"/>
+      <c r="AJ16" s="56"/>
+      <c r="AK16" s="56"/>
+      <c r="AL16" s="56"/>
+      <c r="AM16" s="56"/>
+      <c r="AN16" s="56"/>
+      <c r="AO16" s="56"/>
     </row>
-    <row r="17" ht="28" spans="1:7">
-      <c r="A17" s="5" t="s">
+    <row r="17" ht="28" spans="1:41">
+      <c r="A17" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="22">
         <v>8.81</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="22">
         <v>7.674</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="22">
         <v>6.8</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="22">
         <v>6.783</v>
       </c>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="46" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L17" s="46" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M17" s="46" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N17" s="55"/>
+      <c r="O17" s="55"/>
+      <c r="P17" s="33"/>
+      <c r="Q17" s="33"/>
+      <c r="R17" s="33"/>
+      <c r="S17" s="33"/>
+      <c r="T17" s="33"/>
+      <c r="U17" s="33"/>
+      <c r="V17" s="33"/>
+      <c r="W17" s="33"/>
+      <c r="X17" s="33"/>
+      <c r="Y17" s="33"/>
+      <c r="Z17" s="33"/>
+      <c r="AA17" s="55"/>
+      <c r="AB17" s="46" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC17" s="46" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD17" s="46" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE17" s="46" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF17" s="46" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG17" s="46"/>
+      <c r="AH17" s="55"/>
+      <c r="AI17" s="55"/>
+      <c r="AJ17" s="55"/>
+      <c r="AK17" s="55"/>
+      <c r="AL17" s="55"/>
+      <c r="AM17" s="55"/>
+      <c r="AN17" s="55"/>
+      <c r="AO17" s="55"/>
     </row>
-    <row r="18" ht="28" spans="1:7">
-      <c r="A18" s="5" t="s">
+    <row r="18" ht="28" spans="1:41">
+      <c r="A18" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="22">
         <v>11.22</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="22">
         <v>10.248</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="22">
         <v>8.218</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="22">
         <v>7.733</v>
       </c>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="46" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L18" s="46" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M18" s="46" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N18" s="55"/>
+      <c r="O18" s="55"/>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="33"/>
+      <c r="S18" s="33"/>
+      <c r="T18" s="33"/>
+      <c r="U18" s="33"/>
+      <c r="V18" s="33"/>
+      <c r="W18" s="33"/>
+      <c r="X18" s="33"/>
+      <c r="Y18" s="33"/>
+      <c r="Z18" s="33"/>
+      <c r="AA18" s="55"/>
+      <c r="AB18" s="46" t="e">
+        <f t="shared" ref="AB18:AB26" si="11">(I18-P18)/I18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC18" s="46" t="e">
+        <f t="shared" ref="AC18:AC26" si="12">(Q18-R18)/Q18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD18" s="46" t="e">
+        <f t="shared" ref="AD18:AD26" si="13">(S18-T18)/S18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE18" s="46" t="e">
+        <f t="shared" ref="AE18:AE26" si="14">(U18-V18)/U18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF18" s="46" t="e">
+        <f t="shared" ref="AF18:AF26" si="15">(W18-X18)/W18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG18" s="46"/>
+      <c r="AH18" s="55"/>
+      <c r="AI18" s="55"/>
+      <c r="AJ18" s="55"/>
+      <c r="AK18" s="55"/>
+      <c r="AL18" s="55"/>
+      <c r="AM18" s="55"/>
+      <c r="AN18" s="55"/>
+      <c r="AO18" s="55"/>
     </row>
-    <row r="19" ht="28" spans="1:7">
-      <c r="A19" s="5" t="s">
+    <row r="19" ht="28" spans="1:41">
+      <c r="A19" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="22">
         <v>22.2</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="22">
         <v>21.416</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="22">
         <v>20.137</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="22">
         <v>19.881</v>
       </c>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="46" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L19" s="46" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M19" s="46" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N19" s="55"/>
+      <c r="O19" s="55"/>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="33"/>
+      <c r="R19" s="33"/>
+      <c r="S19" s="33"/>
+      <c r="T19" s="33"/>
+      <c r="U19" s="33"/>
+      <c r="V19" s="33"/>
+      <c r="W19" s="33"/>
+      <c r="X19" s="33"/>
+      <c r="Y19" s="33"/>
+      <c r="Z19" s="33"/>
+      <c r="AA19" s="55"/>
+      <c r="AB19" s="46" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC19" s="46" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD19" s="46" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE19" s="46" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF19" s="46" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG19" s="46"/>
+      <c r="AH19" s="55"/>
+      <c r="AI19" s="55"/>
+      <c r="AJ19" s="55"/>
+      <c r="AK19" s="55"/>
+      <c r="AL19" s="55"/>
+      <c r="AM19" s="55"/>
+      <c r="AN19" s="55"/>
+      <c r="AO19" s="55"/>
     </row>
-    <row r="20" ht="28" spans="1:7">
-      <c r="A20" s="5" t="s">
+    <row r="20" ht="28" spans="1:41">
+      <c r="A20" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="22">
         <v>21.3</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="22">
         <v>20.517</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="22">
         <v>16.744</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="22">
         <v>16.138</v>
       </c>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="46" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L20" s="46" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M20" s="46" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N20" s="55"/>
+      <c r="O20" s="55"/>
+      <c r="P20" s="33"/>
+      <c r="Q20" s="33"/>
+      <c r="R20" s="33"/>
+      <c r="S20" s="33"/>
+      <c r="T20" s="33"/>
+      <c r="U20" s="33"/>
+      <c r="V20" s="33"/>
+      <c r="W20" s="33"/>
+      <c r="X20" s="33"/>
+      <c r="Y20" s="33"/>
+      <c r="Z20" s="33"/>
+      <c r="AA20" s="55"/>
+      <c r="AB20" s="46" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC20" s="46" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD20" s="46" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE20" s="46" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF20" s="46" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG20" s="46"/>
+      <c r="AH20" s="55"/>
+      <c r="AI20" s="55"/>
+      <c r="AJ20" s="55"/>
+      <c r="AK20" s="55"/>
+      <c r="AL20" s="55"/>
+      <c r="AM20" s="55"/>
+      <c r="AN20" s="55"/>
+      <c r="AO20" s="55"/>
     </row>
-    <row r="21" ht="28" spans="1:7">
-      <c r="A21" s="5" t="s">
+    <row r="21" s="3" customFormat="1" ht="28" spans="1:41">
+      <c r="A21" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="20">
         <v>35.71</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="20">
         <v>34.937</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="20">
         <v>31.067</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="20">
         <v>28.653</v>
       </c>
+      <c r="H21" s="31">
+        <v>8.95</v>
+      </c>
+      <c r="I21" s="31">
+        <v>41.77</v>
+      </c>
+      <c r="J21" s="31">
+        <v>28.35</v>
+      </c>
+      <c r="K21" s="45">
+        <f t="shared" ref="K21:K31" si="16">(D21-H21)/H21</f>
+        <v>2.98994413407821</v>
+      </c>
+      <c r="L21" s="45">
+        <f t="shared" ref="L21:L31" si="17">(I21-D21)/I21</f>
+        <v>0.145080201101269</v>
+      </c>
+      <c r="M21" s="45">
+        <f t="shared" ref="M21:M31" si="18">(I21-J21)/J21</f>
+        <v>0.47336860670194</v>
+      </c>
+      <c r="N21" s="54"/>
+      <c r="O21" s="54"/>
+      <c r="P21" s="31">
+        <v>28.52</v>
+      </c>
+      <c r="Q21" s="31">
+        <v>38.72</v>
+      </c>
+      <c r="R21" s="31">
+        <v>34.36</v>
+      </c>
+      <c r="S21" s="31"/>
+      <c r="T21" s="31"/>
+      <c r="U21" s="31"/>
+      <c r="V21" s="31"/>
+      <c r="W21" s="31"/>
+      <c r="X21" s="31"/>
+      <c r="Y21" s="31"/>
+      <c r="Z21" s="31"/>
+      <c r="AA21" s="54"/>
+      <c r="AB21" s="45">
+        <f t="shared" si="11"/>
+        <v>0.317213310988748</v>
+      </c>
+      <c r="AC21" s="45">
+        <f t="shared" si="12"/>
+        <v>0.112603305785124</v>
+      </c>
+      <c r="AD21" s="45" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE21" s="45" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF21" s="45" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG21" s="45"/>
+      <c r="AH21" s="54"/>
+      <c r="AI21" s="54"/>
+      <c r="AJ21" s="54"/>
+      <c r="AK21" s="54"/>
+      <c r="AL21" s="54"/>
+      <c r="AM21" s="54"/>
+      <c r="AN21" s="54"/>
+      <c r="AO21" s="54"/>
     </row>
-    <row r="22" ht="28" spans="1:7">
-      <c r="A22" s="5" t="s">
+    <row r="22" s="3" customFormat="1" ht="28" spans="1:41">
+      <c r="A22" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="20">
         <v>6.52</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="20">
         <v>5.887</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="20">
         <v>5.69</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="20">
         <v>5.347</v>
       </c>
+      <c r="H22" s="31">
+        <v>3.82</v>
+      </c>
+      <c r="I22" s="31">
+        <v>9.09</v>
+      </c>
+      <c r="J22" s="31">
+        <v>4.84</v>
+      </c>
+      <c r="K22" s="45">
+        <f t="shared" si="16"/>
+        <v>0.706806282722513</v>
+      </c>
+      <c r="L22" s="45">
+        <f t="shared" si="17"/>
+        <v>0.282728272827283</v>
+      </c>
+      <c r="M22" s="45">
+        <f t="shared" si="18"/>
+        <v>0.878099173553719</v>
+      </c>
+      <c r="N22" s="54"/>
+      <c r="O22" s="54"/>
+      <c r="P22" s="31">
+        <v>4.69</v>
+      </c>
+      <c r="Q22" s="31">
+        <v>7.25</v>
+      </c>
+      <c r="R22" s="31">
+        <v>5.15</v>
+      </c>
+      <c r="S22" s="31"/>
+      <c r="T22" s="31"/>
+      <c r="U22" s="31"/>
+      <c r="V22" s="31"/>
+      <c r="W22" s="31"/>
+      <c r="X22" s="31"/>
+      <c r="Y22" s="31"/>
+      <c r="Z22" s="31"/>
+      <c r="AA22" s="54"/>
+      <c r="AB22" s="45">
+        <f t="shared" si="11"/>
+        <v>0.484048404840484</v>
+      </c>
+      <c r="AC22" s="45">
+        <f t="shared" si="12"/>
+        <v>0.289655172413793</v>
+      </c>
+      <c r="AD22" s="45" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE22" s="45" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF22" s="45" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG22" s="45"/>
+      <c r="AH22" s="54"/>
+      <c r="AI22" s="54"/>
+      <c r="AJ22" s="54"/>
+      <c r="AK22" s="54"/>
+      <c r="AL22" s="54"/>
+      <c r="AM22" s="54"/>
+      <c r="AN22" s="54"/>
+      <c r="AO22" s="54"/>
     </row>
-    <row r="23" ht="28" spans="1:7">
-      <c r="A23" s="5" t="s">
+    <row r="23" s="3" customFormat="1" ht="28" spans="1:41">
+      <c r="A23" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="20">
         <v>8.95</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="20">
         <v>8.32</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="20">
         <v>7.04</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="20">
         <v>6.833</v>
       </c>
+      <c r="H23" s="31">
+        <v>5.65</v>
+      </c>
+      <c r="I23" s="31">
+        <v>12.66</v>
+      </c>
+      <c r="J23" s="31">
+        <v>7.2</v>
+      </c>
+      <c r="K23" s="45">
+        <f t="shared" si="16"/>
+        <v>0.584070796460177</v>
+      </c>
+      <c r="L23" s="45">
+        <f t="shared" si="17"/>
+        <v>0.29304897314376</v>
+      </c>
+      <c r="M23" s="45">
+        <f t="shared" si="18"/>
+        <v>0.758333333333333</v>
+      </c>
+      <c r="N23" s="54"/>
+      <c r="O23" s="54"/>
+      <c r="P23" s="31">
+        <v>8.6</v>
+      </c>
+      <c r="Q23" s="31"/>
+      <c r="R23" s="31"/>
+      <c r="S23" s="31"/>
+      <c r="T23" s="31"/>
+      <c r="U23" s="31"/>
+      <c r="V23" s="31"/>
+      <c r="W23" s="31"/>
+      <c r="X23" s="31"/>
+      <c r="Y23" s="31"/>
+      <c r="Z23" s="31"/>
+      <c r="AA23" s="54"/>
+      <c r="AB23" s="45">
+        <f t="shared" si="11"/>
+        <v>0.320695102685624</v>
+      </c>
+      <c r="AC23" s="45" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD23" s="45" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE23" s="45" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF23" s="45" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG23" s="45"/>
+      <c r="AH23" s="54"/>
+      <c r="AI23" s="54"/>
+      <c r="AJ23" s="54"/>
+      <c r="AK23" s="54"/>
+      <c r="AL23" s="54"/>
+      <c r="AM23" s="54"/>
+      <c r="AN23" s="54"/>
+      <c r="AO23" s="54"/>
     </row>
-    <row r="24" ht="28" spans="1:7">
-      <c r="A24" s="5" t="s">
+    <row r="24" ht="28" spans="1:41">
+      <c r="A24" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="22">
         <v>6.1</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="22">
         <v>5.492</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="22">
         <v>4.302</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24" s="22">
         <v>4.153</v>
       </c>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="46" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L24" s="46" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M24" s="46" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N24" s="55"/>
+      <c r="O24" s="55"/>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="33"/>
+      <c r="R24" s="33"/>
+      <c r="S24" s="33"/>
+      <c r="T24" s="33"/>
+      <c r="U24" s="33"/>
+      <c r="V24" s="33"/>
+      <c r="W24" s="33"/>
+      <c r="X24" s="33"/>
+      <c r="Y24" s="33"/>
+      <c r="Z24" s="33"/>
+      <c r="AA24" s="55"/>
+      <c r="AB24" s="46" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC24" s="46" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD24" s="46" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE24" s="46" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF24" s="46" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG24" s="46"/>
+      <c r="AH24" s="55"/>
+      <c r="AI24" s="55"/>
+      <c r="AJ24" s="55"/>
+      <c r="AK24" s="55"/>
+      <c r="AL24" s="55"/>
+      <c r="AM24" s="55"/>
+      <c r="AN24" s="55"/>
+      <c r="AO24" s="55"/>
     </row>
-    <row r="25" ht="28" spans="1:7">
-      <c r="A25" s="5" t="s">
+    <row r="25" s="3" customFormat="1" ht="28" spans="1:41">
+      <c r="A25" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="20">
         <v>5.9</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="20">
         <v>5.397</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25" s="20">
         <v>5.177</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G25" s="20">
         <v>5.072</v>
       </c>
+      <c r="H25" s="31">
+        <v>3.9</v>
+      </c>
+      <c r="I25" s="31">
+        <v>6.49</v>
+      </c>
+      <c r="J25" s="31">
+        <v>4.52</v>
+      </c>
+      <c r="K25" s="45">
+        <f t="shared" si="16"/>
+        <v>0.512820512820513</v>
+      </c>
+      <c r="L25" s="45">
+        <f t="shared" si="17"/>
+        <v>0.0909090909090909</v>
+      </c>
+      <c r="M25" s="45">
+        <f t="shared" si="18"/>
+        <v>0.435840707964602</v>
+      </c>
+      <c r="N25" s="54"/>
+      <c r="O25" s="54"/>
+      <c r="P25" s="31">
+        <v>4.64</v>
+      </c>
+      <c r="Q25" s="31">
+        <v>5.58</v>
+      </c>
+      <c r="R25" s="31">
+        <v>4.99</v>
+      </c>
+      <c r="S25" s="31">
+        <v>6.04</v>
+      </c>
+      <c r="T25" s="31">
+        <v>5.45</v>
+      </c>
+      <c r="U25" s="31"/>
+      <c r="V25" s="31"/>
+      <c r="W25" s="31"/>
+      <c r="X25" s="31"/>
+      <c r="Y25" s="31"/>
+      <c r="Z25" s="31"/>
+      <c r="AA25" s="54"/>
+      <c r="AB25" s="45">
+        <f t="shared" si="11"/>
+        <v>0.285053929121726</v>
+      </c>
+      <c r="AC25" s="45">
+        <f t="shared" si="12"/>
+        <v>0.10573476702509</v>
+      </c>
+      <c r="AD25" s="45">
+        <f t="shared" si="13"/>
+        <v>0.097682119205298</v>
+      </c>
+      <c r="AE25" s="45" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF25" s="45" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG25" s="45"/>
+      <c r="AH25" s="54"/>
+      <c r="AI25" s="54"/>
+      <c r="AJ25" s="54"/>
+      <c r="AK25" s="54"/>
+      <c r="AL25" s="54"/>
+      <c r="AM25" s="54"/>
+      <c r="AN25" s="54"/>
+      <c r="AO25" s="54"/>
     </row>
-    <row r="26" ht="28" spans="1:7">
-      <c r="A26" s="5" t="s">
+    <row r="26" s="3" customFormat="1" ht="28" spans="1:41">
+      <c r="A26" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="20">
         <v>5.48</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="20">
         <v>4.981</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="20">
         <v>4.576</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G26" s="20">
         <v>4.541</v>
       </c>
+      <c r="H26" s="31">
+        <v>3.77</v>
+      </c>
+      <c r="I26" s="31">
+        <v>5.95</v>
+      </c>
+      <c r="J26" s="31">
+        <v>4.55</v>
+      </c>
+      <c r="K26" s="45">
+        <f t="shared" si="16"/>
+        <v>0.453580901856764</v>
+      </c>
+      <c r="L26" s="45">
+        <f t="shared" si="17"/>
+        <v>0.0789915966386554</v>
+      </c>
+      <c r="M26" s="45">
+        <f t="shared" si="18"/>
+        <v>0.307692307692308</v>
+      </c>
+      <c r="N26" s="54"/>
+      <c r="O26" s="54"/>
+      <c r="P26" s="31">
+        <v>4.18</v>
+      </c>
+      <c r="Q26" s="31">
+        <v>5.71</v>
+      </c>
+      <c r="R26" s="31">
+        <v>4.51</v>
+      </c>
+      <c r="S26" s="31">
+        <v>5.58</v>
+      </c>
+      <c r="T26" s="31">
+        <v>5.1</v>
+      </c>
+      <c r="U26" s="31"/>
+      <c r="V26" s="31"/>
+      <c r="W26" s="31"/>
+      <c r="X26" s="31"/>
+      <c r="Y26" s="31"/>
+      <c r="Z26" s="31"/>
+      <c r="AA26" s="54"/>
+      <c r="AB26" s="45">
+        <f t="shared" si="11"/>
+        <v>0.297478991596639</v>
+      </c>
+      <c r="AC26" s="45">
+        <f t="shared" si="12"/>
+        <v>0.21015761821366</v>
+      </c>
+      <c r="AD26" s="45">
+        <f t="shared" si="13"/>
+        <v>0.0860215053763442</v>
+      </c>
+      <c r="AE26" s="45" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF26" s="45" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG26" s="45"/>
+      <c r="AH26" s="54"/>
+      <c r="AI26" s="54"/>
+      <c r="AJ26" s="54"/>
+      <c r="AK26" s="54"/>
+      <c r="AL26" s="54"/>
+      <c r="AM26" s="54"/>
+      <c r="AN26" s="54"/>
+      <c r="AO26" s="54"/>
     </row>
-    <row r="27" ht="28" spans="1:7">
-      <c r="A27" s="5" t="s">
+    <row r="27" s="2" customFormat="1" ht="28" spans="1:41">
+      <c r="A27" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="18">
         <v>9.11</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="18">
         <v>8.681</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="18">
         <v>8.675</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27" s="18">
         <v>7.708</v>
       </c>
+      <c r="H27" s="30">
+        <v>2.01</v>
+      </c>
+      <c r="I27" s="30">
+        <v>13.54</v>
+      </c>
+      <c r="J27" s="30">
+        <v>6.9</v>
+      </c>
+      <c r="K27" s="44">
+        <f t="shared" si="16"/>
+        <v>3.53233830845771</v>
+      </c>
+      <c r="L27" s="44">
+        <f t="shared" si="17"/>
+        <v>0.327178729689808</v>
+      </c>
+      <c r="M27" s="44">
+        <f t="shared" si="18"/>
+        <v>0.96231884057971</v>
+      </c>
+      <c r="N27" s="53"/>
+      <c r="O27" s="53"/>
+      <c r="P27" s="30">
+        <v>6.41</v>
+      </c>
+      <c r="Q27" s="35"/>
+      <c r="R27" s="35"/>
+      <c r="S27" s="35"/>
+      <c r="T27" s="35"/>
+      <c r="U27" s="35"/>
+      <c r="V27" s="35"/>
+      <c r="W27" s="35"/>
+      <c r="X27" s="35"/>
+      <c r="Y27" s="35"/>
+      <c r="Z27" s="35"/>
+      <c r="AA27" s="53"/>
+      <c r="AB27" s="44">
+        <f>(I27-P27)/I27</f>
+        <v>0.52658788774003</v>
+      </c>
+      <c r="AC27" s="44" t="e">
+        <f>(Q27-R27)/Q27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD27" s="44" t="e">
+        <f>(S27-T27)/S27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE27" s="44" t="e">
+        <f>(U27-V27)/U27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF27" s="44" t="e">
+        <f>(W27-X27)/W27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG27" s="44"/>
+      <c r="AH27" s="53"/>
+      <c r="AI27" s="53"/>
+      <c r="AJ27" s="53"/>
+      <c r="AK27" s="53"/>
+      <c r="AL27" s="53"/>
+      <c r="AM27" s="53"/>
+      <c r="AN27" s="53"/>
+      <c r="AO27" s="53"/>
     </row>
-    <row r="28" ht="28" spans="1:7">
-      <c r="A28" s="5" t="s">
+    <row r="28" ht="28" spans="1:41">
+      <c r="A28" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="22">
         <v>5.16</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="22">
         <v>4.785</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28" s="22">
         <v>4.353</v>
       </c>
-      <c r="G28" s="5">
+      <c r="G28" s="22">
         <v>4.327</v>
       </c>
+      <c r="H28" s="33">
+        <v>3.89</v>
+      </c>
+      <c r="I28" s="33">
+        <v>5.58</v>
+      </c>
+      <c r="J28" s="33">
+        <v>5.06</v>
+      </c>
+      <c r="K28" s="46">
+        <f t="shared" si="16"/>
+        <v>0.326478149100257</v>
+      </c>
+      <c r="L28" s="46">
+        <f t="shared" si="17"/>
+        <v>0.0752688172043011</v>
+      </c>
+      <c r="M28" s="46">
+        <f t="shared" si="18"/>
+        <v>0.102766798418972</v>
+      </c>
+      <c r="N28" s="55"/>
+      <c r="O28" s="55"/>
+      <c r="P28" s="33"/>
+      <c r="Q28" s="33"/>
+      <c r="R28" s="33"/>
+      <c r="S28" s="33"/>
+      <c r="T28" s="33"/>
+      <c r="U28" s="33"/>
+      <c r="V28" s="33"/>
+      <c r="W28" s="33"/>
+      <c r="X28" s="33"/>
+      <c r="Y28" s="33"/>
+      <c r="Z28" s="33"/>
+      <c r="AA28" s="55"/>
+      <c r="AB28" s="46">
+        <f>(I28-P28)/I28</f>
+        <v>1</v>
+      </c>
+      <c r="AC28" s="46" t="e">
+        <f>(Q28-R28)/Q28</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD28" s="46" t="e">
+        <f>(S28-T28)/S28</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE28" s="46" t="e">
+        <f>(U28-V28)/U28</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF28" s="46" t="e">
+        <f>(W28-X28)/W28</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG28" s="46"/>
+      <c r="AH28" s="55"/>
+      <c r="AI28" s="55"/>
+      <c r="AJ28" s="55"/>
+      <c r="AK28" s="55"/>
+      <c r="AL28" s="55"/>
+      <c r="AM28" s="55"/>
+      <c r="AN28" s="55"/>
+      <c r="AO28" s="55"/>
     </row>
-    <row r="29" ht="28" spans="1:7">
-      <c r="A29" s="5" t="s">
+    <row r="29" s="3" customFormat="1" ht="28" spans="1:41">
+      <c r="A29" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="20">
         <v>5.95</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="20">
         <v>5.584</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29" s="20">
         <v>5.147</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G29" s="20">
         <v>5.12</v>
       </c>
+      <c r="H29" s="31">
+        <v>4.48</v>
+      </c>
+      <c r="I29" s="31">
+        <v>7.15</v>
+      </c>
+      <c r="J29" s="31">
+        <v>5.39</v>
+      </c>
+      <c r="K29" s="45">
+        <f t="shared" si="16"/>
+        <v>0.328125</v>
+      </c>
+      <c r="L29" s="45">
+        <f t="shared" si="17"/>
+        <v>0.167832167832168</v>
+      </c>
+      <c r="M29" s="45">
+        <f t="shared" si="18"/>
+        <v>0.326530612244898</v>
+      </c>
+      <c r="N29" s="54"/>
+      <c r="O29" s="54"/>
+      <c r="P29" s="31">
+        <v>5.51</v>
+      </c>
+      <c r="Q29" s="31"/>
+      <c r="R29" s="31"/>
+      <c r="S29" s="31"/>
+      <c r="T29" s="31"/>
+      <c r="U29" s="31"/>
+      <c r="V29" s="31"/>
+      <c r="W29" s="31"/>
+      <c r="X29" s="31"/>
+      <c r="Y29" s="31"/>
+      <c r="Z29" s="31"/>
+      <c r="AA29" s="54"/>
+      <c r="AB29" s="45">
+        <f>(I29-P29)/I29</f>
+        <v>0.229370629370629</v>
+      </c>
+      <c r="AC29" s="45" t="e">
+        <f>(Q29-R29)/Q29</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD29" s="45" t="e">
+        <f>(S29-T29)/S29</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE29" s="45" t="e">
+        <f>(U29-V29)/U29</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF29" s="45" t="e">
+        <f>(W29-X29)/W29</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG29" s="45"/>
+      <c r="AH29" s="54"/>
+      <c r="AI29" s="54"/>
+      <c r="AJ29" s="54"/>
+      <c r="AK29" s="54"/>
+      <c r="AL29" s="54"/>
+      <c r="AM29" s="54"/>
+      <c r="AN29" s="54"/>
+      <c r="AO29" s="54"/>
     </row>
-    <row r="30" ht="28" spans="1:7">
-      <c r="A30" s="5" t="s">
+    <row r="30" s="2" customFormat="1" ht="28" spans="1:41">
+      <c r="A30" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="18">
         <v>4.57</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="18">
         <v>4.208</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30" s="18">
         <v>3.085</v>
       </c>
-      <c r="G30" s="5">
+      <c r="G30" s="18">
         <v>2.937</v>
       </c>
+      <c r="H30" s="35">
+        <v>1.77</v>
+      </c>
+      <c r="I30" s="35">
+        <v>6.24</v>
+      </c>
+      <c r="J30" s="35">
+        <v>2.19</v>
+      </c>
+      <c r="K30" s="44">
+        <f t="shared" si="16"/>
+        <v>1.5819209039548</v>
+      </c>
+      <c r="L30" s="44">
+        <f t="shared" si="17"/>
+        <v>0.267628205128205</v>
+      </c>
+      <c r="M30" s="44">
+        <f t="shared" si="18"/>
+        <v>1.84931506849315</v>
+      </c>
+      <c r="N30" s="53"/>
+      <c r="O30" s="53"/>
+      <c r="P30" s="35">
+        <v>3.38</v>
+      </c>
+      <c r="Q30" s="35">
+        <v>5.7</v>
+      </c>
+      <c r="R30" s="35">
+        <v>4.28</v>
+      </c>
+      <c r="S30" s="35"/>
+      <c r="T30" s="35"/>
+      <c r="U30" s="35"/>
+      <c r="V30" s="35"/>
+      <c r="W30" s="35"/>
+      <c r="X30" s="35"/>
+      <c r="Y30" s="35"/>
+      <c r="Z30" s="35"/>
+      <c r="AA30" s="53"/>
+      <c r="AB30" s="44">
+        <f t="shared" ref="AB30:AB39" si="19">(I30-P30)/I30</f>
+        <v>0.458333333333333</v>
+      </c>
+      <c r="AC30" s="44">
+        <f t="shared" ref="AC30:AC39" si="20">(Q30-R30)/Q30</f>
+        <v>0.249122807017544</v>
+      </c>
+      <c r="AD30" s="44" t="e">
+        <f t="shared" ref="AD30:AD39" si="21">(S30-T30)/S30</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE30" s="44" t="e">
+        <f t="shared" ref="AE30:AE39" si="22">(U30-V30)/U30</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF30" s="44" t="e">
+        <f t="shared" ref="AF30:AF39" si="23">(W30-X30)/W30</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG30" s="44"/>
+      <c r="AH30" s="53"/>
+      <c r="AI30" s="53"/>
+      <c r="AJ30" s="53"/>
+      <c r="AK30" s="53"/>
+      <c r="AL30" s="53"/>
+      <c r="AM30" s="53"/>
+      <c r="AN30" s="53"/>
+      <c r="AO30" s="53"/>
     </row>
-    <row r="31" ht="28" spans="1:7">
-      <c r="A31" s="5" t="s">
+    <row r="31" ht="28" spans="1:41">
+      <c r="A31" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="22">
         <v>11.35</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="22">
         <v>10.999</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31" s="22">
         <v>10.28</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G31" s="22">
         <v>9.431</v>
       </c>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="46" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L31" s="46" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M31" s="46" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N31" s="55"/>
+      <c r="O31" s="55"/>
+      <c r="P31" s="33"/>
+      <c r="Q31" s="33"/>
+      <c r="R31" s="33"/>
+      <c r="S31" s="33"/>
+      <c r="T31" s="33"/>
+      <c r="U31" s="33"/>
+      <c r="V31" s="33"/>
+      <c r="W31" s="33"/>
+      <c r="X31" s="33"/>
+      <c r="Y31" s="33"/>
+      <c r="Z31" s="33"/>
+      <c r="AA31" s="55"/>
+      <c r="AB31" s="46" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC31" s="46" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD31" s="46" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE31" s="46" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF31" s="46" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG31" s="46"/>
+      <c r="AH31" s="55"/>
+      <c r="AI31" s="55"/>
+      <c r="AJ31" s="55"/>
+      <c r="AK31" s="55"/>
+      <c r="AL31" s="55"/>
+      <c r="AM31" s="55"/>
+      <c r="AN31" s="55"/>
+      <c r="AO31" s="55"/>
     </row>
-    <row r="32" ht="28" spans="1:7">
-      <c r="A32" s="5" t="s">
+    <row r="32" ht="28" spans="1:41">
+      <c r="A32" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="22">
         <v>8.94</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="22">
         <v>8.6</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="22">
         <v>7.742</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G32" s="22">
         <v>7.417</v>
       </c>
+      <c r="H32" s="33">
+        <v>5.85</v>
+      </c>
+      <c r="I32" s="33">
+        <v>9.78</v>
+      </c>
+      <c r="J32" s="33">
+        <v>8.26</v>
+      </c>
+      <c r="K32" s="46">
+        <f t="shared" ref="K32:K39" si="24">(D32-H32)/H32</f>
+        <v>0.528205128205128</v>
+      </c>
+      <c r="L32" s="46">
+        <f t="shared" ref="L32:L39" si="25">(I32-D32)/I32</f>
+        <v>0.0858895705521472</v>
+      </c>
+      <c r="M32" s="46">
+        <f t="shared" ref="M32:M39" si="26">(I32-J32)/J32</f>
+        <v>0.184019370460048</v>
+      </c>
+      <c r="N32" s="55"/>
+      <c r="O32" s="55"/>
+      <c r="P32" s="33"/>
+      <c r="Q32" s="33"/>
+      <c r="R32" s="33"/>
+      <c r="S32" s="33"/>
+      <c r="T32" s="33"/>
+      <c r="U32" s="33"/>
+      <c r="V32" s="33"/>
+      <c r="W32" s="33"/>
+      <c r="X32" s="33"/>
+      <c r="Y32" s="33"/>
+      <c r="Z32" s="33"/>
+      <c r="AA32" s="55"/>
+      <c r="AB32" s="46">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="AC32" s="46" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD32" s="46" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE32" s="46" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF32" s="46" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG32" s="46"/>
+      <c r="AH32" s="55"/>
+      <c r="AI32" s="55"/>
+      <c r="AJ32" s="55"/>
+      <c r="AK32" s="55"/>
+      <c r="AL32" s="55"/>
+      <c r="AM32" s="55"/>
+      <c r="AN32" s="55"/>
+      <c r="AO32" s="55"/>
     </row>
-    <row r="33" ht="28" spans="1:7">
-      <c r="A33" s="5" t="s">
+    <row r="33" s="3" customFormat="1" ht="28" spans="1:41">
+      <c r="A33" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="20">
         <v>14.19</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33" s="20">
         <v>13.875</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F33" s="20">
         <v>12.245</v>
       </c>
-      <c r="G33" s="5">
+      <c r="G33" s="20">
         <v>11.116</v>
       </c>
+      <c r="H33" s="31">
+        <v>5.81</v>
+      </c>
+      <c r="I33" s="31">
+        <v>16.78</v>
+      </c>
+      <c r="J33" s="31">
+        <v>9.81</v>
+      </c>
+      <c r="K33" s="45">
+        <f t="shared" si="24"/>
+        <v>1.44234079173838</v>
+      </c>
+      <c r="L33" s="45">
+        <f t="shared" si="25"/>
+        <v>0.15435041716329</v>
+      </c>
+      <c r="M33" s="45">
+        <f t="shared" si="26"/>
+        <v>0.710499490316004</v>
+      </c>
+      <c r="N33" s="54"/>
+      <c r="O33" s="54"/>
+      <c r="P33" s="31">
+        <v>12.52</v>
+      </c>
+      <c r="Q33" s="31">
+        <v>15.09</v>
+      </c>
+      <c r="R33" s="31">
+        <v>13.61</v>
+      </c>
+      <c r="S33" s="31">
+        <v>16.29</v>
+      </c>
+      <c r="T33" s="31">
+        <v>13.9</v>
+      </c>
+      <c r="U33" s="31"/>
+      <c r="V33" s="31"/>
+      <c r="W33" s="31"/>
+      <c r="X33" s="31"/>
+      <c r="Y33" s="31"/>
+      <c r="Z33" s="31"/>
+      <c r="AA33" s="54"/>
+      <c r="AB33" s="45">
+        <f t="shared" si="19"/>
+        <v>0.253873659117998</v>
+      </c>
+      <c r="AC33" s="45">
+        <f t="shared" si="20"/>
+        <v>0.098078197481776</v>
+      </c>
+      <c r="AD33" s="45">
+        <f t="shared" si="21"/>
+        <v>0.146715776550031</v>
+      </c>
+      <c r="AE33" s="45" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF33" s="45" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG33" s="45"/>
+      <c r="AH33" s="54"/>
+      <c r="AI33" s="54"/>
+      <c r="AJ33" s="54"/>
+      <c r="AK33" s="54"/>
+      <c r="AL33" s="54"/>
+      <c r="AM33" s="54"/>
+      <c r="AN33" s="54"/>
+      <c r="AO33" s="54"/>
     </row>
-    <row r="34" ht="28" spans="1:7">
-      <c r="A34" s="5" t="s">
+    <row r="34" ht="28" spans="1:41">
+      <c r="A34" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="22">
         <v>8.04</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="22">
         <v>7.728</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F34" s="22">
         <v>6.998</v>
       </c>
-      <c r="G34" s="5">
+      <c r="G34" s="22">
         <v>6.68</v>
       </c>
+      <c r="H34" s="33">
+        <v>5.11</v>
+      </c>
+      <c r="I34" s="33">
+        <v>8.6</v>
+      </c>
+      <c r="J34" s="33">
+        <v>7.78</v>
+      </c>
+      <c r="K34" s="46">
+        <f t="shared" si="24"/>
+        <v>0.573385518590998</v>
+      </c>
+      <c r="L34" s="46">
+        <f t="shared" si="25"/>
+        <v>0.0651162790697675</v>
+      </c>
+      <c r="M34" s="46">
+        <f t="shared" si="26"/>
+        <v>0.105398457583547</v>
+      </c>
+      <c r="N34" s="55"/>
+      <c r="O34" s="55"/>
+      <c r="P34" s="33"/>
+      <c r="Q34" s="33"/>
+      <c r="R34" s="33"/>
+      <c r="S34" s="33"/>
+      <c r="T34" s="33"/>
+      <c r="U34" s="33"/>
+      <c r="V34" s="33"/>
+      <c r="W34" s="33"/>
+      <c r="X34" s="33"/>
+      <c r="Y34" s="33"/>
+      <c r="Z34" s="33"/>
+      <c r="AA34" s="55"/>
+      <c r="AB34" s="46">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="AC34" s="46" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD34" s="46" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE34" s="46" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF34" s="46" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG34" s="46"/>
+      <c r="AH34" s="55"/>
+      <c r="AI34" s="55"/>
+      <c r="AJ34" s="55"/>
+      <c r="AK34" s="55"/>
+      <c r="AL34" s="55"/>
+      <c r="AM34" s="55"/>
+      <c r="AN34" s="55"/>
+      <c r="AO34" s="55"/>
     </row>
-    <row r="35" ht="28" spans="1:7">
-      <c r="A35" s="5" t="s">
+    <row r="35" ht="28" spans="1:41">
+      <c r="A35" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="22">
         <v>5.81</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35" s="22">
         <v>5.538</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F35" s="22">
         <v>5.089</v>
       </c>
-      <c r="G35" s="5">
+      <c r="G35" s="22">
         <v>4.899</v>
       </c>
+      <c r="H35" s="33">
+        <v>3.92</v>
+      </c>
+      <c r="I35" s="33">
+        <v>6.29</v>
+      </c>
+      <c r="J35" s="33">
+        <v>5.34</v>
+      </c>
+      <c r="K35" s="46">
+        <f t="shared" si="24"/>
+        <v>0.482142857142857</v>
+      </c>
+      <c r="L35" s="46">
+        <f t="shared" si="25"/>
+        <v>0.0763116057233705</v>
+      </c>
+      <c r="M35" s="46">
+        <f t="shared" si="26"/>
+        <v>0.177902621722846</v>
+      </c>
+      <c r="N35" s="55"/>
+      <c r="O35" s="55"/>
+      <c r="P35" s="33"/>
+      <c r="Q35" s="33"/>
+      <c r="R35" s="33"/>
+      <c r="S35" s="33"/>
+      <c r="T35" s="33"/>
+      <c r="U35" s="33"/>
+      <c r="V35" s="33"/>
+      <c r="W35" s="33"/>
+      <c r="X35" s="33"/>
+      <c r="Y35" s="33"/>
+      <c r="Z35" s="33"/>
+      <c r="AA35" s="55"/>
+      <c r="AB35" s="46">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="AC35" s="46" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD35" s="46" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE35" s="46" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF35" s="46" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG35" s="46"/>
+      <c r="AH35" s="55"/>
+      <c r="AI35" s="55"/>
+      <c r="AJ35" s="55"/>
+      <c r="AK35" s="55"/>
+      <c r="AL35" s="55"/>
+      <c r="AM35" s="55"/>
+      <c r="AN35" s="55"/>
+      <c r="AO35" s="55"/>
     </row>
-    <row r="36" ht="28" spans="1:7">
-      <c r="A36" s="5" t="s">
+    <row r="36" ht="28" spans="1:41">
+      <c r="A36" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="22">
         <v>11.59</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="22">
         <v>11.326</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F36" s="22">
         <v>10.622</v>
       </c>
-      <c r="G36" s="5">
+      <c r="G36" s="22">
         <v>10.064</v>
       </c>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="46" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L36" s="46" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M36" s="46" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N36" s="55"/>
+      <c r="O36" s="55"/>
+      <c r="P36" s="33"/>
+      <c r="Q36" s="33"/>
+      <c r="R36" s="33"/>
+      <c r="S36" s="33"/>
+      <c r="T36" s="33"/>
+      <c r="U36" s="33"/>
+      <c r="V36" s="33"/>
+      <c r="W36" s="33"/>
+      <c r="X36" s="33"/>
+      <c r="Y36" s="33"/>
+      <c r="Z36" s="33"/>
+      <c r="AA36" s="55"/>
+      <c r="AB36" s="46" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC36" s="46" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD36" s="46" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE36" s="46" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF36" s="46" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG36" s="46"/>
+      <c r="AH36" s="55"/>
+      <c r="AI36" s="55"/>
+      <c r="AJ36" s="55"/>
+      <c r="AK36" s="55"/>
+      <c r="AL36" s="55"/>
+      <c r="AM36" s="55"/>
+      <c r="AN36" s="55"/>
+      <c r="AO36" s="55"/>
     </row>
-    <row r="37" ht="28" spans="1:7">
-      <c r="A37" s="5" t="s">
+    <row r="37" ht="28" spans="1:41">
+      <c r="A37" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="22">
         <v>4.15</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E37" s="22">
         <v>3.9</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F37" s="22">
         <v>3.74</v>
       </c>
-      <c r="G37" s="5">
+      <c r="G37" s="22">
         <v>3.718</v>
       </c>
+      <c r="H37" s="33">
+        <v>3.41</v>
+      </c>
+      <c r="I37" s="33">
+        <v>5.2</v>
+      </c>
+      <c r="J37" s="33">
+        <v>3.94</v>
+      </c>
+      <c r="K37" s="46">
+        <f t="shared" si="24"/>
+        <v>0.217008797653959</v>
+      </c>
+      <c r="L37" s="46">
+        <f t="shared" si="25"/>
+        <v>0.201923076923077</v>
+      </c>
+      <c r="M37" s="46">
+        <f t="shared" si="26"/>
+        <v>0.319796954314721</v>
+      </c>
+      <c r="N37" s="55"/>
+      <c r="O37" s="55"/>
+      <c r="P37" s="33"/>
+      <c r="Q37" s="33"/>
+      <c r="R37" s="33"/>
+      <c r="S37" s="33"/>
+      <c r="T37" s="33"/>
+      <c r="U37" s="33"/>
+      <c r="V37" s="33"/>
+      <c r="W37" s="33"/>
+      <c r="X37" s="33"/>
+      <c r="Y37" s="33"/>
+      <c r="Z37" s="33"/>
+      <c r="AA37" s="55"/>
+      <c r="AB37" s="46">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="AC37" s="46" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD37" s="46" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE37" s="46" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF37" s="46" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG37" s="46"/>
+      <c r="AH37" s="55"/>
+      <c r="AI37" s="55"/>
+      <c r="AJ37" s="55"/>
+      <c r="AK37" s="55"/>
+      <c r="AL37" s="55"/>
+      <c r="AM37" s="55"/>
+      <c r="AN37" s="55"/>
+      <c r="AO37" s="55"/>
     </row>
-    <row r="38" ht="28" spans="1:7">
-      <c r="A38" s="5" t="s">
+    <row r="38" s="5" customFormat="1" ht="28" spans="1:41">
+      <c r="A38" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="26">
         <v>23.32</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E38" s="26">
         <v>23.155</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F38" s="26">
         <v>22.273</v>
       </c>
-      <c r="G38" s="5">
+      <c r="G38" s="26">
         <v>21.577</v>
       </c>
+      <c r="H38" s="36">
+        <v>17.82</v>
+      </c>
+      <c r="I38" s="36">
+        <v>25.66</v>
+      </c>
+      <c r="J38" s="36">
+        <v>19.39</v>
+      </c>
+      <c r="K38" s="48">
+        <f t="shared" si="24"/>
+        <v>0.308641975308642</v>
+      </c>
+      <c r="L38" s="48">
+        <f t="shared" si="25"/>
+        <v>0.0911925175370226</v>
+      </c>
+      <c r="M38" s="48">
+        <f t="shared" si="26"/>
+        <v>0.323362558019598</v>
+      </c>
+      <c r="N38" s="57"/>
+      <c r="O38" s="57"/>
+      <c r="P38" s="58"/>
+      <c r="Q38" s="58"/>
+      <c r="R38" s="58"/>
+      <c r="S38" s="58"/>
+      <c r="T38" s="58"/>
+      <c r="U38" s="58"/>
+      <c r="V38" s="58"/>
+      <c r="W38" s="58"/>
+      <c r="X38" s="58"/>
+      <c r="Y38" s="58"/>
+      <c r="Z38" s="58"/>
+      <c r="AA38" s="57"/>
+      <c r="AB38" s="48">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="AC38" s="48" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD38" s="48" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE38" s="48" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF38" s="48" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG38" s="48"/>
+      <c r="AH38" s="57"/>
+      <c r="AI38" s="57"/>
+      <c r="AJ38" s="57"/>
+      <c r="AK38" s="57"/>
+      <c r="AL38" s="57"/>
+      <c r="AM38" s="57"/>
+      <c r="AN38" s="57"/>
+      <c r="AO38" s="57"/>
     </row>
-    <row r="39" ht="28" spans="1:7">
-      <c r="A39" s="5" t="s">
+    <row r="39" ht="28" spans="1:41">
+      <c r="A39" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="22">
         <v>3.89</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E39" s="22">
         <v>3.76</v>
       </c>
-      <c r="F39" s="5">
+      <c r="F39" s="22">
         <v>3.543</v>
       </c>
-      <c r="G39" s="5">
+      <c r="G39" s="22">
         <v>3.464</v>
       </c>
+      <c r="H39" s="33">
+        <v>3</v>
+      </c>
+      <c r="I39" s="33">
+        <v>4.55</v>
+      </c>
+      <c r="J39" s="33">
+        <v>3.54</v>
+      </c>
+      <c r="K39" s="46">
+        <f t="shared" si="24"/>
+        <v>0.296666666666667</v>
+      </c>
+      <c r="L39" s="46">
+        <f t="shared" si="25"/>
+        <v>0.145054945054945</v>
+      </c>
+      <c r="M39" s="46">
+        <f t="shared" si="26"/>
+        <v>0.285310734463277</v>
+      </c>
+      <c r="N39" s="55"/>
+      <c r="O39" s="55"/>
+      <c r="P39" s="33"/>
+      <c r="Q39" s="33"/>
+      <c r="R39" s="33"/>
+      <c r="S39" s="33"/>
+      <c r="T39" s="33"/>
+      <c r="U39" s="33"/>
+      <c r="V39" s="33"/>
+      <c r="W39" s="33"/>
+      <c r="X39" s="33"/>
+      <c r="Y39" s="33"/>
+      <c r="Z39" s="33"/>
+      <c r="AA39" s="55"/>
+      <c r="AB39" s="46">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="AC39" s="46" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD39" s="46" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE39" s="46" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF39" s="46" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG39" s="46"/>
+      <c r="AH39" s="55"/>
+      <c r="AI39" s="55"/>
+      <c r="AJ39" s="55"/>
+      <c r="AK39" s="55"/>
+      <c r="AL39" s="55"/>
+      <c r="AM39" s="55"/>
+      <c r="AN39" s="55"/>
+      <c r="AO39" s="55"/>
     </row>
-    <row r="40" ht="28" spans="1:7">
-      <c r="A40" s="5" t="s">
+    <row r="40" s="4" customFormat="1" ht="28" spans="1:41">
+      <c r="A40" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40" s="24">
         <v>3.86</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E40" s="24">
         <v>3.743</v>
       </c>
-      <c r="F40" s="5">
+      <c r="F40" s="24">
         <v>3.373</v>
       </c>
-      <c r="G40" s="5">
+      <c r="G40" s="24">
         <v>3.244</v>
       </c>
+      <c r="H40" s="34">
+        <v>2.49</v>
+      </c>
+      <c r="I40" s="34">
+        <v>4.48</v>
+      </c>
+      <c r="J40" s="34">
+        <v>2.85</v>
+      </c>
+      <c r="K40" s="47">
+        <f>(D40-H40)/H40</f>
+        <v>0.550200803212851</v>
+      </c>
+      <c r="L40" s="47">
+        <f>(I40-D40)/I40</f>
+        <v>0.138392857142857</v>
+      </c>
+      <c r="M40" s="47">
+        <f>(I40-J40)/J40</f>
+        <v>0.571929824561404</v>
+      </c>
+      <c r="N40" s="56"/>
+      <c r="O40" s="56"/>
+      <c r="P40" s="34">
+        <v>2.84</v>
+      </c>
+      <c r="Q40" s="34">
+        <v>4.06</v>
+      </c>
+      <c r="R40" s="34">
+        <v>3.35</v>
+      </c>
+      <c r="S40" s="34">
+        <v>4.25</v>
+      </c>
+      <c r="T40" s="34">
+        <v>3.82</v>
+      </c>
+      <c r="U40" s="34"/>
+      <c r="V40" s="34"/>
+      <c r="W40" s="61"/>
+      <c r="X40" s="61"/>
+      <c r="Y40" s="34"/>
+      <c r="Z40" s="34"/>
+      <c r="AA40" s="56"/>
+      <c r="AB40" s="47">
+        <f>(I40-P40)/I40</f>
+        <v>0.366071428571429</v>
+      </c>
+      <c r="AC40" s="47">
+        <f>(Q40-R40)/Q40</f>
+        <v>0.17487684729064</v>
+      </c>
+      <c r="AD40" s="47">
+        <f>(S40-T40)/S40</f>
+        <v>0.101176470588235</v>
+      </c>
+      <c r="AE40" s="47" t="e">
+        <f>(U40-V40)/U40</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF40" s="47" t="e">
+        <f>(W40-X40)/W40</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG40" s="47"/>
+      <c r="AH40" s="56"/>
+      <c r="AI40" s="56"/>
+      <c r="AJ40" s="56"/>
+      <c r="AK40" s="56"/>
+      <c r="AL40" s="56"/>
+      <c r="AM40" s="56"/>
+      <c r="AN40" s="56"/>
+      <c r="AO40" s="56"/>
     </row>
-    <row r="41" ht="28" spans="1:7">
-      <c r="A41" s="5" t="s">
+    <row r="41" s="3" customFormat="1" ht="28" spans="1:41">
+      <c r="A41" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41" s="20">
         <v>32.9</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E41" s="20">
         <v>32.795</v>
       </c>
-      <c r="F41" s="5">
+      <c r="F41" s="20">
         <v>32.777</v>
       </c>
-      <c r="G41" s="5">
+      <c r="G41" s="20">
         <v>32.607</v>
       </c>
+      <c r="H41" s="37">
+        <v>24.48</v>
+      </c>
+      <c r="I41" s="37">
+        <v>41.28</v>
+      </c>
+      <c r="J41" s="37">
+        <v>36.61</v>
+      </c>
+      <c r="K41" s="45">
+        <f t="shared" ref="K41:K47" si="27">(D41-H41)/H41</f>
+        <v>0.343954248366013</v>
+      </c>
+      <c r="L41" s="45">
+        <f t="shared" ref="L41:L47" si="28">(I41-D41)/I41</f>
+        <v>0.203003875968992</v>
+      </c>
+      <c r="M41" s="45">
+        <f t="shared" ref="M41:M47" si="29">(I41-J41)/J41</f>
+        <v>0.127560775744332</v>
+      </c>
+      <c r="N41" s="54"/>
+      <c r="O41" s="54"/>
+      <c r="P41" s="37">
+        <v>26.63</v>
+      </c>
+      <c r="Q41" s="31"/>
+      <c r="R41" s="31"/>
+      <c r="S41" s="31"/>
+      <c r="T41" s="31"/>
+      <c r="U41" s="31"/>
+      <c r="V41" s="31"/>
+      <c r="W41" s="31"/>
+      <c r="X41" s="31"/>
+      <c r="Y41" s="31"/>
+      <c r="Z41" s="31"/>
+      <c r="AA41" s="54"/>
+      <c r="AB41" s="45">
+        <f t="shared" ref="AB41:AB47" si="30">(I41-P41)/I41</f>
+        <v>0.354893410852713</v>
+      </c>
+      <c r="AC41" s="45" t="e">
+        <f t="shared" ref="AC41:AC47" si="31">(Q41-R41)/Q41</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD41" s="45" t="e">
+        <f t="shared" ref="AD41:AD47" si="32">(S41-T41)/S41</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE41" s="45" t="e">
+        <f t="shared" ref="AE41:AE47" si="33">(U41-V41)/U41</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF41" s="45" t="e">
+        <f t="shared" ref="AF41:AF47" si="34">(W41-X41)/W41</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG41" s="45"/>
+      <c r="AH41" s="54"/>
+      <c r="AI41" s="54"/>
+      <c r="AJ41" s="54"/>
+      <c r="AK41" s="54"/>
+      <c r="AL41" s="54"/>
+      <c r="AM41" s="54"/>
+      <c r="AN41" s="54"/>
+      <c r="AO41" s="54"/>
     </row>
-    <row r="42" ht="28" spans="1:7">
-      <c r="A42" s="5" t="s">
+    <row r="42" s="3" customFormat="1" ht="28" spans="1:41">
+      <c r="A42" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="20">
         <v>3.88</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E42" s="20">
         <v>3.803</v>
       </c>
-      <c r="F42" s="5">
+      <c r="F42" s="20">
         <v>3.314</v>
       </c>
-      <c r="G42" s="5">
+      <c r="G42" s="20">
         <v>3.279</v>
       </c>
+      <c r="H42" s="31">
+        <v>2.63</v>
+      </c>
+      <c r="I42" s="31">
+        <v>4.94</v>
+      </c>
+      <c r="J42" s="31">
+        <v>3.72</v>
+      </c>
+      <c r="K42" s="45">
+        <f t="shared" si="27"/>
+        <v>0.475285171102662</v>
+      </c>
+      <c r="L42" s="45">
+        <f t="shared" si="28"/>
+        <v>0.214574898785425</v>
+      </c>
+      <c r="M42" s="45">
+        <f t="shared" si="29"/>
+        <v>0.327956989247312</v>
+      </c>
+      <c r="N42" s="54"/>
+      <c r="O42" s="54"/>
+      <c r="P42" s="31">
+        <v>3.56</v>
+      </c>
+      <c r="Q42" s="31"/>
+      <c r="R42" s="31"/>
+      <c r="S42" s="31"/>
+      <c r="T42" s="31"/>
+      <c r="U42" s="31"/>
+      <c r="V42" s="31"/>
+      <c r="W42" s="31"/>
+      <c r="X42" s="31"/>
+      <c r="Y42" s="31"/>
+      <c r="Z42" s="31"/>
+      <c r="AA42" s="54"/>
+      <c r="AB42" s="45">
+        <f t="shared" si="30"/>
+        <v>0.279352226720648</v>
+      </c>
+      <c r="AC42" s="45" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD42" s="45" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE42" s="45" t="e">
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF42" s="45" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG42" s="45"/>
+      <c r="AH42" s="54"/>
+      <c r="AI42" s="54"/>
+      <c r="AJ42" s="54"/>
+      <c r="AK42" s="54"/>
+      <c r="AL42" s="54"/>
+      <c r="AM42" s="54"/>
+      <c r="AN42" s="54"/>
+      <c r="AO42" s="54"/>
     </row>
-    <row r="43" ht="28" spans="1:7">
-      <c r="A43" s="5" t="s">
+    <row r="43" ht="28" spans="1:41">
+      <c r="A43" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43" s="22">
         <v>3.77</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E43" s="22">
         <v>3.718</v>
       </c>
-      <c r="F43" s="5">
+      <c r="F43" s="22">
         <v>3.323</v>
       </c>
-      <c r="G43" s="5">
+      <c r="G43" s="22">
         <v>3.226</v>
       </c>
+      <c r="H43" s="33">
+        <v>2.66</v>
+      </c>
+      <c r="I43" s="33">
+        <v>4.42</v>
+      </c>
+      <c r="J43" s="33">
+        <v>4.05</v>
+      </c>
+      <c r="K43" s="46">
+        <f t="shared" si="27"/>
+        <v>0.417293233082707</v>
+      </c>
+      <c r="L43" s="46">
+        <f t="shared" si="28"/>
+        <v>0.147058823529412</v>
+      </c>
+      <c r="M43" s="46">
+        <f t="shared" si="29"/>
+        <v>0.091358024691358</v>
+      </c>
+      <c r="N43" s="55"/>
+      <c r="O43" s="55"/>
+      <c r="P43" s="33"/>
+      <c r="Q43" s="33"/>
+      <c r="R43" s="33"/>
+      <c r="S43" s="33"/>
+      <c r="T43" s="33"/>
+      <c r="U43" s="33"/>
+      <c r="V43" s="33"/>
+      <c r="W43" s="33"/>
+      <c r="X43" s="33"/>
+      <c r="Y43" s="33"/>
+      <c r="Z43" s="33"/>
+      <c r="AA43" s="55"/>
+      <c r="AB43" s="46">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="AC43" s="46" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD43" s="46" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE43" s="46" t="e">
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF43" s="46" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG43" s="46"/>
+      <c r="AH43" s="55"/>
+      <c r="AI43" s="55"/>
+      <c r="AJ43" s="55"/>
+      <c r="AK43" s="55"/>
+      <c r="AL43" s="55"/>
+      <c r="AM43" s="55"/>
+      <c r="AN43" s="55"/>
+      <c r="AO43" s="55"/>
     </row>
-    <row r="44" ht="28" spans="1:7">
-      <c r="A44" s="5" t="s">
+    <row r="44" s="2" customFormat="1" ht="28" spans="1:41">
+      <c r="A44" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D44" s="18">
         <v>8.7</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E44" s="18">
         <v>8.666</v>
       </c>
-      <c r="F44" s="5">
+      <c r="F44" s="18">
         <v>6.833</v>
       </c>
-      <c r="G44" s="5">
+      <c r="G44" s="18">
         <v>6.247</v>
       </c>
+      <c r="H44" s="35">
+        <v>3.99</v>
+      </c>
+      <c r="I44" s="35">
+        <v>13.05</v>
+      </c>
+      <c r="J44" s="35">
+        <v>5.19</v>
+      </c>
+      <c r="K44" s="44">
+        <f t="shared" si="27"/>
+        <v>1.18045112781955</v>
+      </c>
+      <c r="L44" s="44">
+        <f t="shared" si="28"/>
+        <v>0.333333333333333</v>
+      </c>
+      <c r="M44" s="44">
+        <f t="shared" si="29"/>
+        <v>1.51445086705202</v>
+      </c>
+      <c r="N44" s="53"/>
+      <c r="O44" s="53"/>
+      <c r="P44" s="35">
+        <v>7.13</v>
+      </c>
+      <c r="Q44" s="35"/>
+      <c r="R44" s="35"/>
+      <c r="S44" s="35"/>
+      <c r="T44" s="35"/>
+      <c r="U44" s="35"/>
+      <c r="V44" s="35"/>
+      <c r="W44" s="35"/>
+      <c r="X44" s="35"/>
+      <c r="Y44" s="35"/>
+      <c r="Z44" s="35"/>
+      <c r="AA44" s="53"/>
+      <c r="AB44" s="44">
+        <f t="shared" si="30"/>
+        <v>0.453639846743295</v>
+      </c>
+      <c r="AC44" s="44" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD44" s="44" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE44" s="44" t="e">
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF44" s="44" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG44" s="44"/>
+      <c r="AH44" s="53"/>
+      <c r="AI44" s="53"/>
+      <c r="AJ44" s="53"/>
+      <c r="AK44" s="53"/>
+      <c r="AL44" s="53"/>
+      <c r="AM44" s="53"/>
+      <c r="AN44" s="53"/>
+      <c r="AO44" s="53"/>
     </row>
-    <row r="45" ht="28" spans="1:7">
-      <c r="A45" s="5" t="s">
+    <row r="45" s="2" customFormat="1" ht="28" spans="1:41">
+      <c r="A45" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D45" s="18">
         <v>10.4</v>
       </c>
-      <c r="E45" s="5">
+      <c r="E45" s="18">
         <v>10.378</v>
       </c>
-      <c r="F45" s="5">
+      <c r="F45" s="18">
         <v>8.54</v>
       </c>
-      <c r="G45" s="5">
+      <c r="G45" s="18">
         <v>8.228</v>
       </c>
+      <c r="H45" s="38">
+        <v>5.74</v>
+      </c>
+      <c r="I45" s="38">
+        <v>12</v>
+      </c>
+      <c r="J45" s="38">
+        <v>9.91</v>
+      </c>
+      <c r="K45" s="44">
+        <f t="shared" si="27"/>
+        <v>0.81184668989547</v>
+      </c>
+      <c r="L45" s="44">
+        <f t="shared" si="28"/>
+        <v>0.133333333333333</v>
+      </c>
+      <c r="M45" s="44">
+        <f t="shared" si="29"/>
+        <v>0.210898082744702</v>
+      </c>
+      <c r="N45" s="53"/>
+      <c r="O45" s="53"/>
+      <c r="P45" s="38">
+        <v>10.29</v>
+      </c>
+      <c r="Q45" s="35"/>
+      <c r="R45" s="35"/>
+      <c r="S45" s="35"/>
+      <c r="T45" s="35"/>
+      <c r="U45" s="35"/>
+      <c r="V45" s="35"/>
+      <c r="W45" s="35"/>
+      <c r="X45" s="35"/>
+      <c r="Y45" s="35"/>
+      <c r="Z45" s="35"/>
+      <c r="AA45" s="53"/>
+      <c r="AB45" s="44">
+        <f t="shared" si="30"/>
+        <v>0.1425</v>
+      </c>
+      <c r="AC45" s="44" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD45" s="44" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE45" s="44" t="e">
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF45" s="44" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG45" s="44"/>
+      <c r="AH45" s="53"/>
+      <c r="AI45" s="53"/>
+      <c r="AJ45" s="53"/>
+      <c r="AK45" s="53"/>
+      <c r="AL45" s="53"/>
+      <c r="AM45" s="53"/>
+      <c r="AN45" s="53"/>
+      <c r="AO45" s="53"/>
     </row>
-    <row r="46" ht="28" spans="1:7">
-      <c r="A46" s="5" t="s">
+    <row r="46" s="3" customFormat="1" ht="28" spans="1:41">
+      <c r="A46" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46" s="20">
         <v>6.46</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E46" s="20">
         <v>6.44</v>
       </c>
-      <c r="F46" s="5">
+      <c r="F46" s="20">
         <v>6.101</v>
       </c>
-      <c r="G46" s="5">
+      <c r="G46" s="20">
         <v>6.074</v>
       </c>
+      <c r="H46" s="31">
+        <v>5.1</v>
+      </c>
+      <c r="I46" s="31">
+        <v>7.27</v>
+      </c>
+      <c r="J46" s="31">
+        <v>5.78</v>
+      </c>
+      <c r="K46" s="45">
+        <f t="shared" si="27"/>
+        <v>0.266666666666667</v>
+      </c>
+      <c r="L46" s="45">
+        <f t="shared" si="28"/>
+        <v>0.111416781292985</v>
+      </c>
+      <c r="M46" s="45">
+        <f t="shared" si="29"/>
+        <v>0.257785467128028</v>
+      </c>
+      <c r="N46" s="54"/>
+      <c r="O46" s="54"/>
+      <c r="P46" s="31">
+        <v>5.78</v>
+      </c>
+      <c r="Q46" s="31"/>
+      <c r="R46" s="31"/>
+      <c r="S46" s="31"/>
+      <c r="T46" s="31"/>
+      <c r="U46" s="31"/>
+      <c r="V46" s="31"/>
+      <c r="W46" s="31"/>
+      <c r="X46" s="31"/>
+      <c r="Y46" s="31"/>
+      <c r="Z46" s="31"/>
+      <c r="AA46" s="54"/>
+      <c r="AB46" s="45">
+        <f t="shared" si="30"/>
+        <v>0.204951856946355</v>
+      </c>
+      <c r="AC46" s="45" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD46" s="45" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE46" s="45" t="e">
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF46" s="45" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG46" s="45"/>
+      <c r="AH46" s="54"/>
+      <c r="AI46" s="54"/>
+      <c r="AJ46" s="54"/>
+      <c r="AK46" s="54"/>
+      <c r="AL46" s="54"/>
+      <c r="AM46" s="54"/>
+      <c r="AN46" s="54"/>
+      <c r="AO46" s="54"/>
     </row>
-    <row r="47" ht="28" spans="1:7">
-      <c r="A47" s="5" t="s">
+    <row r="47" s="2" customFormat="1" ht="28" spans="1:41">
+      <c r="A47" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D47" s="18">
         <v>8.15</v>
       </c>
-      <c r="E47" s="5">
+      <c r="E47" s="18">
         <v>8.142</v>
       </c>
-      <c r="F47" s="5">
+      <c r="F47" s="18">
         <v>6.542</v>
       </c>
-      <c r="G47" s="5">
+      <c r="G47" s="18">
         <v>6.263</v>
       </c>
+      <c r="H47" s="35">
+        <v>5.04</v>
+      </c>
+      <c r="I47" s="35">
+        <v>11.74</v>
+      </c>
+      <c r="J47" s="35">
+        <v>6.35</v>
+      </c>
+      <c r="K47" s="44">
+        <f t="shared" si="27"/>
+        <v>0.617063492063492</v>
+      </c>
+      <c r="L47" s="44">
+        <f t="shared" si="28"/>
+        <v>0.305792163543441</v>
+      </c>
+      <c r="M47" s="44">
+        <f t="shared" si="29"/>
+        <v>0.848818897637795</v>
+      </c>
+      <c r="N47" s="53"/>
+      <c r="O47" s="53"/>
+      <c r="P47" s="35">
+        <v>8.01</v>
+      </c>
+      <c r="Q47" s="35"/>
+      <c r="R47" s="35"/>
+      <c r="S47" s="35"/>
+      <c r="T47" s="35"/>
+      <c r="U47" s="35"/>
+      <c r="V47" s="35"/>
+      <c r="W47" s="35"/>
+      <c r="X47" s="35"/>
+      <c r="Y47" s="35"/>
+      <c r="Z47" s="35"/>
+      <c r="AA47" s="53"/>
+      <c r="AB47" s="44">
+        <f t="shared" si="30"/>
+        <v>0.317717206132879</v>
+      </c>
+      <c r="AC47" s="44" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD47" s="44" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE47" s="44" t="e">
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF47" s="44" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG47" s="44"/>
+      <c r="AH47" s="53"/>
+      <c r="AI47" s="53"/>
+      <c r="AJ47" s="53"/>
+      <c r="AK47" s="53"/>
+      <c r="AL47" s="53"/>
+      <c r="AM47" s="53"/>
+      <c r="AN47" s="53"/>
+      <c r="AO47" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="27">

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2022-03/当前股价大于50日均线,50日均线大于150日均线....xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2022-03/当前股价大于50日均线,50日均线大于150日均线....xlsx
@@ -1697,7 +1697,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1783,15 +1783,15 @@
     <xf numFmtId="179" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="6" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1865,6 +1865,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -2296,7 +2299,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.94117647058824" defaultRowHeight="14.8"/>
@@ -2350,27 +2353,27 @@
       <c r="X1" s="59"/>
       <c r="Y1" s="59"/>
       <c r="Z1" s="59"/>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="63"/>
-      <c r="AC1" s="63"/>
-      <c r="AD1" s="63"/>
-      <c r="AE1" s="63"/>
-      <c r="AF1" s="63"/>
-      <c r="AG1" s="63"/>
-      <c r="AH1" s="62"/>
-      <c r="AI1" s="67" t="s">
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="64"/>
+      <c r="AD1" s="64"/>
+      <c r="AE1" s="64"/>
+      <c r="AF1" s="64"/>
+      <c r="AG1" s="64"/>
+      <c r="AH1" s="63"/>
+      <c r="AI1" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="AJ1" s="67"/>
-      <c r="AK1" s="67"/>
-      <c r="AL1" s="67" t="s">
+      <c r="AJ1" s="68"/>
+      <c r="AK1" s="68"/>
+      <c r="AL1" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="AM1" s="67"/>
-      <c r="AN1" s="69" t="s">
+      <c r="AM1" s="68"/>
+      <c r="AN1" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="AO1" s="70" t="s">
+      <c r="AO1" s="71" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2429,31 +2432,31 @@
       <c r="X2" s="51"/>
       <c r="Y2" s="51"/>
       <c r="Z2" s="51"/>
-      <c r="AA2" s="64"/>
+      <c r="AA2" s="65"/>
       <c r="AB2" s="42"/>
       <c r="AC2" s="42"/>
       <c r="AD2" s="42"/>
       <c r="AE2" s="42"/>
       <c r="AF2" s="42"/>
       <c r="AG2" s="42"/>
-      <c r="AH2" s="64"/>
-      <c r="AI2" s="66" t="s">
+      <c r="AH2" s="65"/>
+      <c r="AI2" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="AJ2" s="66" t="s">
+      <c r="AJ2" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="AK2" s="66" t="s">
+      <c r="AK2" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="AL2" s="66" t="s">
+      <c r="AL2" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="AM2" s="66" t="s">
+      <c r="AM2" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="AN2" s="69"/>
-      <c r="AO2" s="70"/>
+      <c r="AN2" s="70"/>
+      <c r="AO2" s="71"/>
     </row>
     <row r="3" ht="44" spans="1:41">
       <c r="A3" s="13"/>
@@ -2498,13 +2501,13 @@
       <c r="X3" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="Y3" s="65" t="s">
+      <c r="Y3" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="Z3" s="65" t="s">
+      <c r="Z3" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="AA3" s="66" t="s">
+      <c r="AA3" s="67" t="s">
         <v>38</v>
       </c>
       <c r="AB3" s="42" t="s">
@@ -2525,16 +2528,16 @@
       <c r="AG3" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="AH3" s="68" t="s">
+      <c r="AH3" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="AI3" s="66"/>
-      <c r="AJ3" s="66"/>
-      <c r="AK3" s="66"/>
-      <c r="AL3" s="66"/>
-      <c r="AM3" s="66"/>
-      <c r="AN3" s="69"/>
-      <c r="AO3" s="70"/>
+      <c r="AI3" s="67"/>
+      <c r="AJ3" s="67"/>
+      <c r="AK3" s="67"/>
+      <c r="AL3" s="67"/>
+      <c r="AM3" s="67"/>
+      <c r="AN3" s="70"/>
+      <c r="AO3" s="71"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="28" spans="1:41">
       <c r="A4" s="15" t="s">
@@ -2665,16 +2668,16 @@
       <c r="P5" s="30">
         <v>27.1</v>
       </c>
-      <c r="Q5" s="35"/>
-      <c r="R5" s="35"/>
-      <c r="S5" s="35"/>
-      <c r="T5" s="35"/>
-      <c r="U5" s="35"/>
-      <c r="V5" s="35"/>
-      <c r="W5" s="35"/>
-      <c r="X5" s="35"/>
-      <c r="Y5" s="35"/>
-      <c r="Z5" s="35"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="33"/>
+      <c r="V5" s="33"/>
+      <c r="W5" s="33"/>
+      <c r="X5" s="33"/>
+      <c r="Y5" s="33"/>
+      <c r="Z5" s="33"/>
       <c r="AA5" s="53"/>
       <c r="AB5" s="44">
         <f>(I5-P5)/I5</f>
@@ -2888,26 +2891,26 @@
       <c r="AN7" s="54"/>
       <c r="AO7" s="54"/>
     </row>
-    <row r="8" ht="28" spans="1:41">
-      <c r="A8" s="21" t="s">
+    <row r="8" s="2" customFormat="1" ht="28" spans="1:41">
+      <c r="A8" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="18">
         <v>21.8</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="18">
         <v>19.564</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="18">
         <v>17.855</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="18">
         <v>15.752</v>
       </c>
       <c r="H8" s="33">
@@ -2919,20 +2922,20 @@
       <c r="J8" s="33">
         <v>18</v>
       </c>
-      <c r="K8" s="46">
+      <c r="K8" s="44">
         <f t="shared" si="0"/>
         <v>2.13218390804598</v>
       </c>
-      <c r="L8" s="46">
+      <c r="L8" s="44">
         <f t="shared" si="1"/>
         <v>0.234550561797753</v>
       </c>
-      <c r="M8" s="46">
+      <c r="M8" s="44">
         <f t="shared" si="2"/>
         <v>0.582222222222222</v>
       </c>
-      <c r="N8" s="55"/>
-      <c r="O8" s="55"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="53"/>
       <c r="P8" s="33"/>
       <c r="Q8" s="33"/>
       <c r="R8" s="33"/>
@@ -2944,36 +2947,36 @@
       <c r="X8" s="33"/>
       <c r="Y8" s="33"/>
       <c r="Z8" s="33"/>
-      <c r="AA8" s="55"/>
-      <c r="AB8" s="46">
+      <c r="AA8" s="53"/>
+      <c r="AB8" s="44">
         <f>(I8-P8)/I8</f>
         <v>1</v>
       </c>
-      <c r="AC8" s="46" t="e">
+      <c r="AC8" s="44" t="e">
         <f>(Q8-R8)/Q8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD8" s="46" t="e">
+      <c r="AD8" s="44" t="e">
         <f>(S8-T8)/S8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE8" s="46" t="e">
+      <c r="AE8" s="44" t="e">
         <f>(U8-V8)/U8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF8" s="46" t="e">
+      <c r="AF8" s="44" t="e">
         <f>(W8-X8)/W8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG8" s="46"/>
-      <c r="AH8" s="55"/>
-      <c r="AI8" s="55"/>
-      <c r="AJ8" s="55"/>
-      <c r="AK8" s="55"/>
-      <c r="AL8" s="55"/>
-      <c r="AM8" s="55"/>
-      <c r="AN8" s="55"/>
-      <c r="AO8" s="55"/>
+      <c r="AG8" s="44"/>
+      <c r="AH8" s="53"/>
+      <c r="AI8" s="53"/>
+      <c r="AJ8" s="53"/>
+      <c r="AK8" s="53"/>
+      <c r="AL8" s="53"/>
+      <c r="AM8" s="53"/>
+      <c r="AN8" s="53"/>
+      <c r="AO8" s="53"/>
     </row>
     <row r="9" s="3" customFormat="1" ht="28" spans="1:41">
       <c r="A9" s="19" t="s">
@@ -3157,45 +3160,51 @@
       <c r="AN10" s="54"/>
       <c r="AO10" s="54"/>
     </row>
-    <row r="11" ht="28" spans="1:41">
-      <c r="A11" s="21" t="s">
+    <row r="11" s="2" customFormat="1" ht="28" spans="1:41">
+      <c r="A11" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="18">
         <v>33.8</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="18">
         <v>31.941</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="18">
         <v>31.441</v>
       </c>
-      <c r="G11" s="22">
+      <c r="G11" s="18">
         <v>29.067</v>
       </c>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="46" t="e">
+      <c r="H11" s="30">
+        <v>12.77</v>
+      </c>
+      <c r="I11" s="30">
+        <v>51.09</v>
+      </c>
+      <c r="J11" s="30">
+        <v>23.7</v>
+      </c>
+      <c r="K11" s="44">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L11" s="46" t="e">
+        <v>1.64682850430697</v>
+      </c>
+      <c r="L11" s="44">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M11" s="46" t="e">
+        <v>0.338422391857506</v>
+      </c>
+      <c r="M11" s="44">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N11" s="55"/>
-      <c r="O11" s="55"/>
+        <v>1.15569620253165</v>
+      </c>
+      <c r="N11" s="53"/>
+      <c r="O11" s="53"/>
       <c r="P11" s="33"/>
       <c r="Q11" s="33"/>
       <c r="R11" s="33"/>
@@ -3207,117 +3216,133 @@
       <c r="X11" s="33"/>
       <c r="Y11" s="33"/>
       <c r="Z11" s="33"/>
-      <c r="AA11" s="55"/>
-      <c r="AB11" s="46" t="e">
+      <c r="AA11" s="53"/>
+      <c r="AB11" s="44">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC11" s="46" t="e">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="44" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD11" s="46" t="e">
+      <c r="AD11" s="44" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE11" s="46" t="e">
+      <c r="AE11" s="44" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF11" s="46" t="e">
+      <c r="AF11" s="44" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG11" s="46"/>
-      <c r="AH11" s="55"/>
-      <c r="AI11" s="55"/>
-      <c r="AJ11" s="55"/>
-      <c r="AK11" s="55"/>
-      <c r="AL11" s="55"/>
-      <c r="AM11" s="55"/>
-      <c r="AN11" s="55"/>
-      <c r="AO11" s="55"/>
+      <c r="AG11" s="44"/>
+      <c r="AH11" s="53"/>
+      <c r="AI11" s="53"/>
+      <c r="AJ11" s="53"/>
+      <c r="AK11" s="53"/>
+      <c r="AL11" s="53"/>
+      <c r="AM11" s="53"/>
+      <c r="AN11" s="53"/>
+      <c r="AO11" s="53"/>
     </row>
-    <row r="12" ht="28" spans="1:41">
-      <c r="A12" s="21" t="s">
+    <row r="12" s="3" customFormat="1" ht="28" spans="1:41">
+      <c r="A12" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="20">
         <v>12.44</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="20">
         <v>10.638</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="20">
         <v>10.475</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G12" s="20">
         <v>9.824</v>
       </c>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="46" t="e">
+      <c r="H12" s="31">
+        <v>5.01</v>
+      </c>
+      <c r="I12" s="31">
+        <v>14.67</v>
+      </c>
+      <c r="J12" s="31">
+        <v>8.94</v>
+      </c>
+      <c r="K12" s="45">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L12" s="46" t="e">
+        <v>1.48303393213573</v>
+      </c>
+      <c r="L12" s="45">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M12" s="46" t="e">
+        <v>0.152010906612134</v>
+      </c>
+      <c r="M12" s="45">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N12" s="55"/>
-      <c r="O12" s="55"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="33"/>
-      <c r="S12" s="33"/>
-      <c r="T12" s="33"/>
-      <c r="U12" s="33"/>
-      <c r="V12" s="33"/>
-      <c r="W12" s="33"/>
-      <c r="X12" s="33"/>
-      <c r="Y12" s="33"/>
-      <c r="Z12" s="33"/>
-      <c r="AA12" s="55"/>
-      <c r="AB12" s="46" t="e">
+        <v>0.640939597315436</v>
+      </c>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="31">
+        <v>8.74</v>
+      </c>
+      <c r="Q12" s="31">
+        <v>11.09</v>
+      </c>
+      <c r="R12" s="31">
+        <v>9.13</v>
+      </c>
+      <c r="S12" s="31">
+        <v>12.39</v>
+      </c>
+      <c r="T12" s="31">
+        <v>10.68</v>
+      </c>
+      <c r="U12" s="31"/>
+      <c r="V12" s="31"/>
+      <c r="W12" s="31"/>
+      <c r="X12" s="31"/>
+      <c r="Y12" s="31"/>
+      <c r="Z12" s="31"/>
+      <c r="AA12" s="54"/>
+      <c r="AB12" s="45">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC12" s="46" t="e">
+        <v>0.404226312201772</v>
+      </c>
+      <c r="AC12" s="45">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD12" s="46" t="e">
+        <v>0.176735798016231</v>
+      </c>
+      <c r="AD12" s="45">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE12" s="46" t="e">
+        <v>0.138014527845036</v>
+      </c>
+      <c r="AE12" s="45" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF12" s="46" t="e">
+      <c r="AF12" s="45" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG12" s="46"/>
-      <c r="AH12" s="55"/>
-      <c r="AI12" s="55"/>
-      <c r="AJ12" s="55"/>
-      <c r="AK12" s="55"/>
-      <c r="AL12" s="55"/>
-      <c r="AM12" s="55"/>
-      <c r="AN12" s="55"/>
-      <c r="AO12" s="55"/>
+      <c r="AG12" s="45"/>
+      <c r="AH12" s="54"/>
+      <c r="AI12" s="54"/>
+      <c r="AJ12" s="54"/>
+      <c r="AK12" s="54"/>
+      <c r="AL12" s="54"/>
+      <c r="AM12" s="54"/>
+      <c r="AN12" s="54"/>
+      <c r="AO12" s="54"/>
     </row>
     <row r="13" ht="28" spans="1:41">
       <c r="A13" s="21" t="s">
@@ -3341,9 +3366,9 @@
       <c r="G13" s="22">
         <v>20.66</v>
       </c>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
       <c r="K13" s="46" t="e">
         <f t="shared" ref="K13:K20" si="8">(D13-H13)/H13</f>
         <v>#DIV/0!</v>
@@ -3358,17 +3383,17 @@
       </c>
       <c r="N13" s="55"/>
       <c r="O13" s="55"/>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="33"/>
-      <c r="R13" s="33"/>
-      <c r="S13" s="33"/>
-      <c r="T13" s="33"/>
-      <c r="U13" s="33"/>
-      <c r="V13" s="33"/>
-      <c r="W13" s="33"/>
-      <c r="X13" s="33"/>
-      <c r="Y13" s="33"/>
-      <c r="Z13" s="33"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="34"/>
+      <c r="S13" s="34"/>
+      <c r="T13" s="34"/>
+      <c r="U13" s="34"/>
+      <c r="V13" s="34"/>
+      <c r="W13" s="34"/>
+      <c r="X13" s="34"/>
+      <c r="Y13" s="34"/>
+      <c r="Z13" s="34"/>
       <c r="AA13" s="55"/>
       <c r="AB13" s="46" t="e">
         <f t="shared" si="3"/>
@@ -3400,26 +3425,26 @@
       <c r="AN13" s="55"/>
       <c r="AO13" s="55"/>
     </row>
-    <row r="14" ht="28" spans="1:41">
-      <c r="A14" s="21" t="s">
+    <row r="14" s="2" customFormat="1" ht="28" spans="1:41">
+      <c r="A14" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="18">
         <v>11.49</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="18">
         <v>9.774</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F14" s="18">
         <v>9.123</v>
       </c>
-      <c r="G14" s="22">
+      <c r="G14" s="18">
         <v>8.702</v>
       </c>
       <c r="H14" s="33">
@@ -3431,20 +3456,20 @@
       <c r="J14" s="33">
         <v>9.3</v>
       </c>
-      <c r="K14" s="46">
+      <c r="K14" s="44">
         <f t="shared" si="8"/>
         <v>0.778637770897833</v>
       </c>
-      <c r="L14" s="46">
+      <c r="L14" s="44">
         <f t="shared" si="9"/>
         <v>0.091699604743083</v>
       </c>
-      <c r="M14" s="46">
+      <c r="M14" s="44">
         <f t="shared" si="10"/>
         <v>0.360215053763441</v>
       </c>
-      <c r="N14" s="55"/>
-      <c r="O14" s="55"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="53"/>
       <c r="P14" s="33"/>
       <c r="Q14" s="33"/>
       <c r="R14" s="33"/>
@@ -3456,57 +3481,57 @@
       <c r="X14" s="33"/>
       <c r="Y14" s="33"/>
       <c r="Z14" s="33"/>
-      <c r="AA14" s="55"/>
-      <c r="AB14" s="46">
+      <c r="AA14" s="53"/>
+      <c r="AB14" s="44">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="AC14" s="46" t="e">
+      <c r="AC14" s="44" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD14" s="46" t="e">
+      <c r="AD14" s="44" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE14" s="46" t="e">
+      <c r="AE14" s="44" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF14" s="46" t="e">
+      <c r="AF14" s="44" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG14" s="46"/>
-      <c r="AH14" s="55"/>
-      <c r="AI14" s="55"/>
-      <c r="AJ14" s="55"/>
-      <c r="AK14" s="55"/>
-      <c r="AL14" s="55"/>
-      <c r="AM14" s="55"/>
-      <c r="AN14" s="55"/>
-      <c r="AO14" s="55"/>
+      <c r="AG14" s="44"/>
+      <c r="AH14" s="53"/>
+      <c r="AI14" s="53"/>
+      <c r="AJ14" s="53"/>
+      <c r="AK14" s="53"/>
+      <c r="AL14" s="53"/>
+      <c r="AM14" s="53"/>
+      <c r="AN14" s="53"/>
+      <c r="AO14" s="53"/>
     </row>
-    <row r="15" ht="28" spans="1:41">
-      <c r="A15" s="21" t="s">
+    <row r="15" s="2" customFormat="1" ht="28" spans="1:41">
+      <c r="A15" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="18">
         <v>13.25</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="18">
         <v>11.808</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F15" s="18">
         <v>10.669</v>
       </c>
-      <c r="G15" s="22">
+      <c r="G15" s="18">
         <v>10.631</v>
       </c>
       <c r="H15" s="33">
@@ -3518,20 +3543,20 @@
       <c r="J15" s="33">
         <v>10.5</v>
       </c>
-      <c r="K15" s="46">
+      <c r="K15" s="44">
         <f t="shared" si="8"/>
         <v>0.560659599528857</v>
       </c>
-      <c r="L15" s="46">
+      <c r="L15" s="44">
         <f t="shared" si="9"/>
         <v>0.0293040293040293</v>
       </c>
-      <c r="M15" s="46">
+      <c r="M15" s="44">
         <f t="shared" si="10"/>
         <v>0.3</v>
       </c>
-      <c r="N15" s="55"/>
-      <c r="O15" s="55"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="53"/>
       <c r="P15" s="33"/>
       <c r="Q15" s="33"/>
       <c r="R15" s="33"/>
@@ -3543,36 +3568,36 @@
       <c r="X15" s="33"/>
       <c r="Y15" s="33"/>
       <c r="Z15" s="33"/>
-      <c r="AA15" s="55"/>
-      <c r="AB15" s="46">
+      <c r="AA15" s="53"/>
+      <c r="AB15" s="44">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="AC15" s="46" t="e">
+      <c r="AC15" s="44" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD15" s="46" t="e">
+      <c r="AD15" s="44" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE15" s="46" t="e">
+      <c r="AE15" s="44" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF15" s="46" t="e">
+      <c r="AF15" s="44" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG15" s="46"/>
-      <c r="AH15" s="55"/>
-      <c r="AI15" s="55"/>
-      <c r="AJ15" s="55"/>
-      <c r="AK15" s="55"/>
-      <c r="AL15" s="55"/>
-      <c r="AM15" s="55"/>
-      <c r="AN15" s="55"/>
-      <c r="AO15" s="55"/>
+      <c r="AG15" s="44"/>
+      <c r="AH15" s="53"/>
+      <c r="AI15" s="53"/>
+      <c r="AJ15" s="53"/>
+      <c r="AK15" s="53"/>
+      <c r="AL15" s="53"/>
+      <c r="AM15" s="53"/>
+      <c r="AN15" s="53"/>
+      <c r="AO15" s="53"/>
     </row>
     <row r="16" s="4" customFormat="1" ht="28" spans="1:41">
       <c r="A16" s="23" t="s">
@@ -3596,13 +3621,13 @@
       <c r="G16" s="24">
         <v>4.187</v>
       </c>
-      <c r="H16" s="34">
+      <c r="H16" s="35">
         <v>3.23</v>
       </c>
-      <c r="I16" s="34">
+      <c r="I16" s="35">
         <v>7.4</v>
       </c>
-      <c r="J16" s="34">
+      <c r="J16" s="35">
         <v>4.13</v>
       </c>
       <c r="K16" s="47">
@@ -3619,23 +3644,23 @@
       </c>
       <c r="N16" s="56"/>
       <c r="O16" s="56"/>
-      <c r="P16" s="34">
+      <c r="P16" s="35">
         <v>5.34</v>
       </c>
-      <c r="Q16" s="34">
+      <c r="Q16" s="35">
         <v>7</v>
       </c>
-      <c r="R16" s="34">
+      <c r="R16" s="35">
         <v>5.96</v>
       </c>
-      <c r="S16" s="34"/>
-      <c r="T16" s="34"/>
-      <c r="U16" s="34"/>
-      <c r="V16" s="34"/>
-      <c r="W16" s="34"/>
-      <c r="X16" s="34"/>
-      <c r="Y16" s="34"/>
-      <c r="Z16" s="34"/>
+      <c r="S16" s="35"/>
+      <c r="T16" s="35"/>
+      <c r="U16" s="35"/>
+      <c r="V16" s="35"/>
+      <c r="W16" s="35"/>
+      <c r="X16" s="35"/>
+      <c r="Y16" s="35"/>
+      <c r="Z16" s="35"/>
       <c r="AA16" s="56"/>
       <c r="AB16" s="47">
         <f t="shared" si="3"/>
@@ -3667,167 +3692,195 @@
       <c r="AN16" s="56"/>
       <c r="AO16" s="56"/>
     </row>
-    <row r="17" ht="28" spans="1:41">
-      <c r="A17" s="21" t="s">
+    <row r="17" s="3" customFormat="1" ht="28" spans="1:41">
+      <c r="A17" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="22">
+      <c r="D17" s="20">
         <v>8.81</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E17" s="20">
         <v>7.674</v>
       </c>
-      <c r="F17" s="22">
+      <c r="F17" s="20">
         <v>6.8</v>
       </c>
-      <c r="G17" s="22">
+      <c r="G17" s="20">
         <v>6.783</v>
       </c>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="46" t="e">
+      <c r="H17" s="32">
+        <v>4.41</v>
+      </c>
+      <c r="I17" s="32">
+        <v>9.23</v>
+      </c>
+      <c r="J17" s="32">
+        <v>4.93</v>
+      </c>
+      <c r="K17" s="45">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L17" s="46" t="e">
+        <v>0.997732426303855</v>
+      </c>
+      <c r="L17" s="45">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M17" s="46" t="e">
+        <v>0.0455037919826652</v>
+      </c>
+      <c r="M17" s="45">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N17" s="55"/>
-      <c r="O17" s="55"/>
-      <c r="P17" s="33"/>
-      <c r="Q17" s="33"/>
-      <c r="R17" s="33"/>
-      <c r="S17" s="33"/>
-      <c r="T17" s="33"/>
-      <c r="U17" s="33"/>
-      <c r="V17" s="33"/>
-      <c r="W17" s="33"/>
-      <c r="X17" s="33"/>
-      <c r="Y17" s="33"/>
-      <c r="Z17" s="33"/>
-      <c r="AA17" s="55"/>
-      <c r="AB17" s="46" t="e">
+        <v>0.872210953346856</v>
+      </c>
+      <c r="N17" s="54"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="32">
+        <v>5.1</v>
+      </c>
+      <c r="Q17" s="32">
+        <v>8.48</v>
+      </c>
+      <c r="R17" s="32">
+        <v>7.02</v>
+      </c>
+      <c r="S17" s="61">
+        <v>8.98</v>
+      </c>
+      <c r="T17" s="61">
+        <v>7.4</v>
+      </c>
+      <c r="U17" s="31"/>
+      <c r="V17" s="31"/>
+      <c r="W17" s="31"/>
+      <c r="X17" s="31"/>
+      <c r="Y17" s="31"/>
+      <c r="Z17" s="31"/>
+      <c r="AA17" s="54"/>
+      <c r="AB17" s="45">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC17" s="46" t="e">
+        <v>0.447453954496208</v>
+      </c>
+      <c r="AC17" s="45">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD17" s="46" t="e">
+        <v>0.172169811320755</v>
+      </c>
+      <c r="AD17" s="45">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE17" s="46" t="e">
+        <v>0.175946547884187</v>
+      </c>
+      <c r="AE17" s="45" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF17" s="46" t="e">
+      <c r="AF17" s="45" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG17" s="46"/>
-      <c r="AH17" s="55"/>
-      <c r="AI17" s="55"/>
-      <c r="AJ17" s="55"/>
-      <c r="AK17" s="55"/>
-      <c r="AL17" s="55"/>
-      <c r="AM17" s="55"/>
-      <c r="AN17" s="55"/>
-      <c r="AO17" s="55"/>
+      <c r="AG17" s="45"/>
+      <c r="AH17" s="54"/>
+      <c r="AI17" s="54"/>
+      <c r="AJ17" s="54"/>
+      <c r="AK17" s="54"/>
+      <c r="AL17" s="54"/>
+      <c r="AM17" s="54"/>
+      <c r="AN17" s="54"/>
+      <c r="AO17" s="54"/>
     </row>
-    <row r="18" ht="28" spans="1:41">
-      <c r="A18" s="21" t="s">
+    <row r="18" s="3" customFormat="1" ht="28" spans="1:41">
+      <c r="A18" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="20">
         <v>11.22</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E18" s="20">
         <v>10.248</v>
       </c>
-      <c r="F18" s="22">
+      <c r="F18" s="20">
         <v>8.218</v>
       </c>
-      <c r="G18" s="22">
+      <c r="G18" s="20">
         <v>7.733</v>
       </c>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="46" t="e">
+      <c r="H18" s="32">
+        <v>5.42</v>
+      </c>
+      <c r="I18" s="32">
+        <v>12.19</v>
+      </c>
+      <c r="J18" s="32">
+        <v>6.19</v>
+      </c>
+      <c r="K18" s="45">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L18" s="46" t="e">
+        <v>1.07011070110701</v>
+      </c>
+      <c r="L18" s="45">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M18" s="46" t="e">
+        <v>0.0795734208367513</v>
+      </c>
+      <c r="M18" s="45">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N18" s="55"/>
-      <c r="O18" s="55"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="33"/>
-      <c r="R18" s="33"/>
-      <c r="S18" s="33"/>
-      <c r="T18" s="33"/>
-      <c r="U18" s="33"/>
-      <c r="V18" s="33"/>
-      <c r="W18" s="33"/>
-      <c r="X18" s="33"/>
-      <c r="Y18" s="33"/>
-      <c r="Z18" s="33"/>
-      <c r="AA18" s="55"/>
-      <c r="AB18" s="46" t="e">
+        <v>0.969305331179321</v>
+      </c>
+      <c r="N18" s="54"/>
+      <c r="O18" s="54"/>
+      <c r="P18" s="32">
+        <v>8.31</v>
+      </c>
+      <c r="Q18" s="32">
+        <v>12.16</v>
+      </c>
+      <c r="R18" s="32">
+        <v>8.99</v>
+      </c>
+      <c r="S18" s="31"/>
+      <c r="T18" s="31"/>
+      <c r="U18" s="31"/>
+      <c r="V18" s="31"/>
+      <c r="W18" s="31"/>
+      <c r="X18" s="31"/>
+      <c r="Y18" s="31"/>
+      <c r="Z18" s="31"/>
+      <c r="AA18" s="54"/>
+      <c r="AB18" s="45">
         <f t="shared" ref="AB18:AB26" si="11">(I18-P18)/I18</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC18" s="46" t="e">
+        <v>0.318293683347006</v>
+      </c>
+      <c r="AC18" s="45">
         <f t="shared" ref="AC18:AC26" si="12">(Q18-R18)/Q18</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD18" s="46" t="e">
+        <v>0.260690789473684</v>
+      </c>
+      <c r="AD18" s="45" t="e">
         <f t="shared" ref="AD18:AD26" si="13">(S18-T18)/S18</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE18" s="46" t="e">
+      <c r="AE18" s="45" t="e">
         <f t="shared" ref="AE18:AE26" si="14">(U18-V18)/U18</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF18" s="46" t="e">
+      <c r="AF18" s="45" t="e">
         <f t="shared" ref="AF18:AF26" si="15">(W18-X18)/W18</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG18" s="46"/>
-      <c r="AH18" s="55"/>
-      <c r="AI18" s="55"/>
-      <c r="AJ18" s="55"/>
-      <c r="AK18" s="55"/>
-      <c r="AL18" s="55"/>
-      <c r="AM18" s="55"/>
-      <c r="AN18" s="55"/>
-      <c r="AO18" s="55"/>
+      <c r="AG18" s="45"/>
+      <c r="AH18" s="54"/>
+      <c r="AI18" s="54"/>
+      <c r="AJ18" s="54"/>
+      <c r="AK18" s="54"/>
+      <c r="AL18" s="54"/>
+      <c r="AM18" s="54"/>
+      <c r="AN18" s="54"/>
+      <c r="AO18" s="54"/>
     </row>
     <row r="19" ht="28" spans="1:41">
       <c r="A19" s="21" t="s">
@@ -3851,9 +3904,9 @@
       <c r="G19" s="22">
         <v>19.881</v>
       </c>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
       <c r="K19" s="46" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
@@ -3868,17 +3921,17 @@
       </c>
       <c r="N19" s="55"/>
       <c r="O19" s="55"/>
-      <c r="P19" s="33"/>
-      <c r="Q19" s="33"/>
-      <c r="R19" s="33"/>
-      <c r="S19" s="33"/>
-      <c r="T19" s="33"/>
-      <c r="U19" s="33"/>
-      <c r="V19" s="33"/>
-      <c r="W19" s="33"/>
-      <c r="X19" s="33"/>
-      <c r="Y19" s="33"/>
-      <c r="Z19" s="33"/>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="34"/>
+      <c r="R19" s="34"/>
+      <c r="S19" s="34"/>
+      <c r="T19" s="34"/>
+      <c r="U19" s="34"/>
+      <c r="V19" s="34"/>
+      <c r="W19" s="34"/>
+      <c r="X19" s="34"/>
+      <c r="Y19" s="34"/>
+      <c r="Z19" s="34"/>
       <c r="AA19" s="55"/>
       <c r="AB19" s="46" t="e">
         <f t="shared" si="11"/>
@@ -3910,86 +3963,98 @@
       <c r="AN19" s="55"/>
       <c r="AO19" s="55"/>
     </row>
-    <row r="20" ht="28" spans="1:41">
-      <c r="A20" s="21" t="s">
+    <row r="20" s="3" customFormat="1" ht="28" spans="1:41">
+      <c r="A20" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="22">
+      <c r="D20" s="20">
         <v>21.3</v>
       </c>
-      <c r="E20" s="22">
+      <c r="E20" s="20">
         <v>20.517</v>
       </c>
-      <c r="F20" s="22">
+      <c r="F20" s="20">
         <v>16.744</v>
       </c>
-      <c r="G20" s="22">
+      <c r="G20" s="20">
         <v>16.138</v>
       </c>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="46" t="e">
+      <c r="H20" s="31">
+        <v>12.42</v>
+      </c>
+      <c r="I20" s="31">
+        <v>28.38</v>
+      </c>
+      <c r="J20" s="31">
+        <v>13.88</v>
+      </c>
+      <c r="K20" s="45">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L20" s="46" t="e">
+        <v>0.714975845410628</v>
+      </c>
+      <c r="L20" s="45">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M20" s="46" t="e">
+        <v>0.249471458773784</v>
+      </c>
+      <c r="M20" s="45">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N20" s="55"/>
-      <c r="O20" s="55"/>
-      <c r="P20" s="33"/>
-      <c r="Q20" s="33"/>
-      <c r="R20" s="33"/>
-      <c r="S20" s="33"/>
-      <c r="T20" s="33"/>
-      <c r="U20" s="33"/>
-      <c r="V20" s="33"/>
-      <c r="W20" s="33"/>
-      <c r="X20" s="33"/>
-      <c r="Y20" s="33"/>
-      <c r="Z20" s="33"/>
-      <c r="AA20" s="55"/>
-      <c r="AB20" s="46" t="e">
+        <v>1.04466858789625</v>
+      </c>
+      <c r="N20" s="54"/>
+      <c r="O20" s="54"/>
+      <c r="P20" s="31">
+        <v>17.1</v>
+      </c>
+      <c r="Q20" s="31">
+        <v>21.62</v>
+      </c>
+      <c r="R20" s="31">
+        <v>19.8</v>
+      </c>
+      <c r="S20" s="31"/>
+      <c r="T20" s="31"/>
+      <c r="U20" s="31"/>
+      <c r="V20" s="31"/>
+      <c r="W20" s="31"/>
+      <c r="X20" s="31"/>
+      <c r="Y20" s="31"/>
+      <c r="Z20" s="31"/>
+      <c r="AA20" s="54"/>
+      <c r="AB20" s="45">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC20" s="46" t="e">
+        <v>0.397463002114165</v>
+      </c>
+      <c r="AC20" s="45">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD20" s="46" t="e">
+        <v>0.0841813135985199</v>
+      </c>
+      <c r="AD20" s="45" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE20" s="46" t="e">
+      <c r="AE20" s="45" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF20" s="46" t="e">
+      <c r="AF20" s="45" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG20" s="46"/>
-      <c r="AH20" s="55"/>
-      <c r="AI20" s="55"/>
-      <c r="AJ20" s="55"/>
-      <c r="AK20" s="55"/>
-      <c r="AL20" s="55"/>
-      <c r="AM20" s="55"/>
-      <c r="AN20" s="55"/>
-      <c r="AO20" s="55"/>
+      <c r="AG20" s="45"/>
+      <c r="AH20" s="54"/>
+      <c r="AI20" s="54"/>
+      <c r="AJ20" s="54"/>
+      <c r="AK20" s="54"/>
+      <c r="AL20" s="54"/>
+      <c r="AM20" s="54"/>
+      <c r="AN20" s="54"/>
+      <c r="AO20" s="54"/>
     </row>
     <row r="21" s="3" customFormat="1" ht="28" spans="1:41">
       <c r="A21" s="19" t="s">
@@ -4288,9 +4353,9 @@
       <c r="G24" s="22">
         <v>4.153</v>
       </c>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
       <c r="K24" s="46" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
@@ -4305,17 +4370,17 @@
       </c>
       <c r="N24" s="55"/>
       <c r="O24" s="55"/>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="33"/>
-      <c r="R24" s="33"/>
-      <c r="S24" s="33"/>
-      <c r="T24" s="33"/>
-      <c r="U24" s="33"/>
-      <c r="V24" s="33"/>
-      <c r="W24" s="33"/>
-      <c r="X24" s="33"/>
-      <c r="Y24" s="33"/>
-      <c r="Z24" s="33"/>
+      <c r="P24" s="34"/>
+      <c r="Q24" s="34"/>
+      <c r="R24" s="34"/>
+      <c r="S24" s="34"/>
+      <c r="T24" s="34"/>
+      <c r="U24" s="34"/>
+      <c r="V24" s="34"/>
+      <c r="W24" s="34"/>
+      <c r="X24" s="34"/>
+      <c r="Y24" s="34"/>
+      <c r="Z24" s="34"/>
       <c r="AA24" s="55"/>
       <c r="AB24" s="46" t="e">
         <f t="shared" si="11"/>
@@ -4589,16 +4654,16 @@
       <c r="P27" s="30">
         <v>6.41</v>
       </c>
-      <c r="Q27" s="35"/>
-      <c r="R27" s="35"/>
-      <c r="S27" s="35"/>
-      <c r="T27" s="35"/>
-      <c r="U27" s="35"/>
-      <c r="V27" s="35"/>
-      <c r="W27" s="35"/>
-      <c r="X27" s="35"/>
-      <c r="Y27" s="35"/>
-      <c r="Z27" s="35"/>
+      <c r="Q27" s="33"/>
+      <c r="R27" s="33"/>
+      <c r="S27" s="33"/>
+      <c r="T27" s="33"/>
+      <c r="U27" s="33"/>
+      <c r="V27" s="33"/>
+      <c r="W27" s="33"/>
+      <c r="X27" s="33"/>
+      <c r="Y27" s="33"/>
+      <c r="Z27" s="33"/>
       <c r="AA27" s="53"/>
       <c r="AB27" s="44">
         <f>(I27-P27)/I27</f>
@@ -4630,26 +4695,26 @@
       <c r="AN27" s="53"/>
       <c r="AO27" s="53"/>
     </row>
-    <row r="28" ht="28" spans="1:41">
-      <c r="A28" s="21" t="s">
+    <row r="28" s="2" customFormat="1" ht="28" spans="1:41">
+      <c r="A28" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="D28" s="22">
+      <c r="D28" s="18">
         <v>5.16</v>
       </c>
-      <c r="E28" s="22">
+      <c r="E28" s="18">
         <v>4.785</v>
       </c>
-      <c r="F28" s="22">
+      <c r="F28" s="18">
         <v>4.353</v>
       </c>
-      <c r="G28" s="22">
+      <c r="G28" s="18">
         <v>4.327</v>
       </c>
       <c r="H28" s="33">
@@ -4661,20 +4726,20 @@
       <c r="J28" s="33">
         <v>5.06</v>
       </c>
-      <c r="K28" s="46">
+      <c r="K28" s="44">
         <f t="shared" si="16"/>
         <v>0.326478149100257</v>
       </c>
-      <c r="L28" s="46">
+      <c r="L28" s="44">
         <f t="shared" si="17"/>
         <v>0.0752688172043011</v>
       </c>
-      <c r="M28" s="46">
+      <c r="M28" s="44">
         <f t="shared" si="18"/>
         <v>0.102766798418972</v>
       </c>
-      <c r="N28" s="55"/>
-      <c r="O28" s="55"/>
+      <c r="N28" s="53"/>
+      <c r="O28" s="53"/>
       <c r="P28" s="33"/>
       <c r="Q28" s="33"/>
       <c r="R28" s="33"/>
@@ -4686,36 +4751,36 @@
       <c r="X28" s="33"/>
       <c r="Y28" s="33"/>
       <c r="Z28" s="33"/>
-      <c r="AA28" s="55"/>
-      <c r="AB28" s="46">
+      <c r="AA28" s="53"/>
+      <c r="AB28" s="44">
         <f>(I28-P28)/I28</f>
         <v>1</v>
       </c>
-      <c r="AC28" s="46" t="e">
+      <c r="AC28" s="44" t="e">
         <f>(Q28-R28)/Q28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD28" s="46" t="e">
+      <c r="AD28" s="44" t="e">
         <f>(S28-T28)/S28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE28" s="46" t="e">
+      <c r="AE28" s="44" t="e">
         <f>(U28-V28)/U28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF28" s="46" t="e">
+      <c r="AF28" s="44" t="e">
         <f>(W28-X28)/W28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG28" s="46"/>
-      <c r="AH28" s="55"/>
-      <c r="AI28" s="55"/>
-      <c r="AJ28" s="55"/>
-      <c r="AK28" s="55"/>
-      <c r="AL28" s="55"/>
-      <c r="AM28" s="55"/>
-      <c r="AN28" s="55"/>
-      <c r="AO28" s="55"/>
+      <c r="AG28" s="44"/>
+      <c r="AH28" s="53"/>
+      <c r="AI28" s="53"/>
+      <c r="AJ28" s="53"/>
+      <c r="AK28" s="53"/>
+      <c r="AL28" s="53"/>
+      <c r="AM28" s="53"/>
+      <c r="AN28" s="53"/>
+      <c r="AO28" s="53"/>
     </row>
     <row r="29" s="3" customFormat="1" ht="28" spans="1:41">
       <c r="A29" s="19" t="s">
@@ -4828,13 +4893,13 @@
       <c r="G30" s="18">
         <v>2.937</v>
       </c>
-      <c r="H30" s="35">
+      <c r="H30" s="33">
         <v>1.77</v>
       </c>
-      <c r="I30" s="35">
+      <c r="I30" s="33">
         <v>6.24</v>
       </c>
-      <c r="J30" s="35">
+      <c r="J30" s="33">
         <v>2.19</v>
       </c>
       <c r="K30" s="44">
@@ -4851,23 +4916,23 @@
       </c>
       <c r="N30" s="53"/>
       <c r="O30" s="53"/>
-      <c r="P30" s="35">
+      <c r="P30" s="33">
         <v>3.38</v>
       </c>
-      <c r="Q30" s="35">
+      <c r="Q30" s="33">
         <v>5.7</v>
       </c>
-      <c r="R30" s="35">
+      <c r="R30" s="33">
         <v>4.28</v>
       </c>
-      <c r="S30" s="35"/>
-      <c r="T30" s="35"/>
-      <c r="U30" s="35"/>
-      <c r="V30" s="35"/>
-      <c r="W30" s="35"/>
-      <c r="X30" s="35"/>
-      <c r="Y30" s="35"/>
-      <c r="Z30" s="35"/>
+      <c r="S30" s="33"/>
+      <c r="T30" s="33"/>
+      <c r="U30" s="33"/>
+      <c r="V30" s="33"/>
+      <c r="W30" s="33"/>
+      <c r="X30" s="33"/>
+      <c r="Y30" s="33"/>
+      <c r="Z30" s="33"/>
       <c r="AA30" s="53"/>
       <c r="AB30" s="44">
         <f t="shared" ref="AB30:AB39" si="19">(I30-P30)/I30</f>
@@ -4899,107 +4964,115 @@
       <c r="AN30" s="53"/>
       <c r="AO30" s="53"/>
     </row>
-    <row r="31" ht="28" spans="1:41">
-      <c r="A31" s="21" t="s">
+    <row r="31" s="3" customFormat="1" ht="28" spans="1:41">
+      <c r="A31" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="C31" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="D31" s="22">
+      <c r="D31" s="20">
         <v>11.35</v>
       </c>
-      <c r="E31" s="22">
+      <c r="E31" s="20">
         <v>10.999</v>
       </c>
-      <c r="F31" s="22">
+      <c r="F31" s="20">
         <v>10.28</v>
       </c>
-      <c r="G31" s="22">
+      <c r="G31" s="20">
         <v>9.431</v>
       </c>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="46" t="e">
+      <c r="H31" s="31">
+        <v>6.35</v>
+      </c>
+      <c r="I31" s="31">
+        <v>14.14</v>
+      </c>
+      <c r="J31" s="31">
+        <v>8.65</v>
+      </c>
+      <c r="K31" s="45">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L31" s="46" t="e">
+        <v>0.78740157480315</v>
+      </c>
+      <c r="L31" s="45">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M31" s="46" t="e">
+        <v>0.197312588401697</v>
+      </c>
+      <c r="M31" s="45">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N31" s="55"/>
-      <c r="O31" s="55"/>
-      <c r="P31" s="33"/>
-      <c r="Q31" s="33"/>
-      <c r="R31" s="33"/>
-      <c r="S31" s="33"/>
-      <c r="T31" s="33"/>
-      <c r="U31" s="33"/>
-      <c r="V31" s="33"/>
-      <c r="W31" s="33"/>
-      <c r="X31" s="33"/>
-      <c r="Y31" s="33"/>
-      <c r="Z31" s="33"/>
-      <c r="AA31" s="55"/>
-      <c r="AB31" s="46" t="e">
+        <v>0.634682080924855</v>
+      </c>
+      <c r="N31" s="54"/>
+      <c r="O31" s="54"/>
+      <c r="P31" s="31">
+        <v>9.49</v>
+      </c>
+      <c r="Q31" s="31"/>
+      <c r="R31" s="31"/>
+      <c r="S31" s="31"/>
+      <c r="T31" s="31"/>
+      <c r="U31" s="31"/>
+      <c r="V31" s="31"/>
+      <c r="W31" s="31"/>
+      <c r="X31" s="31"/>
+      <c r="Y31" s="31"/>
+      <c r="Z31" s="31"/>
+      <c r="AA31" s="54"/>
+      <c r="AB31" s="45">
         <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC31" s="46" t="e">
+        <v>0.328854314002829</v>
+      </c>
+      <c r="AC31" s="45" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD31" s="46" t="e">
+      <c r="AD31" s="45" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE31" s="46" t="e">
+      <c r="AE31" s="45" t="e">
         <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF31" s="46" t="e">
+      <c r="AF31" s="45" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG31" s="46"/>
-      <c r="AH31" s="55"/>
-      <c r="AI31" s="55"/>
-      <c r="AJ31" s="55"/>
-      <c r="AK31" s="55"/>
-      <c r="AL31" s="55"/>
-      <c r="AM31" s="55"/>
-      <c r="AN31" s="55"/>
-      <c r="AO31" s="55"/>
+      <c r="AG31" s="45"/>
+      <c r="AH31" s="54"/>
+      <c r="AI31" s="54"/>
+      <c r="AJ31" s="54"/>
+      <c r="AK31" s="54"/>
+      <c r="AL31" s="54"/>
+      <c r="AM31" s="54"/>
+      <c r="AN31" s="54"/>
+      <c r="AO31" s="54"/>
     </row>
-    <row r="32" ht="28" spans="1:41">
-      <c r="A32" s="21" t="s">
+    <row r="32" s="2" customFormat="1" ht="28" spans="1:41">
+      <c r="A32" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="C32" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="D32" s="22">
+      <c r="D32" s="18">
         <v>8.94</v>
       </c>
-      <c r="E32" s="22">
+      <c r="E32" s="18">
         <v>8.6</v>
       </c>
-      <c r="F32" s="22">
+      <c r="F32" s="18">
         <v>7.742</v>
       </c>
-      <c r="G32" s="22">
+      <c r="G32" s="18">
         <v>7.417</v>
       </c>
       <c r="H32" s="33">
@@ -5011,20 +5084,20 @@
       <c r="J32" s="33">
         <v>8.26</v>
       </c>
-      <c r="K32" s="46">
+      <c r="K32" s="44">
         <f t="shared" ref="K32:K39" si="24">(D32-H32)/H32</f>
         <v>0.528205128205128</v>
       </c>
-      <c r="L32" s="46">
+      <c r="L32" s="44">
         <f t="shared" ref="L32:L39" si="25">(I32-D32)/I32</f>
         <v>0.0858895705521472</v>
       </c>
-      <c r="M32" s="46">
+      <c r="M32" s="44">
         <f t="shared" ref="M32:M39" si="26">(I32-J32)/J32</f>
         <v>0.184019370460048</v>
       </c>
-      <c r="N32" s="55"/>
-      <c r="O32" s="55"/>
+      <c r="N32" s="53"/>
+      <c r="O32" s="53"/>
       <c r="P32" s="33"/>
       <c r="Q32" s="33"/>
       <c r="R32" s="33"/>
@@ -5036,36 +5109,36 @@
       <c r="X32" s="33"/>
       <c r="Y32" s="33"/>
       <c r="Z32" s="33"/>
-      <c r="AA32" s="55"/>
-      <c r="AB32" s="46">
+      <c r="AA32" s="53"/>
+      <c r="AB32" s="44">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="AC32" s="46" t="e">
+      <c r="AC32" s="44" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD32" s="46" t="e">
+      <c r="AD32" s="44" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE32" s="46" t="e">
+      <c r="AE32" s="44" t="e">
         <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF32" s="46" t="e">
+      <c r="AF32" s="44" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG32" s="46"/>
-      <c r="AH32" s="55"/>
-      <c r="AI32" s="55"/>
-      <c r="AJ32" s="55"/>
-      <c r="AK32" s="55"/>
-      <c r="AL32" s="55"/>
-      <c r="AM32" s="55"/>
-      <c r="AN32" s="55"/>
-      <c r="AO32" s="55"/>
+      <c r="AG32" s="44"/>
+      <c r="AH32" s="53"/>
+      <c r="AI32" s="53"/>
+      <c r="AJ32" s="53"/>
+      <c r="AK32" s="53"/>
+      <c r="AL32" s="53"/>
+      <c r="AM32" s="53"/>
+      <c r="AN32" s="53"/>
+      <c r="AO32" s="53"/>
     </row>
     <row r="33" s="3" customFormat="1" ht="28" spans="1:41">
       <c r="A33" s="19" t="s">
@@ -5164,26 +5237,26 @@
       <c r="AN33" s="54"/>
       <c r="AO33" s="54"/>
     </row>
-    <row r="34" ht="28" spans="1:41">
-      <c r="A34" s="21" t="s">
+    <row r="34" s="2" customFormat="1" ht="28" spans="1:41">
+      <c r="A34" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="C34" s="21" t="s">
+      <c r="C34" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="D34" s="22">
+      <c r="D34" s="18">
         <v>8.04</v>
       </c>
-      <c r="E34" s="22">
+      <c r="E34" s="18">
         <v>7.728</v>
       </c>
-      <c r="F34" s="22">
+      <c r="F34" s="18">
         <v>6.998</v>
       </c>
-      <c r="G34" s="22">
+      <c r="G34" s="18">
         <v>6.68</v>
       </c>
       <c r="H34" s="33">
@@ -5195,20 +5268,20 @@
       <c r="J34" s="33">
         <v>7.78</v>
       </c>
-      <c r="K34" s="46">
+      <c r="K34" s="44">
         <f t="shared" si="24"/>
         <v>0.573385518590998</v>
       </c>
-      <c r="L34" s="46">
+      <c r="L34" s="44">
         <f t="shared" si="25"/>
         <v>0.0651162790697675</v>
       </c>
-      <c r="M34" s="46">
+      <c r="M34" s="44">
         <f t="shared" si="26"/>
         <v>0.105398457583547</v>
       </c>
-      <c r="N34" s="55"/>
-      <c r="O34" s="55"/>
+      <c r="N34" s="53"/>
+      <c r="O34" s="53"/>
       <c r="P34" s="33"/>
       <c r="Q34" s="33"/>
       <c r="R34" s="33"/>
@@ -5220,57 +5293,57 @@
       <c r="X34" s="33"/>
       <c r="Y34" s="33"/>
       <c r="Z34" s="33"/>
-      <c r="AA34" s="55"/>
-      <c r="AB34" s="46">
+      <c r="AA34" s="53"/>
+      <c r="AB34" s="44">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="AC34" s="46" t="e">
+      <c r="AC34" s="44" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD34" s="46" t="e">
+      <c r="AD34" s="44" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE34" s="46" t="e">
+      <c r="AE34" s="44" t="e">
         <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF34" s="46" t="e">
+      <c r="AF34" s="44" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG34" s="46"/>
-      <c r="AH34" s="55"/>
-      <c r="AI34" s="55"/>
-      <c r="AJ34" s="55"/>
-      <c r="AK34" s="55"/>
-      <c r="AL34" s="55"/>
-      <c r="AM34" s="55"/>
-      <c r="AN34" s="55"/>
-      <c r="AO34" s="55"/>
+      <c r="AG34" s="44"/>
+      <c r="AH34" s="53"/>
+      <c r="AI34" s="53"/>
+      <c r="AJ34" s="53"/>
+      <c r="AK34" s="53"/>
+      <c r="AL34" s="53"/>
+      <c r="AM34" s="53"/>
+      <c r="AN34" s="53"/>
+      <c r="AO34" s="53"/>
     </row>
-    <row r="35" ht="28" spans="1:41">
-      <c r="A35" s="21" t="s">
+    <row r="35" s="2" customFormat="1" ht="28" spans="1:41">
+      <c r="A35" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="C35" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="D35" s="22">
+      <c r="D35" s="18">
         <v>5.81</v>
       </c>
-      <c r="E35" s="22">
+      <c r="E35" s="18">
         <v>5.538</v>
       </c>
-      <c r="F35" s="22">
+      <c r="F35" s="18">
         <v>5.089</v>
       </c>
-      <c r="G35" s="22">
+      <c r="G35" s="18">
         <v>4.899</v>
       </c>
       <c r="H35" s="33">
@@ -5282,20 +5355,20 @@
       <c r="J35" s="33">
         <v>5.34</v>
       </c>
-      <c r="K35" s="46">
+      <c r="K35" s="44">
         <f t="shared" si="24"/>
         <v>0.482142857142857</v>
       </c>
-      <c r="L35" s="46">
+      <c r="L35" s="44">
         <f t="shared" si="25"/>
         <v>0.0763116057233705</v>
       </c>
-      <c r="M35" s="46">
+      <c r="M35" s="44">
         <f t="shared" si="26"/>
         <v>0.177902621722846</v>
       </c>
-      <c r="N35" s="55"/>
-      <c r="O35" s="55"/>
+      <c r="N35" s="53"/>
+      <c r="O35" s="53"/>
       <c r="P35" s="33"/>
       <c r="Q35" s="33"/>
       <c r="R35" s="33"/>
@@ -5307,138 +5380,146 @@
       <c r="X35" s="33"/>
       <c r="Y35" s="33"/>
       <c r="Z35" s="33"/>
-      <c r="AA35" s="55"/>
-      <c r="AB35" s="46">
+      <c r="AA35" s="53"/>
+      <c r="AB35" s="44">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="AC35" s="46" t="e">
+      <c r="AC35" s="44" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD35" s="46" t="e">
+      <c r="AD35" s="44" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE35" s="46" t="e">
+      <c r="AE35" s="44" t="e">
         <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF35" s="46" t="e">
+      <c r="AF35" s="44" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG35" s="46"/>
-      <c r="AH35" s="55"/>
-      <c r="AI35" s="55"/>
-      <c r="AJ35" s="55"/>
-      <c r="AK35" s="55"/>
-      <c r="AL35" s="55"/>
-      <c r="AM35" s="55"/>
-      <c r="AN35" s="55"/>
-      <c r="AO35" s="55"/>
+      <c r="AG35" s="44"/>
+      <c r="AH35" s="53"/>
+      <c r="AI35" s="53"/>
+      <c r="AJ35" s="53"/>
+      <c r="AK35" s="53"/>
+      <c r="AL35" s="53"/>
+      <c r="AM35" s="53"/>
+      <c r="AN35" s="53"/>
+      <c r="AO35" s="53"/>
     </row>
-    <row r="36" ht="28" spans="1:41">
-      <c r="A36" s="21" t="s">
+    <row r="36" s="3" customFormat="1" ht="28" spans="1:41">
+      <c r="A36" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="B36" s="21" t="s">
+      <c r="B36" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="C36" s="21" t="s">
+      <c r="C36" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="D36" s="22">
+      <c r="D36" s="20">
         <v>11.59</v>
       </c>
-      <c r="E36" s="22">
+      <c r="E36" s="20">
         <v>11.326</v>
       </c>
-      <c r="F36" s="22">
+      <c r="F36" s="20">
         <v>10.622</v>
       </c>
-      <c r="G36" s="22">
+      <c r="G36" s="20">
         <v>10.064</v>
       </c>
-      <c r="H36" s="33"/>
-      <c r="I36" s="33"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="46" t="e">
+      <c r="H36" s="31">
+        <v>7.81</v>
+      </c>
+      <c r="I36" s="31">
+        <v>12.44</v>
+      </c>
+      <c r="J36" s="31">
+        <v>11.06</v>
+      </c>
+      <c r="K36" s="45">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L36" s="46" t="e">
+        <v>0.483994878361076</v>
+      </c>
+      <c r="L36" s="45">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M36" s="46" t="e">
+        <v>0.0683279742765273</v>
+      </c>
+      <c r="M36" s="45">
         <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N36" s="55"/>
-      <c r="O36" s="55"/>
-      <c r="P36" s="33"/>
-      <c r="Q36" s="33"/>
-      <c r="R36" s="33"/>
-      <c r="S36" s="33"/>
-      <c r="T36" s="33"/>
-      <c r="U36" s="33"/>
-      <c r="V36" s="33"/>
-      <c r="W36" s="33"/>
-      <c r="X36" s="33"/>
-      <c r="Y36" s="33"/>
-      <c r="Z36" s="33"/>
-      <c r="AA36" s="55"/>
-      <c r="AB36" s="46" t="e">
+        <v>0.124773960216998</v>
+      </c>
+      <c r="N36" s="54"/>
+      <c r="O36" s="54"/>
+      <c r="P36" s="31">
+        <v>9.93</v>
+      </c>
+      <c r="Q36" s="31"/>
+      <c r="R36" s="31"/>
+      <c r="S36" s="31"/>
+      <c r="T36" s="31"/>
+      <c r="U36" s="31"/>
+      <c r="V36" s="31"/>
+      <c r="W36" s="31"/>
+      <c r="X36" s="31"/>
+      <c r="Y36" s="31"/>
+      <c r="Z36" s="31"/>
+      <c r="AA36" s="54"/>
+      <c r="AB36" s="45">
         <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC36" s="46" t="e">
+        <v>0.201768488745981</v>
+      </c>
+      <c r="AC36" s="45" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD36" s="46" t="e">
+      <c r="AD36" s="45" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE36" s="46" t="e">
+      <c r="AE36" s="45" t="e">
         <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF36" s="46" t="e">
+      <c r="AF36" s="45" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG36" s="46"/>
-      <c r="AH36" s="55"/>
-      <c r="AI36" s="55"/>
-      <c r="AJ36" s="55"/>
-      <c r="AK36" s="55"/>
-      <c r="AL36" s="55"/>
-      <c r="AM36" s="55"/>
-      <c r="AN36" s="55"/>
-      <c r="AO36" s="55"/>
+      <c r="AG36" s="45"/>
+      <c r="AH36" s="54"/>
+      <c r="AI36" s="54"/>
+      <c r="AJ36" s="54"/>
+      <c r="AK36" s="54"/>
+      <c r="AL36" s="54"/>
+      <c r="AM36" s="54"/>
+      <c r="AN36" s="54"/>
+      <c r="AO36" s="54"/>
     </row>
-    <row r="37" ht="28" spans="1:41">
-      <c r="A37" s="21" t="s">
+    <row r="37" s="2" customFormat="1" ht="28" spans="1:41">
+      <c r="A37" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="C37" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="D37" s="22">
+      <c r="D37" s="18">
         <v>4.15</v>
       </c>
-      <c r="E37" s="22">
+      <c r="E37" s="18">
         <v>3.9</v>
       </c>
-      <c r="F37" s="22">
+      <c r="F37" s="18">
         <v>3.74</v>
       </c>
-      <c r="G37" s="22">
+      <c r="G37" s="18">
         <v>3.718</v>
       </c>
       <c r="H37" s="33">
@@ -5450,20 +5531,20 @@
       <c r="J37" s="33">
         <v>3.94</v>
       </c>
-      <c r="K37" s="46">
+      <c r="K37" s="44">
         <f t="shared" si="24"/>
         <v>0.217008797653959</v>
       </c>
-      <c r="L37" s="46">
+      <c r="L37" s="44">
         <f t="shared" si="25"/>
         <v>0.201923076923077</v>
       </c>
-      <c r="M37" s="46">
+      <c r="M37" s="44">
         <f t="shared" si="26"/>
         <v>0.319796954314721</v>
       </c>
-      <c r="N37" s="55"/>
-      <c r="O37" s="55"/>
+      <c r="N37" s="53"/>
+      <c r="O37" s="53"/>
       <c r="P37" s="33"/>
       <c r="Q37" s="33"/>
       <c r="R37" s="33"/>
@@ -5475,36 +5556,36 @@
       <c r="X37" s="33"/>
       <c r="Y37" s="33"/>
       <c r="Z37" s="33"/>
-      <c r="AA37" s="55"/>
-      <c r="AB37" s="46">
+      <c r="AA37" s="53"/>
+      <c r="AB37" s="44">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="AC37" s="46" t="e">
+      <c r="AC37" s="44" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD37" s="46" t="e">
+      <c r="AD37" s="44" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE37" s="46" t="e">
+      <c r="AE37" s="44" t="e">
         <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF37" s="46" t="e">
+      <c r="AF37" s="44" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG37" s="46"/>
-      <c r="AH37" s="55"/>
-      <c r="AI37" s="55"/>
-      <c r="AJ37" s="55"/>
-      <c r="AK37" s="55"/>
-      <c r="AL37" s="55"/>
-      <c r="AM37" s="55"/>
-      <c r="AN37" s="55"/>
-      <c r="AO37" s="55"/>
+      <c r="AG37" s="44"/>
+      <c r="AH37" s="53"/>
+      <c r="AI37" s="53"/>
+      <c r="AJ37" s="53"/>
+      <c r="AK37" s="53"/>
+      <c r="AL37" s="53"/>
+      <c r="AM37" s="53"/>
+      <c r="AN37" s="53"/>
+      <c r="AO37" s="53"/>
     </row>
     <row r="38" s="5" customFormat="1" ht="28" spans="1:41">
       <c r="A38" s="25" t="s">
@@ -5593,26 +5674,26 @@
       <c r="AN38" s="57"/>
       <c r="AO38" s="57"/>
     </row>
-    <row r="39" ht="28" spans="1:41">
-      <c r="A39" s="21" t="s">
+    <row r="39" s="2" customFormat="1" ht="28" spans="1:41">
+      <c r="A39" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="B39" s="21" t="s">
+      <c r="B39" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="C39" s="21" t="s">
+      <c r="C39" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="D39" s="22">
+      <c r="D39" s="18">
         <v>3.89</v>
       </c>
-      <c r="E39" s="22">
+      <c r="E39" s="18">
         <v>3.76</v>
       </c>
-      <c r="F39" s="22">
+      <c r="F39" s="18">
         <v>3.543</v>
       </c>
-      <c r="G39" s="22">
+      <c r="G39" s="18">
         <v>3.464</v>
       </c>
       <c r="H39" s="33">
@@ -5624,20 +5705,20 @@
       <c r="J39" s="33">
         <v>3.54</v>
       </c>
-      <c r="K39" s="46">
+      <c r="K39" s="44">
         <f t="shared" si="24"/>
         <v>0.296666666666667</v>
       </c>
-      <c r="L39" s="46">
+      <c r="L39" s="44">
         <f t="shared" si="25"/>
         <v>0.145054945054945</v>
       </c>
-      <c r="M39" s="46">
+      <c r="M39" s="44">
         <f t="shared" si="26"/>
         <v>0.285310734463277</v>
       </c>
-      <c r="N39" s="55"/>
-      <c r="O39" s="55"/>
+      <c r="N39" s="53"/>
+      <c r="O39" s="53"/>
       <c r="P39" s="33"/>
       <c r="Q39" s="33"/>
       <c r="R39" s="33"/>
@@ -5649,36 +5730,36 @@
       <c r="X39" s="33"/>
       <c r="Y39" s="33"/>
       <c r="Z39" s="33"/>
-      <c r="AA39" s="55"/>
-      <c r="AB39" s="46">
+      <c r="AA39" s="53"/>
+      <c r="AB39" s="44">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="AC39" s="46" t="e">
+      <c r="AC39" s="44" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD39" s="46" t="e">
+      <c r="AD39" s="44" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE39" s="46" t="e">
+      <c r="AE39" s="44" t="e">
         <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF39" s="46" t="e">
+      <c r="AF39" s="44" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG39" s="46"/>
-      <c r="AH39" s="55"/>
-      <c r="AI39" s="55"/>
-      <c r="AJ39" s="55"/>
-      <c r="AK39" s="55"/>
-      <c r="AL39" s="55"/>
-      <c r="AM39" s="55"/>
-      <c r="AN39" s="55"/>
-      <c r="AO39" s="55"/>
+      <c r="AG39" s="44"/>
+      <c r="AH39" s="53"/>
+      <c r="AI39" s="53"/>
+      <c r="AJ39" s="53"/>
+      <c r="AK39" s="53"/>
+      <c r="AL39" s="53"/>
+      <c r="AM39" s="53"/>
+      <c r="AN39" s="53"/>
+      <c r="AO39" s="53"/>
     </row>
     <row r="40" s="4" customFormat="1" ht="28" spans="1:41">
       <c r="A40" s="23" t="s">
@@ -5702,13 +5783,13 @@
       <c r="G40" s="24">
         <v>3.244</v>
       </c>
-      <c r="H40" s="34">
+      <c r="H40" s="35">
         <v>2.49</v>
       </c>
-      <c r="I40" s="34">
+      <c r="I40" s="35">
         <v>4.48</v>
       </c>
-      <c r="J40" s="34">
+      <c r="J40" s="35">
         <v>2.85</v>
       </c>
       <c r="K40" s="47">
@@ -5725,27 +5806,27 @@
       </c>
       <c r="N40" s="56"/>
       <c r="O40" s="56"/>
-      <c r="P40" s="34">
+      <c r="P40" s="35">
         <v>2.84</v>
       </c>
-      <c r="Q40" s="34">
+      <c r="Q40" s="35">
         <v>4.06</v>
       </c>
-      <c r="R40" s="34">
+      <c r="R40" s="35">
         <v>3.35</v>
       </c>
-      <c r="S40" s="34">
+      <c r="S40" s="35">
         <v>4.25</v>
       </c>
-      <c r="T40" s="34">
+      <c r="T40" s="35">
         <v>3.82</v>
       </c>
-      <c r="U40" s="34"/>
-      <c r="V40" s="34"/>
-      <c r="W40" s="61"/>
-      <c r="X40" s="61"/>
-      <c r="Y40" s="34"/>
-      <c r="Z40" s="34"/>
+      <c r="U40" s="35"/>
+      <c r="V40" s="35"/>
+      <c r="W40" s="62"/>
+      <c r="X40" s="62"/>
+      <c r="Y40" s="35"/>
+      <c r="Z40" s="35"/>
       <c r="AA40" s="56"/>
       <c r="AB40" s="47">
         <f>(I40-P40)/I40</f>
@@ -5955,26 +6036,26 @@
       <c r="AN42" s="54"/>
       <c r="AO42" s="54"/>
     </row>
-    <row r="43" ht="28" spans="1:41">
-      <c r="A43" s="21" t="s">
+    <row r="43" s="2" customFormat="1" ht="28" spans="1:41">
+      <c r="A43" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="B43" s="21" t="s">
+      <c r="B43" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="C43" s="21" t="s">
+      <c r="C43" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="D43" s="22">
+      <c r="D43" s="18">
         <v>3.77</v>
       </c>
-      <c r="E43" s="22">
+      <c r="E43" s="18">
         <v>3.718</v>
       </c>
-      <c r="F43" s="22">
+      <c r="F43" s="18">
         <v>3.323</v>
       </c>
-      <c r="G43" s="22">
+      <c r="G43" s="18">
         <v>3.226</v>
       </c>
       <c r="H43" s="33">
@@ -5986,20 +6067,20 @@
       <c r="J43" s="33">
         <v>4.05</v>
       </c>
-      <c r="K43" s="46">
+      <c r="K43" s="44">
         <f t="shared" si="27"/>
         <v>0.417293233082707</v>
       </c>
-      <c r="L43" s="46">
+      <c r="L43" s="44">
         <f t="shared" si="28"/>
         <v>0.147058823529412</v>
       </c>
-      <c r="M43" s="46">
+      <c r="M43" s="44">
         <f t="shared" si="29"/>
         <v>0.091358024691358</v>
       </c>
-      <c r="N43" s="55"/>
-      <c r="O43" s="55"/>
+      <c r="N43" s="53"/>
+      <c r="O43" s="53"/>
       <c r="P43" s="33"/>
       <c r="Q43" s="33"/>
       <c r="R43" s="33"/>
@@ -6011,36 +6092,36 @@
       <c r="X43" s="33"/>
       <c r="Y43" s="33"/>
       <c r="Z43" s="33"/>
-      <c r="AA43" s="55"/>
-      <c r="AB43" s="46">
+      <c r="AA43" s="53"/>
+      <c r="AB43" s="44">
         <f t="shared" si="30"/>
         <v>1</v>
       </c>
-      <c r="AC43" s="46" t="e">
+      <c r="AC43" s="44" t="e">
         <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD43" s="46" t="e">
+      <c r="AD43" s="44" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE43" s="46" t="e">
+      <c r="AE43" s="44" t="e">
         <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF43" s="46" t="e">
+      <c r="AF43" s="44" t="e">
         <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG43" s="46"/>
-      <c r="AH43" s="55"/>
-      <c r="AI43" s="55"/>
-      <c r="AJ43" s="55"/>
-      <c r="AK43" s="55"/>
-      <c r="AL43" s="55"/>
-      <c r="AM43" s="55"/>
-      <c r="AN43" s="55"/>
-      <c r="AO43" s="55"/>
+      <c r="AG43" s="44"/>
+      <c r="AH43" s="53"/>
+      <c r="AI43" s="53"/>
+      <c r="AJ43" s="53"/>
+      <c r="AK43" s="53"/>
+      <c r="AL43" s="53"/>
+      <c r="AM43" s="53"/>
+      <c r="AN43" s="53"/>
+      <c r="AO43" s="53"/>
     </row>
     <row r="44" s="2" customFormat="1" ht="28" spans="1:41">
       <c r="A44" s="17" t="s">
@@ -6064,13 +6145,13 @@
       <c r="G44" s="18">
         <v>6.247</v>
       </c>
-      <c r="H44" s="35">
+      <c r="H44" s="33">
         <v>3.99</v>
       </c>
-      <c r="I44" s="35">
+      <c r="I44" s="33">
         <v>13.05</v>
       </c>
-      <c r="J44" s="35">
+      <c r="J44" s="33">
         <v>5.19</v>
       </c>
       <c r="K44" s="44">
@@ -6087,19 +6168,19 @@
       </c>
       <c r="N44" s="53"/>
       <c r="O44" s="53"/>
-      <c r="P44" s="35">
+      <c r="P44" s="33">
         <v>7.13</v>
       </c>
-      <c r="Q44" s="35"/>
-      <c r="R44" s="35"/>
-      <c r="S44" s="35"/>
-      <c r="T44" s="35"/>
-      <c r="U44" s="35"/>
-      <c r="V44" s="35"/>
-      <c r="W44" s="35"/>
-      <c r="X44" s="35"/>
-      <c r="Y44" s="35"/>
-      <c r="Z44" s="35"/>
+      <c r="Q44" s="33"/>
+      <c r="R44" s="33"/>
+      <c r="S44" s="33"/>
+      <c r="T44" s="33"/>
+      <c r="U44" s="33"/>
+      <c r="V44" s="33"/>
+      <c r="W44" s="33"/>
+      <c r="X44" s="33"/>
+      <c r="Y44" s="33"/>
+      <c r="Z44" s="33"/>
       <c r="AA44" s="53"/>
       <c r="AB44" s="44">
         <f t="shared" si="30"/>
@@ -6179,16 +6260,16 @@
       <c r="P45" s="38">
         <v>10.29</v>
       </c>
-      <c r="Q45" s="35"/>
-      <c r="R45" s="35"/>
-      <c r="S45" s="35"/>
-      <c r="T45" s="35"/>
-      <c r="U45" s="35"/>
-      <c r="V45" s="35"/>
-      <c r="W45" s="35"/>
-      <c r="X45" s="35"/>
-      <c r="Y45" s="35"/>
-      <c r="Z45" s="35"/>
+      <c r="Q45" s="33"/>
+      <c r="R45" s="33"/>
+      <c r="S45" s="33"/>
+      <c r="T45" s="33"/>
+      <c r="U45" s="33"/>
+      <c r="V45" s="33"/>
+      <c r="W45" s="33"/>
+      <c r="X45" s="33"/>
+      <c r="Y45" s="33"/>
+      <c r="Z45" s="33"/>
       <c r="AA45" s="53"/>
       <c r="AB45" s="44">
         <f t="shared" si="30"/>
@@ -6331,13 +6412,13 @@
       <c r="G47" s="18">
         <v>6.263</v>
       </c>
-      <c r="H47" s="35">
+      <c r="H47" s="33">
         <v>5.04</v>
       </c>
-      <c r="I47" s="35">
+      <c r="I47" s="33">
         <v>11.74</v>
       </c>
-      <c r="J47" s="35">
+      <c r="J47" s="33">
         <v>6.35</v>
       </c>
       <c r="K47" s="44">
@@ -6354,19 +6435,19 @@
       </c>
       <c r="N47" s="53"/>
       <c r="O47" s="53"/>
-      <c r="P47" s="35">
+      <c r="P47" s="33">
         <v>8.01</v>
       </c>
-      <c r="Q47" s="35"/>
-      <c r="R47" s="35"/>
-      <c r="S47" s="35"/>
-      <c r="T47" s="35"/>
-      <c r="U47" s="35"/>
-      <c r="V47" s="35"/>
-      <c r="W47" s="35"/>
-      <c r="X47" s="35"/>
-      <c r="Y47" s="35"/>
-      <c r="Z47" s="35"/>
+      <c r="Q47" s="33"/>
+      <c r="R47" s="33"/>
+      <c r="S47" s="33"/>
+      <c r="T47" s="33"/>
+      <c r="U47" s="33"/>
+      <c r="V47" s="33"/>
+      <c r="W47" s="33"/>
+      <c r="X47" s="33"/>
+      <c r="Y47" s="33"/>
+      <c r="Z47" s="33"/>
       <c r="AA47" s="53"/>
       <c r="AB47" s="44">
         <f t="shared" si="30"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2022-03/当前股价大于50日均线,50日均线大于150日均线....xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2022-03/当前股价大于50日均线,50日均线大于150日均线....xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26500" windowHeight="13420"/>
+    <workbookView windowWidth="26500" windowHeight="13420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="技术面分析" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -930,13 +931,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="176" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="179" formatCode="0_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="yyyy/mm/dd"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="0_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
@@ -1026,6 +1027,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1033,11 +1042,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1057,6 +1065,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -1065,11 +1081,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1082,7 +1097,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1104,55 +1142,18 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1168,7 +1169,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="42">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1196,12 +1197,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1237,13 +1232,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1255,67 +1358,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1327,91 +1400,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1449,6 +1444,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1460,15 +1479,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1503,21 +1513,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1540,103 +1535,121 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1645,53 +1658,34 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1711,10 +1705,10 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1741,34 +1735,34 @@
     <xf numFmtId="177" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1777,7 +1771,7 @@
     <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1789,42 +1783,39 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="8" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="8" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="8" fillId="9" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="9" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="8" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1837,20 +1828,14 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="10" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="9" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1858,31 +1843,31 @@
     <xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="9" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="9" fillId="9" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="9" fillId="8" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="8" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="8" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="7" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="10" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2279,8 +2264,8 @@
   <sheetPr/>
   <dimension ref="A1:AO47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C36" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C39" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -2289,4186 +2274,4186 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.94117647058824" defaultRowHeight="14.8"/>
   <cols>
-    <col min="4" max="7" width="8.94117647058824" style="6"/>
-    <col min="8" max="8" width="11.8823529411765" style="7" customWidth="1"/>
-    <col min="9" max="9" width="12.9852941176471" style="7" customWidth="1"/>
-    <col min="10" max="10" width="8.94117647058824" style="7"/>
-    <col min="11" max="11" width="12.6470588235294" style="8"/>
-    <col min="12" max="13" width="8.94117647058824" style="8"/>
-    <col min="14" max="15" width="8.94117647058824" style="9"/>
-    <col min="16" max="26" width="8.94117647058824" style="7"/>
-    <col min="27" max="27" width="8.94117647058824" style="9"/>
-    <col min="28" max="28" width="12.6470588235294" style="8"/>
-    <col min="29" max="33" width="8.94117647058824" style="8"/>
-    <col min="34" max="41" width="8.94117647058824" style="9"/>
+    <col min="4" max="7" width="8.94117647058824" style="5"/>
+    <col min="8" max="8" width="11.8823529411765" style="6" customWidth="1"/>
+    <col min="9" max="9" width="12.9852941176471" style="6" customWidth="1"/>
+    <col min="10" max="10" width="8.94117647058824" style="6"/>
+    <col min="11" max="11" width="12.6470588235294" style="7"/>
+    <col min="12" max="13" width="8.94117647058824" style="7"/>
+    <col min="14" max="15" width="8.94117647058824" style="8"/>
+    <col min="16" max="26" width="8.94117647058824" style="6"/>
+    <col min="27" max="27" width="8.94117647058824" style="8"/>
+    <col min="28" max="28" width="12.6470588235294" style="7"/>
+    <col min="29" max="33" width="8.94117647058824" style="7"/>
+    <col min="34" max="41" width="8.94117647058824" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="48" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="49" t="s">
+      <c r="O1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="50" t="s">
+      <c r="P1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="58"/>
-      <c r="Z1" s="58"/>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="63"/>
-      <c r="AC1" s="63"/>
-      <c r="AD1" s="63"/>
-      <c r="AE1" s="63"/>
-      <c r="AF1" s="63"/>
-      <c r="AG1" s="63"/>
-      <c r="AH1" s="62"/>
-      <c r="AI1" s="67" t="s">
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="55"/>
+      <c r="AA1" s="58"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="59"/>
+      <c r="AH1" s="58"/>
+      <c r="AI1" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="AJ1" s="67"/>
-      <c r="AK1" s="67"/>
-      <c r="AL1" s="67" t="s">
+      <c r="AJ1" s="63"/>
+      <c r="AK1" s="63"/>
+      <c r="AL1" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="AM1" s="67"/>
-      <c r="AN1" s="69" t="s">
+      <c r="AM1" s="63"/>
+      <c r="AN1" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="AO1" s="70" t="s">
+      <c r="AO1" s="66" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:41">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="39" t="s">
+      <c r="I2" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="40" t="s">
+      <c r="J2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="41" t="s">
+      <c r="K2" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="41" t="s">
+      <c r="L2" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="41" t="s">
+      <c r="M2" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="48"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="50" t="s">
+      <c r="N2" s="46"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50"/>
-      <c r="V2" s="50"/>
-      <c r="W2" s="50"/>
-      <c r="X2" s="50"/>
-      <c r="Y2" s="50"/>
-      <c r="Z2" s="50"/>
-      <c r="AA2" s="64"/>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="41"/>
-      <c r="AD2" s="41"/>
-      <c r="AE2" s="41"/>
-      <c r="AF2" s="41"/>
-      <c r="AG2" s="41"/>
-      <c r="AH2" s="64"/>
-      <c r="AI2" s="66" t="s">
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="48"/>
+      <c r="W2" s="48"/>
+      <c r="X2" s="48"/>
+      <c r="Y2" s="48"/>
+      <c r="Z2" s="48"/>
+      <c r="AA2" s="60"/>
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="40"/>
+      <c r="AD2" s="40"/>
+      <c r="AE2" s="40"/>
+      <c r="AF2" s="40"/>
+      <c r="AG2" s="40"/>
+      <c r="AH2" s="60"/>
+      <c r="AI2" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="AJ2" s="66" t="s">
+      <c r="AJ2" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="AK2" s="66" t="s">
+      <c r="AK2" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="AL2" s="66" t="s">
+      <c r="AL2" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="AM2" s="66" t="s">
+      <c r="AM2" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="AN2" s="69"/>
-      <c r="AO2" s="70"/>
+      <c r="AN2" s="65"/>
+      <c r="AO2" s="66"/>
     </row>
     <row r="3" ht="44" spans="1:41">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="40" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="Q3" s="40" t="s">
+      <c r="Q3" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="R3" s="40" t="s">
+      <c r="R3" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="S3" s="40" t="s">
+      <c r="S3" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="T3" s="40" t="s">
+      <c r="T3" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="U3" s="40" t="s">
+      <c r="U3" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="V3" s="40" t="s">
+      <c r="V3" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="W3" s="40" t="s">
+      <c r="W3" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="X3" s="40" t="s">
+      <c r="X3" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="Y3" s="65" t="s">
+      <c r="Y3" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="Z3" s="65" t="s">
+      <c r="Z3" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="AA3" s="66" t="s">
+      <c r="AA3" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="AB3" s="41" t="s">
+      <c r="AB3" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="AC3" s="41" t="s">
+      <c r="AC3" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="AD3" s="41" t="s">
+      <c r="AD3" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="AE3" s="41" t="s">
+      <c r="AE3" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="AF3" s="41" t="s">
+      <c r="AF3" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="AG3" s="41" t="s">
+      <c r="AG3" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="AH3" s="68" t="s">
+      <c r="AH3" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="AI3" s="66"/>
-      <c r="AJ3" s="66"/>
-      <c r="AK3" s="66"/>
-      <c r="AL3" s="66"/>
-      <c r="AM3" s="66"/>
-      <c r="AN3" s="69"/>
-      <c r="AO3" s="70"/>
+      <c r="AI3" s="62"/>
+      <c r="AJ3" s="62"/>
+      <c r="AK3" s="62"/>
+      <c r="AL3" s="62"/>
+      <c r="AM3" s="62"/>
+      <c r="AN3" s="65"/>
+      <c r="AO3" s="66"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="28" spans="1:41">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="15">
         <v>31.49</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="15">
         <v>19.84</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="15">
         <v>15.726</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="15">
         <v>14.516</v>
       </c>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="42">
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="41">
         <f>(D4-H6)/H6</f>
         <v>0.295351707116413</v>
       </c>
-      <c r="L4" s="42">
+      <c r="L4" s="41">
         <f>(I6-D4)/I6</f>
         <v>0.694271844660194</v>
       </c>
-      <c r="M4" s="42">
+      <c r="M4" s="41">
         <f>(I6-J6)/J6</f>
         <v>0.813380281690141</v>
       </c>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="59"/>
-      <c r="S4" s="59"/>
-      <c r="T4" s="59"/>
-      <c r="U4" s="59"/>
-      <c r="V4" s="59"/>
-      <c r="W4" s="59"/>
-      <c r="X4" s="59"/>
-      <c r="Y4" s="59"/>
-      <c r="Z4" s="59"/>
-      <c r="AA4" s="51"/>
-      <c r="AB4" s="42" t="e">
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="34"/>
+      <c r="T4" s="34"/>
+      <c r="U4" s="34"/>
+      <c r="V4" s="34"/>
+      <c r="W4" s="34"/>
+      <c r="X4" s="34"/>
+      <c r="Y4" s="34"/>
+      <c r="Z4" s="34"/>
+      <c r="AA4" s="49"/>
+      <c r="AB4" s="41" t="e">
         <f t="shared" ref="AB4:AB9" si="0">(I4-P4)/I4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC4" s="42" t="e">
+      <c r="AC4" s="41" t="e">
         <f t="shared" ref="AC4:AC9" si="1">(Q4-R4)/Q4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD4" s="42" t="e">
+      <c r="AD4" s="41" t="e">
         <f t="shared" ref="AD4:AD9" si="2">(S4-T4)/S4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE4" s="42" t="e">
+      <c r="AE4" s="41" t="e">
         <f t="shared" ref="AE4:AE9" si="3">(U4-V4)/U4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF4" s="42" t="e">
+      <c r="AF4" s="41" t="e">
         <f t="shared" ref="AF4:AF9" si="4">(W4-X4)/W4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG4" s="42"/>
-      <c r="AH4" s="51"/>
-      <c r="AI4" s="51"/>
-      <c r="AJ4" s="51"/>
-      <c r="AK4" s="51"/>
-      <c r="AL4" s="51"/>
-      <c r="AM4" s="51"/>
-      <c r="AN4" s="51"/>
-      <c r="AO4" s="51"/>
+      <c r="AG4" s="41"/>
+      <c r="AH4" s="49"/>
+      <c r="AI4" s="49"/>
+      <c r="AJ4" s="49"/>
+      <c r="AK4" s="49"/>
+      <c r="AL4" s="49"/>
+      <c r="AM4" s="49"/>
+      <c r="AN4" s="49"/>
+      <c r="AO4" s="49"/>
     </row>
     <row r="5" s="2" customFormat="1" ht="28" spans="1:41">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="17">
         <v>29.72</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="17">
         <v>24.79</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="17">
         <v>21.405</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="17">
         <v>20.167</v>
       </c>
-      <c r="H5" s="28">
+      <c r="H5" s="27">
         <v>9.22</v>
       </c>
-      <c r="I5" s="28">
+      <c r="I5" s="27">
         <v>31.5</v>
       </c>
-      <c r="J5" s="28">
+      <c r="J5" s="27">
         <v>23.08</v>
       </c>
-      <c r="K5" s="43">
+      <c r="K5" s="42">
         <f t="shared" ref="K4:K12" si="5">(D5-H5)/H5</f>
         <v>2.2234273318872</v>
       </c>
-      <c r="L5" s="43">
+      <c r="L5" s="42">
         <f t="shared" ref="L4:L12" si="6">(I5-D5)/I5</f>
         <v>0.0565079365079365</v>
       </c>
-      <c r="M5" s="43">
+      <c r="M5" s="42">
         <f t="shared" ref="M4:M12" si="7">(I5-J5)/J5</f>
         <v>0.364818024263432</v>
       </c>
-      <c r="N5" s="52"/>
-      <c r="O5" s="52"/>
-      <c r="P5" s="28">
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="27">
         <v>26.75</v>
       </c>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="34"/>
-      <c r="S5" s="34"/>
-      <c r="T5" s="34"/>
-      <c r="U5" s="34"/>
-      <c r="V5" s="34"/>
-      <c r="W5" s="34"/>
-      <c r="X5" s="34"/>
-      <c r="Y5" s="34"/>
-      <c r="Z5" s="34"/>
-      <c r="AA5" s="52"/>
-      <c r="AB5" s="43">
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="33"/>
+      <c r="V5" s="33"/>
+      <c r="W5" s="33"/>
+      <c r="X5" s="33"/>
+      <c r="Y5" s="33"/>
+      <c r="Z5" s="33"/>
+      <c r="AA5" s="50"/>
+      <c r="AB5" s="42">
         <f t="shared" si="0"/>
         <v>0.150793650793651</v>
       </c>
-      <c r="AC5" s="43" t="e">
+      <c r="AC5" s="42" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD5" s="43" t="e">
+      <c r="AD5" s="42" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE5" s="43" t="e">
+      <c r="AE5" s="42" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF5" s="43" t="e">
+      <c r="AF5" s="42" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG5" s="43"/>
-      <c r="AH5" s="52"/>
-      <c r="AI5" s="52"/>
-      <c r="AJ5" s="52"/>
-      <c r="AK5" s="52"/>
-      <c r="AL5" s="52"/>
-      <c r="AM5" s="52"/>
-      <c r="AN5" s="52"/>
-      <c r="AO5" s="52"/>
+      <c r="AG5" s="42"/>
+      <c r="AH5" s="50"/>
+      <c r="AI5" s="50"/>
+      <c r="AJ5" s="50"/>
+      <c r="AK5" s="50"/>
+      <c r="AL5" s="50"/>
+      <c r="AM5" s="50"/>
+      <c r="AN5" s="50"/>
+      <c r="AO5" s="50"/>
     </row>
     <row r="6" s="3" customFormat="1" ht="28" spans="1:41">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="19">
         <v>92.39</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="19">
         <v>88.136</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="19">
         <v>79.494</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="19">
         <v>69.589</v>
       </c>
-      <c r="H6" s="29">
+      <c r="H6" s="28">
         <v>24.31</v>
       </c>
-      <c r="I6" s="29">
+      <c r="I6" s="28">
         <v>103</v>
       </c>
-      <c r="J6" s="29">
+      <c r="J6" s="28">
         <v>56.8</v>
       </c>
-      <c r="K6" s="44">
+      <c r="K6" s="43">
         <f t="shared" si="5"/>
         <v>2.80049362402304</v>
       </c>
-      <c r="L6" s="44">
+      <c r="L6" s="43">
         <f t="shared" si="6"/>
         <v>0.103009708737864</v>
       </c>
-      <c r="M6" s="44">
+      <c r="M6" s="43">
         <f t="shared" si="7"/>
         <v>0.813380281690141</v>
       </c>
-      <c r="N6" s="53"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="29">
+      <c r="N6" s="51"/>
+      <c r="O6" s="51"/>
+      <c r="P6" s="28">
         <v>70.46</v>
       </c>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="29"/>
-      <c r="T6" s="29"/>
-      <c r="U6" s="29"/>
-      <c r="V6" s="29"/>
-      <c r="W6" s="29"/>
-      <c r="X6" s="29"/>
-      <c r="Y6" s="29"/>
-      <c r="Z6" s="29"/>
-      <c r="AA6" s="53"/>
-      <c r="AB6" s="44">
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="28"/>
+      <c r="W6" s="28"/>
+      <c r="X6" s="28"/>
+      <c r="Y6" s="28"/>
+      <c r="Z6" s="28"/>
+      <c r="AA6" s="51"/>
+      <c r="AB6" s="43">
         <f t="shared" si="0"/>
         <v>0.315922330097087</v>
       </c>
-      <c r="AC6" s="44" t="e">
+      <c r="AC6" s="43" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD6" s="44" t="e">
+      <c r="AD6" s="43" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE6" s="44" t="e">
+      <c r="AE6" s="43" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF6" s="44" t="e">
+      <c r="AF6" s="43" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG6" s="44"/>
-      <c r="AH6" s="53"/>
-      <c r="AI6" s="53"/>
-      <c r="AJ6" s="53"/>
-      <c r="AK6" s="53"/>
-      <c r="AL6" s="53"/>
-      <c r="AM6" s="53"/>
-      <c r="AN6" s="53"/>
-      <c r="AO6" s="53"/>
+      <c r="AG6" s="43"/>
+      <c r="AH6" s="51"/>
+      <c r="AI6" s="51"/>
+      <c r="AJ6" s="51"/>
+      <c r="AK6" s="51"/>
+      <c r="AL6" s="51"/>
+      <c r="AM6" s="51"/>
+      <c r="AN6" s="51"/>
+      <c r="AO6" s="51"/>
     </row>
     <row r="7" s="3" customFormat="1" ht="28" spans="1:41">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="19">
         <v>47.05</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="19">
         <v>44.279</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="19">
         <v>40.732</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="19">
         <v>35.498</v>
       </c>
-      <c r="H7" s="30">
+      <c r="H7" s="29">
         <v>14.74</v>
       </c>
-      <c r="I7" s="30">
+      <c r="I7" s="29">
         <v>55.9</v>
       </c>
-      <c r="J7" s="30">
+      <c r="J7" s="29">
         <v>36.4</v>
       </c>
-      <c r="K7" s="44">
+      <c r="K7" s="43">
         <f t="shared" si="5"/>
         <v>2.19199457259159</v>
       </c>
-      <c r="L7" s="44">
+      <c r="L7" s="43">
         <f t="shared" si="6"/>
         <v>0.158318425760286</v>
       </c>
-      <c r="M7" s="44">
+      <c r="M7" s="43">
         <f t="shared" si="7"/>
         <v>0.535714285714286</v>
       </c>
-      <c r="N7" s="53"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="30">
+      <c r="N7" s="51"/>
+      <c r="O7" s="51"/>
+      <c r="P7" s="29">
         <v>38.25</v>
       </c>
-      <c r="Q7" s="30">
+      <c r="Q7" s="29">
         <v>51.51</v>
       </c>
-      <c r="R7" s="30">
+      <c r="R7" s="29">
         <v>40.5</v>
       </c>
-      <c r="S7" s="29"/>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="29"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="29"/>
-      <c r="Y7" s="29"/>
-      <c r="Z7" s="29"/>
-      <c r="AA7" s="53"/>
-      <c r="AB7" s="44">
+      <c r="S7" s="28"/>
+      <c r="T7" s="28"/>
+      <c r="U7" s="28"/>
+      <c r="V7" s="28"/>
+      <c r="W7" s="28"/>
+      <c r="X7" s="28"/>
+      <c r="Y7" s="28"/>
+      <c r="Z7" s="28"/>
+      <c r="AA7" s="51"/>
+      <c r="AB7" s="43">
         <f t="shared" si="0"/>
         <v>0.315742397137746</v>
       </c>
-      <c r="AC7" s="44">
+      <c r="AC7" s="43">
         <f t="shared" si="1"/>
         <v>0.213744903902155</v>
       </c>
-      <c r="AD7" s="44" t="e">
+      <c r="AD7" s="43" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE7" s="44" t="e">
+      <c r="AE7" s="43" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF7" s="44" t="e">
+      <c r="AF7" s="43" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG7" s="44"/>
-      <c r="AH7" s="53"/>
-      <c r="AI7" s="53"/>
-      <c r="AJ7" s="53"/>
-      <c r="AK7" s="53"/>
-      <c r="AL7" s="53"/>
-      <c r="AM7" s="53"/>
-      <c r="AN7" s="53"/>
-      <c r="AO7" s="53"/>
+      <c r="AG7" s="43"/>
+      <c r="AH7" s="51"/>
+      <c r="AI7" s="51"/>
+      <c r="AJ7" s="51"/>
+      <c r="AK7" s="51"/>
+      <c r="AL7" s="51"/>
+      <c r="AM7" s="51"/>
+      <c r="AN7" s="51"/>
+      <c r="AO7" s="51"/>
     </row>
     <row r="8" s="4" customFormat="1" ht="28" spans="1:41">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="21">
         <v>21.8</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="21">
         <v>19.564</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="21">
         <v>17.855</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="21">
         <v>15.752</v>
       </c>
-      <c r="H8" s="31">
+      <c r="H8" s="30">
         <v>6.96</v>
       </c>
-      <c r="I8" s="31">
+      <c r="I8" s="30">
         <v>28.48</v>
       </c>
-      <c r="J8" s="31">
+      <c r="J8" s="30">
         <v>18</v>
       </c>
-      <c r="K8" s="45">
+      <c r="K8" s="44">
         <f t="shared" si="5"/>
         <v>2.13218390804598</v>
       </c>
-      <c r="L8" s="45">
+      <c r="L8" s="44">
         <f t="shared" si="6"/>
         <v>0.234550561797753</v>
       </c>
-      <c r="M8" s="45">
+      <c r="M8" s="44">
         <f t="shared" si="7"/>
         <v>0.582222222222222</v>
       </c>
-      <c r="N8" s="54"/>
-      <c r="O8" s="54"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="31"/>
-      <c r="S8" s="31"/>
-      <c r="T8" s="31"/>
-      <c r="U8" s="31"/>
-      <c r="V8" s="31"/>
-      <c r="W8" s="31"/>
-      <c r="X8" s="31"/>
-      <c r="Y8" s="31"/>
-      <c r="Z8" s="31"/>
-      <c r="AA8" s="54"/>
-      <c r="AB8" s="45">
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="30"/>
+      <c r="T8" s="30"/>
+      <c r="U8" s="30"/>
+      <c r="V8" s="30"/>
+      <c r="W8" s="30"/>
+      <c r="X8" s="30"/>
+      <c r="Y8" s="30"/>
+      <c r="Z8" s="30"/>
+      <c r="AA8" s="52"/>
+      <c r="AB8" s="44">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AC8" s="45" t="e">
+      <c r="AC8" s="44" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD8" s="45" t="e">
+      <c r="AD8" s="44" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE8" s="45" t="e">
+      <c r="AE8" s="44" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF8" s="45" t="e">
+      <c r="AF8" s="44" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG8" s="45"/>
-      <c r="AH8" s="54"/>
-      <c r="AI8" s="54"/>
-      <c r="AJ8" s="54"/>
-      <c r="AK8" s="54"/>
-      <c r="AL8" s="54"/>
-      <c r="AM8" s="54"/>
-      <c r="AN8" s="54"/>
-      <c r="AO8" s="54"/>
+      <c r="AG8" s="44"/>
+      <c r="AH8" s="52"/>
+      <c r="AI8" s="52"/>
+      <c r="AJ8" s="52"/>
+      <c r="AK8" s="52"/>
+      <c r="AL8" s="52"/>
+      <c r="AM8" s="52"/>
+      <c r="AN8" s="52"/>
+      <c r="AO8" s="52"/>
     </row>
     <row r="9" s="3" customFormat="1" ht="28" spans="1:41">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="19">
         <v>44.09</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="19">
         <v>42.047</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="19">
         <v>38.572</v>
       </c>
-      <c r="G9" s="20">
+      <c r="G9" s="19">
         <v>35.389</v>
       </c>
-      <c r="H9" s="29">
+      <c r="H9" s="28">
         <v>17.36</v>
       </c>
-      <c r="I9" s="29">
+      <c r="I9" s="28">
         <v>55.49</v>
       </c>
-      <c r="J9" s="29">
+      <c r="J9" s="28">
         <v>26.54</v>
       </c>
-      <c r="K9" s="44">
+      <c r="K9" s="43">
         <f t="shared" si="5"/>
         <v>1.5397465437788</v>
       </c>
-      <c r="L9" s="44">
+      <c r="L9" s="43">
         <f t="shared" si="6"/>
         <v>0.205442422058028</v>
       </c>
-      <c r="M9" s="55">
+      <c r="M9" s="53">
         <f t="shared" si="7"/>
         <v>1.09080633006782</v>
       </c>
-      <c r="N9" s="53"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="29">
+      <c r="N9" s="51"/>
+      <c r="O9" s="51"/>
+      <c r="P9" s="28">
         <v>36.3</v>
       </c>
-      <c r="Q9" s="29">
+      <c r="Q9" s="28">
         <v>48.39</v>
       </c>
-      <c r="R9" s="29">
+      <c r="R9" s="28">
         <v>41</v>
       </c>
-      <c r="S9" s="29"/>
-      <c r="T9" s="29"/>
-      <c r="U9" s="29"/>
-      <c r="V9" s="29"/>
-      <c r="W9" s="29"/>
-      <c r="X9" s="29"/>
-      <c r="Y9" s="29"/>
-      <c r="Z9" s="29"/>
-      <c r="AA9" s="53"/>
-      <c r="AB9" s="44">
+      <c r="S9" s="28"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="28"/>
+      <c r="V9" s="28"/>
+      <c r="W9" s="28"/>
+      <c r="X9" s="28"/>
+      <c r="Y9" s="28"/>
+      <c r="Z9" s="28"/>
+      <c r="AA9" s="51"/>
+      <c r="AB9" s="43">
         <f t="shared" si="0"/>
         <v>0.345828077131015</v>
       </c>
-      <c r="AC9" s="44">
+      <c r="AC9" s="43">
         <f t="shared" si="1"/>
         <v>0.15271750361645</v>
       </c>
-      <c r="AD9" s="44" t="e">
+      <c r="AD9" s="43" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE9" s="44" t="e">
+      <c r="AE9" s="43" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF9" s="44" t="e">
+      <c r="AF9" s="43" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG9" s="44"/>
-      <c r="AH9" s="53"/>
-      <c r="AI9" s="53"/>
-      <c r="AJ9" s="53"/>
-      <c r="AK9" s="53"/>
-      <c r="AL9" s="53"/>
-      <c r="AM9" s="53"/>
-      <c r="AN9" s="53"/>
-      <c r="AO9" s="53"/>
+      <c r="AG9" s="43"/>
+      <c r="AH9" s="51"/>
+      <c r="AI9" s="51"/>
+      <c r="AJ9" s="51"/>
+      <c r="AK9" s="51"/>
+      <c r="AL9" s="51"/>
+      <c r="AM9" s="51"/>
+      <c r="AN9" s="51"/>
+      <c r="AO9" s="51"/>
     </row>
     <row r="10" s="3" customFormat="1" ht="28" spans="1:41">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="19">
         <v>7.05</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="19">
         <v>5.08</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="19">
         <v>4.135</v>
       </c>
-      <c r="G10" s="20">
+      <c r="G10" s="19">
         <v>4.023</v>
       </c>
-      <c r="H10" s="29">
+      <c r="H10" s="28">
         <v>3.35</v>
       </c>
-      <c r="I10" s="29">
+      <c r="I10" s="28">
         <v>9.24</v>
       </c>
-      <c r="J10" s="29">
+      <c r="J10" s="28">
         <v>3.73</v>
       </c>
-      <c r="K10" s="44">
+      <c r="K10" s="43">
         <f t="shared" si="5"/>
         <v>1.1044776119403</v>
       </c>
-      <c r="L10" s="44">
+      <c r="L10" s="43">
         <f t="shared" si="6"/>
         <v>0.237012987012987</v>
       </c>
-      <c r="M10" s="55">
+      <c r="M10" s="53">
         <f t="shared" si="7"/>
         <v>1.47721179624665</v>
       </c>
-      <c r="N10" s="53"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="29">
+      <c r="N10" s="51"/>
+      <c r="O10" s="51"/>
+      <c r="P10" s="28">
         <v>6.52</v>
       </c>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="29"/>
-      <c r="S10" s="29"/>
-      <c r="T10" s="29"/>
-      <c r="U10" s="29"/>
-      <c r="V10" s="29"/>
-      <c r="W10" s="29"/>
-      <c r="X10" s="29"/>
-      <c r="Y10" s="29"/>
-      <c r="Z10" s="29"/>
-      <c r="AA10" s="53"/>
-      <c r="AB10" s="44">
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="28"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="28"/>
+      <c r="W10" s="28"/>
+      <c r="X10" s="28"/>
+      <c r="Y10" s="28"/>
+      <c r="Z10" s="28"/>
+      <c r="AA10" s="51"/>
+      <c r="AB10" s="43">
         <f t="shared" ref="AB10:AB17" si="8">(I10-P10)/I10</f>
         <v>0.294372294372294</v>
       </c>
-      <c r="AC10" s="44" t="e">
+      <c r="AC10" s="43" t="e">
         <f t="shared" ref="AC10:AC17" si="9">(Q10-R10)/Q10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD10" s="44" t="e">
+      <c r="AD10" s="43" t="e">
         <f t="shared" ref="AD10:AD17" si="10">(S10-T10)/S10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE10" s="44" t="e">
+      <c r="AE10" s="43" t="e">
         <f t="shared" ref="AE10:AE17" si="11">(U10-V10)/U10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF10" s="44" t="e">
+      <c r="AF10" s="43" t="e">
         <f t="shared" ref="AF10:AF17" si="12">(W10-X10)/W10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG10" s="44"/>
-      <c r="AH10" s="53"/>
-      <c r="AI10" s="53"/>
-      <c r="AJ10" s="53"/>
-      <c r="AK10" s="53"/>
-      <c r="AL10" s="53"/>
-      <c r="AM10" s="53"/>
-      <c r="AN10" s="53"/>
-      <c r="AO10" s="53"/>
+      <c r="AG10" s="43"/>
+      <c r="AH10" s="51"/>
+      <c r="AI10" s="51"/>
+      <c r="AJ10" s="51"/>
+      <c r="AK10" s="51"/>
+      <c r="AL10" s="51"/>
+      <c r="AM10" s="51"/>
+      <c r="AN10" s="51"/>
+      <c r="AO10" s="51"/>
     </row>
     <row r="11" s="4" customFormat="1" ht="28" spans="1:41">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="21">
         <v>33.8</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="21">
         <v>31.941</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="21">
         <v>31.441</v>
       </c>
-      <c r="G11" s="22">
+      <c r="G11" s="21">
         <v>29.067</v>
       </c>
-      <c r="H11" s="32">
+      <c r="H11" s="31">
         <v>12.77</v>
       </c>
-      <c r="I11" s="32">
+      <c r="I11" s="31">
         <v>51.09</v>
       </c>
-      <c r="J11" s="32">
+      <c r="J11" s="31">
         <v>23.7</v>
       </c>
-      <c r="K11" s="45">
+      <c r="K11" s="44">
         <f t="shared" si="5"/>
         <v>1.64682850430697</v>
       </c>
-      <c r="L11" s="45">
+      <c r="L11" s="44">
         <f t="shared" si="6"/>
         <v>0.338422391857506</v>
       </c>
-      <c r="M11" s="55">
+      <c r="M11" s="53">
         <f t="shared" si="7"/>
         <v>1.15569620253165</v>
       </c>
-      <c r="N11" s="54"/>
-      <c r="O11" s="54"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="31"/>
-      <c r="S11" s="31"/>
-      <c r="T11" s="31"/>
-      <c r="U11" s="31"/>
-      <c r="V11" s="31"/>
-      <c r="W11" s="31"/>
-      <c r="X11" s="31"/>
-      <c r="Y11" s="31"/>
-      <c r="Z11" s="31"/>
-      <c r="AA11" s="54"/>
-      <c r="AB11" s="45">
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="30"/>
+      <c r="U11" s="30"/>
+      <c r="V11" s="30"/>
+      <c r="W11" s="30"/>
+      <c r="X11" s="30"/>
+      <c r="Y11" s="30"/>
+      <c r="Z11" s="30"/>
+      <c r="AA11" s="52"/>
+      <c r="AB11" s="44">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="AC11" s="45" t="e">
+      <c r="AC11" s="44" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD11" s="45" t="e">
+      <c r="AD11" s="44" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE11" s="45" t="e">
+      <c r="AE11" s="44" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF11" s="45" t="e">
+      <c r="AF11" s="44" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG11" s="45"/>
-      <c r="AH11" s="54"/>
-      <c r="AI11" s="54"/>
-      <c r="AJ11" s="54"/>
-      <c r="AK11" s="54"/>
-      <c r="AL11" s="54"/>
-      <c r="AM11" s="54"/>
-      <c r="AN11" s="54"/>
-      <c r="AO11" s="54"/>
+      <c r="AG11" s="44"/>
+      <c r="AH11" s="52"/>
+      <c r="AI11" s="52"/>
+      <c r="AJ11" s="52"/>
+      <c r="AK11" s="52"/>
+      <c r="AL11" s="52"/>
+      <c r="AM11" s="52"/>
+      <c r="AN11" s="52"/>
+      <c r="AO11" s="52"/>
     </row>
     <row r="12" s="3" customFormat="1" ht="28" spans="1:41">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="19">
         <v>12.44</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="19">
         <v>10.638</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="19">
         <v>10.475</v>
       </c>
-      <c r="G12" s="20">
+      <c r="G12" s="19">
         <v>9.824</v>
       </c>
-      <c r="H12" s="29">
+      <c r="H12" s="28">
         <v>5.01</v>
       </c>
-      <c r="I12" s="29">
+      <c r="I12" s="28">
         <v>14.67</v>
       </c>
-      <c r="J12" s="29">
+      <c r="J12" s="28">
         <v>8.94</v>
       </c>
-      <c r="K12" s="44">
+      <c r="K12" s="43">
         <f t="shared" si="5"/>
         <v>1.48303393213573</v>
       </c>
-      <c r="L12" s="44">
+      <c r="L12" s="43">
         <f t="shared" si="6"/>
         <v>0.152010906612134</v>
       </c>
-      <c r="M12" s="44">
+      <c r="M12" s="43">
         <f t="shared" si="7"/>
         <v>0.640939597315436</v>
       </c>
-      <c r="N12" s="53"/>
-      <c r="O12" s="53"/>
-      <c r="P12" s="29">
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="28">
         <v>8.74</v>
       </c>
-      <c r="Q12" s="29">
+      <c r="Q12" s="28">
         <v>11.09</v>
       </c>
-      <c r="R12" s="29">
+      <c r="R12" s="28">
         <v>9.13</v>
       </c>
-      <c r="S12" s="29">
+      <c r="S12" s="28">
         <v>12.39</v>
       </c>
-      <c r="T12" s="29">
+      <c r="T12" s="28">
         <v>10.68</v>
       </c>
-      <c r="U12" s="29"/>
-      <c r="V12" s="29"/>
-      <c r="W12" s="29"/>
-      <c r="X12" s="29"/>
-      <c r="Y12" s="29"/>
-      <c r="Z12" s="29"/>
-      <c r="AA12" s="53"/>
-      <c r="AB12" s="44">
+      <c r="U12" s="28"/>
+      <c r="V12" s="28"/>
+      <c r="W12" s="28"/>
+      <c r="X12" s="28"/>
+      <c r="Y12" s="28"/>
+      <c r="Z12" s="28"/>
+      <c r="AA12" s="51"/>
+      <c r="AB12" s="43">
         <f t="shared" si="8"/>
         <v>0.404226312201772</v>
       </c>
-      <c r="AC12" s="44">
+      <c r="AC12" s="43">
         <f t="shared" si="9"/>
         <v>0.176735798016231</v>
       </c>
-      <c r="AD12" s="44">
+      <c r="AD12" s="43">
         <f t="shared" si="10"/>
         <v>0.138014527845036</v>
       </c>
-      <c r="AE12" s="44" t="e">
+      <c r="AE12" s="43" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF12" s="44" t="e">
+      <c r="AF12" s="43" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG12" s="44"/>
-      <c r="AH12" s="53"/>
-      <c r="AI12" s="53"/>
-      <c r="AJ12" s="53"/>
-      <c r="AK12" s="53"/>
-      <c r="AL12" s="53"/>
-      <c r="AM12" s="53"/>
-      <c r="AN12" s="53"/>
-      <c r="AO12" s="53"/>
+      <c r="AG12" s="43"/>
+      <c r="AH12" s="51"/>
+      <c r="AI12" s="51"/>
+      <c r="AJ12" s="51"/>
+      <c r="AK12" s="51"/>
+      <c r="AL12" s="51"/>
+      <c r="AM12" s="51"/>
+      <c r="AN12" s="51"/>
+      <c r="AO12" s="51"/>
     </row>
     <row r="13" ht="28" spans="1:41">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="24">
+      <c r="D13" s="23">
         <v>25.86</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="23">
         <v>24.081</v>
       </c>
-      <c r="F13" s="24">
+      <c r="F13" s="23">
         <v>21.509</v>
       </c>
-      <c r="G13" s="24">
+      <c r="G13" s="23">
         <v>20.66</v>
       </c>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="46" t="e">
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="45" t="e">
         <f t="shared" ref="K13:K20" si="13">(D13-H13)/H13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L13" s="46" t="e">
+      <c r="L13" s="45" t="e">
         <f t="shared" ref="L13:L20" si="14">(I13-D13)/I13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M13" s="46" t="e">
+      <c r="M13" s="45" t="e">
         <f t="shared" ref="M13:M20" si="15">(I13-J13)/J13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N13" s="56"/>
-      <c r="O13" s="56"/>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="33"/>
-      <c r="R13" s="33"/>
-      <c r="S13" s="33"/>
-      <c r="T13" s="33"/>
-      <c r="U13" s="33"/>
-      <c r="V13" s="33"/>
-      <c r="W13" s="33"/>
-      <c r="X13" s="33"/>
-      <c r="Y13" s="33"/>
-      <c r="Z13" s="33"/>
-      <c r="AA13" s="56"/>
-      <c r="AB13" s="46" t="e">
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="32"/>
+      <c r="R13" s="32"/>
+      <c r="S13" s="32"/>
+      <c r="T13" s="32"/>
+      <c r="U13" s="32"/>
+      <c r="V13" s="32"/>
+      <c r="W13" s="32"/>
+      <c r="X13" s="32"/>
+      <c r="Y13" s="32"/>
+      <c r="Z13" s="32"/>
+      <c r="AA13" s="54"/>
+      <c r="AB13" s="45" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC13" s="46" t="e">
+      <c r="AC13" s="45" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD13" s="46" t="e">
+      <c r="AD13" s="45" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE13" s="46" t="e">
+      <c r="AE13" s="45" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF13" s="46" t="e">
+      <c r="AF13" s="45" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG13" s="46"/>
-      <c r="AH13" s="56"/>
-      <c r="AI13" s="56"/>
-      <c r="AJ13" s="56"/>
-      <c r="AK13" s="56"/>
-      <c r="AL13" s="56"/>
-      <c r="AM13" s="56"/>
-      <c r="AN13" s="56"/>
-      <c r="AO13" s="56"/>
+      <c r="AG13" s="45"/>
+      <c r="AH13" s="54"/>
+      <c r="AI13" s="54"/>
+      <c r="AJ13" s="54"/>
+      <c r="AK13" s="54"/>
+      <c r="AL13" s="54"/>
+      <c r="AM13" s="54"/>
+      <c r="AN13" s="54"/>
+      <c r="AO13" s="54"/>
     </row>
     <row r="14" s="4" customFormat="1" ht="28" spans="1:41">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="21">
         <v>11.49</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="21">
         <v>9.774</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F14" s="21">
         <v>9.123</v>
       </c>
-      <c r="G14" s="22">
+      <c r="G14" s="21">
         <v>8.702</v>
       </c>
-      <c r="H14" s="31">
+      <c r="H14" s="30">
         <v>6.46</v>
       </c>
-      <c r="I14" s="31">
+      <c r="I14" s="30">
         <v>12.65</v>
       </c>
-      <c r="J14" s="31">
+      <c r="J14" s="30">
         <v>9.3</v>
       </c>
-      <c r="K14" s="45">
+      <c r="K14" s="44">
         <f t="shared" si="13"/>
         <v>0.778637770897833</v>
       </c>
-      <c r="L14" s="45">
+      <c r="L14" s="44">
         <f t="shared" si="14"/>
         <v>0.091699604743083</v>
       </c>
-      <c r="M14" s="45">
+      <c r="M14" s="44">
         <f t="shared" si="15"/>
         <v>0.360215053763441</v>
       </c>
-      <c r="N14" s="54"/>
-      <c r="O14" s="54"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="31"/>
-      <c r="R14" s="31"/>
-      <c r="S14" s="31"/>
-      <c r="T14" s="31"/>
-      <c r="U14" s="31"/>
-      <c r="V14" s="31"/>
-      <c r="W14" s="31"/>
-      <c r="X14" s="31"/>
-      <c r="Y14" s="31"/>
-      <c r="Z14" s="31"/>
-      <c r="AA14" s="54"/>
-      <c r="AB14" s="45">
+      <c r="N14" s="52"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="30"/>
+      <c r="T14" s="30"/>
+      <c r="U14" s="30"/>
+      <c r="V14" s="30"/>
+      <c r="W14" s="30"/>
+      <c r="X14" s="30"/>
+      <c r="Y14" s="30"/>
+      <c r="Z14" s="30"/>
+      <c r="AA14" s="52"/>
+      <c r="AB14" s="44">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="AC14" s="45" t="e">
+      <c r="AC14" s="44" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD14" s="45" t="e">
+      <c r="AD14" s="44" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE14" s="45" t="e">
+      <c r="AE14" s="44" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF14" s="45" t="e">
+      <c r="AF14" s="44" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG14" s="45"/>
-      <c r="AH14" s="54"/>
-      <c r="AI14" s="54"/>
-      <c r="AJ14" s="54"/>
-      <c r="AK14" s="54"/>
-      <c r="AL14" s="54"/>
-      <c r="AM14" s="54"/>
-      <c r="AN14" s="54"/>
-      <c r="AO14" s="54"/>
+      <c r="AG14" s="44"/>
+      <c r="AH14" s="52"/>
+      <c r="AI14" s="52"/>
+      <c r="AJ14" s="52"/>
+      <c r="AK14" s="52"/>
+      <c r="AL14" s="52"/>
+      <c r="AM14" s="52"/>
+      <c r="AN14" s="52"/>
+      <c r="AO14" s="52"/>
     </row>
     <row r="15" s="4" customFormat="1" ht="28" spans="1:41">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="21">
         <v>13.25</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="21">
         <v>11.808</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F15" s="21">
         <v>10.669</v>
       </c>
-      <c r="G15" s="22">
+      <c r="G15" s="21">
         <v>10.631</v>
       </c>
-      <c r="H15" s="31">
+      <c r="H15" s="30">
         <v>8.49</v>
       </c>
-      <c r="I15" s="31">
+      <c r="I15" s="30">
         <v>13.65</v>
       </c>
-      <c r="J15" s="31">
+      <c r="J15" s="30">
         <v>10.5</v>
       </c>
-      <c r="K15" s="45">
+      <c r="K15" s="44">
         <f t="shared" si="13"/>
         <v>0.560659599528857</v>
       </c>
-      <c r="L15" s="45">
+      <c r="L15" s="44">
         <f t="shared" si="14"/>
         <v>0.0293040293040293</v>
       </c>
-      <c r="M15" s="45">
+      <c r="M15" s="44">
         <f t="shared" si="15"/>
         <v>0.3</v>
       </c>
-      <c r="N15" s="54"/>
-      <c r="O15" s="54"/>
-      <c r="P15" s="31"/>
-      <c r="Q15" s="31"/>
-      <c r="R15" s="31"/>
-      <c r="S15" s="31"/>
-      <c r="T15" s="31"/>
-      <c r="U15" s="31"/>
-      <c r="V15" s="31"/>
-      <c r="W15" s="31"/>
-      <c r="X15" s="31"/>
-      <c r="Y15" s="31"/>
-      <c r="Z15" s="31"/>
-      <c r="AA15" s="54"/>
-      <c r="AB15" s="45">
+      <c r="N15" s="52"/>
+      <c r="O15" s="52"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="30"/>
+      <c r="S15" s="30"/>
+      <c r="T15" s="30"/>
+      <c r="U15" s="30"/>
+      <c r="V15" s="30"/>
+      <c r="W15" s="30"/>
+      <c r="X15" s="30"/>
+      <c r="Y15" s="30"/>
+      <c r="Z15" s="30"/>
+      <c r="AA15" s="52"/>
+      <c r="AB15" s="44">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="AC15" s="45" t="e">
+      <c r="AC15" s="44" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD15" s="45" t="e">
+      <c r="AD15" s="44" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE15" s="45" t="e">
+      <c r="AE15" s="44" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF15" s="45" t="e">
+      <c r="AF15" s="44" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG15" s="45"/>
-      <c r="AH15" s="54"/>
-      <c r="AI15" s="54"/>
-      <c r="AJ15" s="54"/>
-      <c r="AK15" s="54"/>
-      <c r="AL15" s="54"/>
-      <c r="AM15" s="54"/>
-      <c r="AN15" s="54"/>
-      <c r="AO15" s="54"/>
+      <c r="AG15" s="44"/>
+      <c r="AH15" s="52"/>
+      <c r="AI15" s="52"/>
+      <c r="AJ15" s="52"/>
+      <c r="AK15" s="52"/>
+      <c r="AL15" s="52"/>
+      <c r="AM15" s="52"/>
+      <c r="AN15" s="52"/>
+      <c r="AO15" s="52"/>
     </row>
     <row r="16" s="2" customFormat="1" ht="28" spans="1:41">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="17">
         <v>6.55</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="17">
         <v>5.227</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="17">
         <v>4.374</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="17">
         <v>4.187</v>
       </c>
-      <c r="H16" s="34">
+      <c r="H16" s="33">
         <v>3.23</v>
       </c>
-      <c r="I16" s="34">
+      <c r="I16" s="33">
         <v>7.4</v>
       </c>
-      <c r="J16" s="34">
+      <c r="J16" s="33">
         <v>4.13</v>
       </c>
-      <c r="K16" s="43">
+      <c r="K16" s="42">
         <f t="shared" si="13"/>
         <v>1.02786377708978</v>
       </c>
-      <c r="L16" s="43">
+      <c r="L16" s="42">
         <f t="shared" si="14"/>
         <v>0.114864864864865</v>
       </c>
-      <c r="M16" s="43">
+      <c r="M16" s="42">
         <f t="shared" si="15"/>
         <v>0.791767554479419</v>
       </c>
-      <c r="N16" s="52"/>
-      <c r="O16" s="52"/>
-      <c r="P16" s="34">
+      <c r="N16" s="50"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="33">
         <v>5.34</v>
       </c>
-      <c r="Q16" s="34">
+      <c r="Q16" s="33">
         <v>7</v>
       </c>
-      <c r="R16" s="34">
+      <c r="R16" s="33">
         <v>5.96</v>
       </c>
-      <c r="S16" s="34"/>
-      <c r="T16" s="34"/>
-      <c r="U16" s="34"/>
-      <c r="V16" s="34"/>
-      <c r="W16" s="34"/>
-      <c r="X16" s="34"/>
-      <c r="Y16" s="34"/>
-      <c r="Z16" s="34"/>
-      <c r="AA16" s="52"/>
-      <c r="AB16" s="43">
+      <c r="S16" s="33"/>
+      <c r="T16" s="33"/>
+      <c r="U16" s="33"/>
+      <c r="V16" s="33"/>
+      <c r="W16" s="33"/>
+      <c r="X16" s="33"/>
+      <c r="Y16" s="33"/>
+      <c r="Z16" s="33"/>
+      <c r="AA16" s="50"/>
+      <c r="AB16" s="42">
         <f t="shared" si="8"/>
         <v>0.278378378378378</v>
       </c>
-      <c r="AC16" s="43">
+      <c r="AC16" s="42">
         <f t="shared" si="9"/>
         <v>0.148571428571429</v>
       </c>
-      <c r="AD16" s="43" t="e">
+      <c r="AD16" s="42" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE16" s="43" t="e">
+      <c r="AE16" s="42" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF16" s="43" t="e">
+      <c r="AF16" s="42" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG16" s="43"/>
-      <c r="AH16" s="52"/>
-      <c r="AI16" s="52"/>
-      <c r="AJ16" s="52"/>
-      <c r="AK16" s="52"/>
-      <c r="AL16" s="52"/>
-      <c r="AM16" s="52"/>
-      <c r="AN16" s="52"/>
-      <c r="AO16" s="52"/>
+      <c r="AG16" s="42"/>
+      <c r="AH16" s="50"/>
+      <c r="AI16" s="50"/>
+      <c r="AJ16" s="50"/>
+      <c r="AK16" s="50"/>
+      <c r="AL16" s="50"/>
+      <c r="AM16" s="50"/>
+      <c r="AN16" s="50"/>
+      <c r="AO16" s="50"/>
     </row>
     <row r="17" s="3" customFormat="1" ht="28" spans="1:41">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="19">
         <v>8.81</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="19">
         <v>7.674</v>
       </c>
-      <c r="F17" s="20">
+      <c r="F17" s="19">
         <v>6.8</v>
       </c>
-      <c r="G17" s="20">
+      <c r="G17" s="19">
         <v>6.783</v>
       </c>
-      <c r="H17" s="30">
+      <c r="H17" s="29">
         <v>4.41</v>
       </c>
-      <c r="I17" s="30">
+      <c r="I17" s="29">
         <v>9.23</v>
       </c>
-      <c r="J17" s="30">
+      <c r="J17" s="29">
         <v>4.93</v>
       </c>
-      <c r="K17" s="44">
+      <c r="K17" s="43">
         <f t="shared" si="13"/>
         <v>0.997732426303855</v>
       </c>
-      <c r="L17" s="44">
+      <c r="L17" s="43">
         <f t="shared" si="14"/>
         <v>0.0455037919826652</v>
       </c>
-      <c r="M17" s="44">
+      <c r="M17" s="43">
         <f t="shared" si="15"/>
         <v>0.872210953346856</v>
       </c>
-      <c r="N17" s="53"/>
-      <c r="O17" s="53"/>
-      <c r="P17" s="30">
+      <c r="N17" s="51"/>
+      <c r="O17" s="51"/>
+      <c r="P17" s="29">
         <v>5.1</v>
       </c>
-      <c r="Q17" s="30">
+      <c r="Q17" s="29">
         <v>8.48</v>
       </c>
-      <c r="R17" s="30">
+      <c r="R17" s="29">
         <v>7.02</v>
       </c>
-      <c r="S17" s="60">
+      <c r="S17" s="56">
         <v>8.98</v>
       </c>
-      <c r="T17" s="60">
+      <c r="T17" s="56">
         <v>7.4</v>
       </c>
-      <c r="U17" s="29"/>
-      <c r="V17" s="29"/>
-      <c r="W17" s="29"/>
-      <c r="X17" s="29"/>
-      <c r="Y17" s="29"/>
-      <c r="Z17" s="29"/>
-      <c r="AA17" s="53"/>
-      <c r="AB17" s="44">
+      <c r="U17" s="28"/>
+      <c r="V17" s="28"/>
+      <c r="W17" s="28"/>
+      <c r="X17" s="28"/>
+      <c r="Y17" s="28"/>
+      <c r="Z17" s="28"/>
+      <c r="AA17" s="51"/>
+      <c r="AB17" s="43">
         <f t="shared" si="8"/>
         <v>0.447453954496208</v>
       </c>
-      <c r="AC17" s="44">
+      <c r="AC17" s="43">
         <f t="shared" si="9"/>
         <v>0.172169811320755</v>
       </c>
-      <c r="AD17" s="44">
+      <c r="AD17" s="43">
         <f t="shared" si="10"/>
         <v>0.175946547884187</v>
       </c>
-      <c r="AE17" s="44" t="e">
+      <c r="AE17" s="43" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF17" s="44" t="e">
+      <c r="AF17" s="43" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG17" s="44"/>
-      <c r="AH17" s="53"/>
-      <c r="AI17" s="53"/>
-      <c r="AJ17" s="53"/>
-      <c r="AK17" s="53"/>
-      <c r="AL17" s="53"/>
-      <c r="AM17" s="53"/>
-      <c r="AN17" s="53"/>
-      <c r="AO17" s="53"/>
+      <c r="AG17" s="43"/>
+      <c r="AH17" s="51"/>
+      <c r="AI17" s="51"/>
+      <c r="AJ17" s="51"/>
+      <c r="AK17" s="51"/>
+      <c r="AL17" s="51"/>
+      <c r="AM17" s="51"/>
+      <c r="AN17" s="51"/>
+      <c r="AO17" s="51"/>
     </row>
     <row r="18" s="3" customFormat="1" ht="28" spans="1:41">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D18" s="19">
         <v>11.22</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E18" s="19">
         <v>10.248</v>
       </c>
-      <c r="F18" s="20">
+      <c r="F18" s="19">
         <v>8.218</v>
       </c>
-      <c r="G18" s="20">
+      <c r="G18" s="19">
         <v>7.733</v>
       </c>
-      <c r="H18" s="30">
+      <c r="H18" s="29">
         <v>5.42</v>
       </c>
-      <c r="I18" s="30">
+      <c r="I18" s="29">
         <v>12.19</v>
       </c>
-      <c r="J18" s="30">
+      <c r="J18" s="29">
         <v>6.19</v>
       </c>
-      <c r="K18" s="44">
+      <c r="K18" s="43">
         <f t="shared" si="13"/>
         <v>1.07011070110701</v>
       </c>
-      <c r="L18" s="44">
+      <c r="L18" s="43">
         <f t="shared" si="14"/>
         <v>0.0795734208367513</v>
       </c>
-      <c r="M18" s="55">
+      <c r="M18" s="53">
         <f t="shared" si="15"/>
         <v>0.969305331179321</v>
       </c>
-      <c r="N18" s="53"/>
-      <c r="O18" s="53"/>
-      <c r="P18" s="30">
+      <c r="N18" s="51"/>
+      <c r="O18" s="51"/>
+      <c r="P18" s="29">
         <v>8.31</v>
       </c>
-      <c r="Q18" s="30">
+      <c r="Q18" s="29">
         <v>12.16</v>
       </c>
-      <c r="R18" s="30">
+      <c r="R18" s="29">
         <v>8.99</v>
       </c>
-      <c r="S18" s="29"/>
-      <c r="T18" s="29"/>
-      <c r="U18" s="29"/>
-      <c r="V18" s="29"/>
-      <c r="W18" s="29"/>
-      <c r="X18" s="29"/>
-      <c r="Y18" s="29"/>
-      <c r="Z18" s="29"/>
-      <c r="AA18" s="53"/>
-      <c r="AB18" s="44">
+      <c r="S18" s="28"/>
+      <c r="T18" s="28"/>
+      <c r="U18" s="28"/>
+      <c r="V18" s="28"/>
+      <c r="W18" s="28"/>
+      <c r="X18" s="28"/>
+      <c r="Y18" s="28"/>
+      <c r="Z18" s="28"/>
+      <c r="AA18" s="51"/>
+      <c r="AB18" s="43">
         <f t="shared" ref="AB18:AB29" si="16">(I18-P18)/I18</f>
         <v>0.318293683347006</v>
       </c>
-      <c r="AC18" s="44">
+      <c r="AC18" s="43">
         <f t="shared" ref="AC18:AC29" si="17">(Q18-R18)/Q18</f>
         <v>0.260690789473684</v>
       </c>
-      <c r="AD18" s="44" t="e">
+      <c r="AD18" s="43" t="e">
         <f t="shared" ref="AD18:AD29" si="18">(S18-T18)/S18</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE18" s="44" t="e">
+      <c r="AE18" s="43" t="e">
         <f t="shared" ref="AE18:AE29" si="19">(U18-V18)/U18</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF18" s="44" t="e">
+      <c r="AF18" s="43" t="e">
         <f t="shared" ref="AF18:AF29" si="20">(W18-X18)/W18</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG18" s="44"/>
-      <c r="AH18" s="53"/>
-      <c r="AI18" s="53"/>
-      <c r="AJ18" s="53"/>
-      <c r="AK18" s="53"/>
-      <c r="AL18" s="53"/>
-      <c r="AM18" s="53"/>
-      <c r="AN18" s="53"/>
-      <c r="AO18" s="53"/>
+      <c r="AG18" s="43"/>
+      <c r="AH18" s="51"/>
+      <c r="AI18" s="51"/>
+      <c r="AJ18" s="51"/>
+      <c r="AK18" s="51"/>
+      <c r="AL18" s="51"/>
+      <c r="AM18" s="51"/>
+      <c r="AN18" s="51"/>
+      <c r="AO18" s="51"/>
     </row>
-    <row r="19" s="5" customFormat="1" ht="28" spans="1:41">
-      <c r="A19" s="15" t="s">
+    <row r="19" s="1" customFormat="1" ht="28" spans="1:41">
+      <c r="A19" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="15">
         <v>22.2</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="15">
         <v>21.416</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F19" s="15">
         <v>20.137</v>
       </c>
-      <c r="G19" s="16">
+      <c r="G19" s="15">
         <v>19.881</v>
       </c>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="47" t="e">
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="41" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L19" s="47" t="e">
+      <c r="L19" s="41" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M19" s="47" t="e">
+      <c r="M19" s="41" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N19" s="57"/>
-      <c r="O19" s="57"/>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="35"/>
-      <c r="R19" s="35"/>
-      <c r="S19" s="35"/>
-      <c r="T19" s="35"/>
-      <c r="U19" s="35"/>
-      <c r="V19" s="35"/>
-      <c r="W19" s="35"/>
-      <c r="X19" s="35"/>
-      <c r="Y19" s="35"/>
-      <c r="Z19" s="35"/>
-      <c r="AA19" s="57"/>
-      <c r="AB19" s="47" t="e">
+      <c r="N19" s="49"/>
+      <c r="O19" s="49"/>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="34"/>
+      <c r="R19" s="34"/>
+      <c r="S19" s="34"/>
+      <c r="T19" s="34"/>
+      <c r="U19" s="34"/>
+      <c r="V19" s="34"/>
+      <c r="W19" s="34"/>
+      <c r="X19" s="34"/>
+      <c r="Y19" s="34"/>
+      <c r="Z19" s="34"/>
+      <c r="AA19" s="49"/>
+      <c r="AB19" s="41" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC19" s="47" t="e">
+      <c r="AC19" s="41" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD19" s="47" t="e">
+      <c r="AD19" s="41" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE19" s="47" t="e">
+      <c r="AE19" s="41" t="e">
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF19" s="47" t="e">
+      <c r="AF19" s="41" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG19" s="47"/>
-      <c r="AH19" s="57"/>
-      <c r="AI19" s="57"/>
-      <c r="AJ19" s="57"/>
-      <c r="AK19" s="57"/>
-      <c r="AL19" s="57"/>
-      <c r="AM19" s="57"/>
-      <c r="AN19" s="57"/>
-      <c r="AO19" s="57"/>
+      <c r="AG19" s="41"/>
+      <c r="AH19" s="49"/>
+      <c r="AI19" s="49"/>
+      <c r="AJ19" s="49"/>
+      <c r="AK19" s="49"/>
+      <c r="AL19" s="49"/>
+      <c r="AM19" s="49"/>
+      <c r="AN19" s="49"/>
+      <c r="AO19" s="49"/>
     </row>
     <row r="20" s="3" customFormat="1" ht="28" spans="1:41">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D20" s="19">
         <v>21.3</v>
       </c>
-      <c r="E20" s="20">
+      <c r="E20" s="19">
         <v>20.517</v>
       </c>
-      <c r="F20" s="20">
+      <c r="F20" s="19">
         <v>16.744</v>
       </c>
-      <c r="G20" s="20">
+      <c r="G20" s="19">
         <v>16.138</v>
       </c>
-      <c r="H20" s="29">
+      <c r="H20" s="28">
         <v>12.42</v>
       </c>
-      <c r="I20" s="29">
+      <c r="I20" s="28">
         <v>28.38</v>
       </c>
-      <c r="J20" s="29">
+      <c r="J20" s="28">
         <v>13.88</v>
       </c>
-      <c r="K20" s="44">
+      <c r="K20" s="43">
         <f t="shared" si="13"/>
         <v>0.714975845410628</v>
       </c>
-      <c r="L20" s="44">
+      <c r="L20" s="43">
         <f t="shared" si="14"/>
         <v>0.249471458773784</v>
       </c>
-      <c r="M20" s="55">
+      <c r="M20" s="53">
         <f t="shared" si="15"/>
         <v>1.04466858789625</v>
       </c>
-      <c r="N20" s="53"/>
-      <c r="O20" s="53"/>
-      <c r="P20" s="29">
+      <c r="N20" s="51"/>
+      <c r="O20" s="51"/>
+      <c r="P20" s="28">
         <v>17.1</v>
       </c>
-      <c r="Q20" s="29">
+      <c r="Q20" s="28">
         <v>21.62</v>
       </c>
-      <c r="R20" s="29">
+      <c r="R20" s="28">
         <v>19.8</v>
       </c>
-      <c r="S20" s="29"/>
-      <c r="T20" s="29"/>
-      <c r="U20" s="29"/>
-      <c r="V20" s="29"/>
-      <c r="W20" s="29"/>
-      <c r="X20" s="29"/>
-      <c r="Y20" s="29"/>
-      <c r="Z20" s="29"/>
-      <c r="AA20" s="53"/>
-      <c r="AB20" s="44">
+      <c r="S20" s="28"/>
+      <c r="T20" s="28"/>
+      <c r="U20" s="28"/>
+      <c r="V20" s="28"/>
+      <c r="W20" s="28"/>
+      <c r="X20" s="28"/>
+      <c r="Y20" s="28"/>
+      <c r="Z20" s="28"/>
+      <c r="AA20" s="51"/>
+      <c r="AB20" s="43">
         <f t="shared" si="16"/>
         <v>0.397463002114165</v>
       </c>
-      <c r="AC20" s="44">
+      <c r="AC20" s="43">
         <f t="shared" si="17"/>
         <v>0.0841813135985199</v>
       </c>
-      <c r="AD20" s="44" t="e">
+      <c r="AD20" s="43" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE20" s="44" t="e">
+      <c r="AE20" s="43" t="e">
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF20" s="44" t="e">
+      <c r="AF20" s="43" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG20" s="44"/>
-      <c r="AH20" s="53"/>
-      <c r="AI20" s="53"/>
-      <c r="AJ20" s="53"/>
-      <c r="AK20" s="53"/>
-      <c r="AL20" s="53"/>
-      <c r="AM20" s="53"/>
-      <c r="AN20" s="53"/>
-      <c r="AO20" s="53"/>
+      <c r="AG20" s="43"/>
+      <c r="AH20" s="51"/>
+      <c r="AI20" s="51"/>
+      <c r="AJ20" s="51"/>
+      <c r="AK20" s="51"/>
+      <c r="AL20" s="51"/>
+      <c r="AM20" s="51"/>
+      <c r="AN20" s="51"/>
+      <c r="AO20" s="51"/>
     </row>
     <row r="21" s="3" customFormat="1" ht="28" spans="1:41">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="20">
+      <c r="D21" s="19">
         <v>35.71</v>
       </c>
-      <c r="E21" s="20">
+      <c r="E21" s="19">
         <v>34.937</v>
       </c>
-      <c r="F21" s="20">
+      <c r="F21" s="19">
         <v>31.067</v>
       </c>
-      <c r="G21" s="20">
+      <c r="G21" s="19">
         <v>28.653</v>
       </c>
-      <c r="H21" s="29">
+      <c r="H21" s="28">
         <v>8.95</v>
       </c>
-      <c r="I21" s="29">
+      <c r="I21" s="28">
         <v>41.77</v>
       </c>
-      <c r="J21" s="29">
+      <c r="J21" s="28">
         <v>28.35</v>
       </c>
-      <c r="K21" s="44">
+      <c r="K21" s="43">
         <f t="shared" ref="K21:K31" si="21">(D21-H21)/H21</f>
         <v>2.98994413407821</v>
       </c>
-      <c r="L21" s="44">
+      <c r="L21" s="43">
         <f t="shared" ref="L21:L31" si="22">(I21-D21)/I21</f>
         <v>0.145080201101269</v>
       </c>
-      <c r="M21" s="44">
+      <c r="M21" s="43">
         <f t="shared" ref="M21:M31" si="23">(I21-J21)/J21</f>
         <v>0.47336860670194</v>
       </c>
-      <c r="N21" s="53"/>
-      <c r="O21" s="53"/>
-      <c r="P21" s="29">
+      <c r="N21" s="51"/>
+      <c r="O21" s="51"/>
+      <c r="P21" s="28">
         <v>28.52</v>
       </c>
-      <c r="Q21" s="29">
+      <c r="Q21" s="28">
         <v>38.72</v>
       </c>
-      <c r="R21" s="29">
+      <c r="R21" s="28">
         <v>34.36</v>
       </c>
-      <c r="S21" s="29"/>
-      <c r="T21" s="29"/>
-      <c r="U21" s="29"/>
-      <c r="V21" s="29"/>
-      <c r="W21" s="29"/>
-      <c r="X21" s="29"/>
-      <c r="Y21" s="29"/>
-      <c r="Z21" s="29"/>
-      <c r="AA21" s="53"/>
-      <c r="AB21" s="44">
+      <c r="S21" s="28"/>
+      <c r="T21" s="28"/>
+      <c r="U21" s="28"/>
+      <c r="V21" s="28"/>
+      <c r="W21" s="28"/>
+      <c r="X21" s="28"/>
+      <c r="Y21" s="28"/>
+      <c r="Z21" s="28"/>
+      <c r="AA21" s="51"/>
+      <c r="AB21" s="43">
         <f t="shared" si="16"/>
         <v>0.317213310988748</v>
       </c>
-      <c r="AC21" s="44">
+      <c r="AC21" s="43">
         <f t="shared" si="17"/>
         <v>0.112603305785124</v>
       </c>
-      <c r="AD21" s="44" t="e">
+      <c r="AD21" s="43" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE21" s="44" t="e">
+      <c r="AE21" s="43" t="e">
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF21" s="44" t="e">
+      <c r="AF21" s="43" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG21" s="44"/>
-      <c r="AH21" s="53"/>
-      <c r="AI21" s="53"/>
-      <c r="AJ21" s="53"/>
-      <c r="AK21" s="53"/>
-      <c r="AL21" s="53"/>
-      <c r="AM21" s="53"/>
-      <c r="AN21" s="53"/>
-      <c r="AO21" s="53"/>
+      <c r="AG21" s="43"/>
+      <c r="AH21" s="51"/>
+      <c r="AI21" s="51"/>
+      <c r="AJ21" s="51"/>
+      <c r="AK21" s="51"/>
+      <c r="AL21" s="51"/>
+      <c r="AM21" s="51"/>
+      <c r="AN21" s="51"/>
+      <c r="AO21" s="51"/>
     </row>
     <row r="22" s="3" customFormat="1" ht="28" spans="1:41">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="20">
+      <c r="D22" s="19">
         <v>6.52</v>
       </c>
-      <c r="E22" s="20">
+      <c r="E22" s="19">
         <v>5.887</v>
       </c>
-      <c r="F22" s="20">
+      <c r="F22" s="19">
         <v>5.69</v>
       </c>
-      <c r="G22" s="20">
+      <c r="G22" s="19">
         <v>5.347</v>
       </c>
-      <c r="H22" s="29">
+      <c r="H22" s="28">
         <v>3.82</v>
       </c>
-      <c r="I22" s="29">
+      <c r="I22" s="28">
         <v>9.09</v>
       </c>
-      <c r="J22" s="29">
+      <c r="J22" s="28">
         <v>4.84</v>
       </c>
-      <c r="K22" s="44">
+      <c r="K22" s="43">
         <f t="shared" si="21"/>
         <v>0.706806282722513</v>
       </c>
-      <c r="L22" s="44">
+      <c r="L22" s="43">
         <f t="shared" si="22"/>
         <v>0.282728272827283</v>
       </c>
-      <c r="M22" s="44">
+      <c r="M22" s="43">
         <f t="shared" si="23"/>
         <v>0.878099173553719</v>
       </c>
-      <c r="N22" s="53"/>
-      <c r="O22" s="53"/>
-      <c r="P22" s="29">
+      <c r="N22" s="51"/>
+      <c r="O22" s="51"/>
+      <c r="P22" s="28">
         <v>4.69</v>
       </c>
-      <c r="Q22" s="29">
+      <c r="Q22" s="28">
         <v>7.25</v>
       </c>
-      <c r="R22" s="29">
+      <c r="R22" s="28">
         <v>5.15</v>
       </c>
-      <c r="S22" s="29"/>
-      <c r="T22" s="29"/>
-      <c r="U22" s="29"/>
-      <c r="V22" s="29"/>
-      <c r="W22" s="29"/>
-      <c r="X22" s="29"/>
-      <c r="Y22" s="29"/>
-      <c r="Z22" s="29"/>
-      <c r="AA22" s="53"/>
-      <c r="AB22" s="44">
+      <c r="S22" s="28"/>
+      <c r="T22" s="28"/>
+      <c r="U22" s="28"/>
+      <c r="V22" s="28"/>
+      <c r="W22" s="28"/>
+      <c r="X22" s="28"/>
+      <c r="Y22" s="28"/>
+      <c r="Z22" s="28"/>
+      <c r="AA22" s="51"/>
+      <c r="AB22" s="43">
         <f t="shared" si="16"/>
         <v>0.484048404840484</v>
       </c>
-      <c r="AC22" s="44">
+      <c r="AC22" s="43">
         <f t="shared" si="17"/>
         <v>0.289655172413793</v>
       </c>
-      <c r="AD22" s="44" t="e">
+      <c r="AD22" s="43" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE22" s="44" t="e">
+      <c r="AE22" s="43" t="e">
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF22" s="44" t="e">
+      <c r="AF22" s="43" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG22" s="44"/>
-      <c r="AH22" s="53"/>
-      <c r="AI22" s="53"/>
-      <c r="AJ22" s="53"/>
-      <c r="AK22" s="53"/>
-      <c r="AL22" s="53"/>
-      <c r="AM22" s="53"/>
-      <c r="AN22" s="53"/>
-      <c r="AO22" s="53"/>
+      <c r="AG22" s="43"/>
+      <c r="AH22" s="51"/>
+      <c r="AI22" s="51"/>
+      <c r="AJ22" s="51"/>
+      <c r="AK22" s="51"/>
+      <c r="AL22" s="51"/>
+      <c r="AM22" s="51"/>
+      <c r="AN22" s="51"/>
+      <c r="AO22" s="51"/>
     </row>
     <row r="23" s="3" customFormat="1" ht="28" spans="1:41">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="20">
+      <c r="D23" s="19">
         <v>8.95</v>
       </c>
-      <c r="E23" s="20">
+      <c r="E23" s="19">
         <v>8.32</v>
       </c>
-      <c r="F23" s="20">
+      <c r="F23" s="19">
         <v>7.04</v>
       </c>
-      <c r="G23" s="20">
+      <c r="G23" s="19">
         <v>6.833</v>
       </c>
-      <c r="H23" s="29">
+      <c r="H23" s="28">
         <v>5.65</v>
       </c>
-      <c r="I23" s="29">
+      <c r="I23" s="28">
         <v>12.66</v>
       </c>
-      <c r="J23" s="29">
+      <c r="J23" s="28">
         <v>7.2</v>
       </c>
-      <c r="K23" s="44">
+      <c r="K23" s="43">
         <f t="shared" si="21"/>
         <v>0.584070796460177</v>
       </c>
-      <c r="L23" s="44">
+      <c r="L23" s="43">
         <f t="shared" si="22"/>
         <v>0.29304897314376</v>
       </c>
-      <c r="M23" s="44">
+      <c r="M23" s="43">
         <f t="shared" si="23"/>
         <v>0.758333333333333</v>
       </c>
-      <c r="N23" s="53"/>
-      <c r="O23" s="53"/>
-      <c r="P23" s="29">
+      <c r="N23" s="51"/>
+      <c r="O23" s="51"/>
+      <c r="P23" s="28">
         <v>8.6</v>
       </c>
-      <c r="Q23" s="29"/>
-      <c r="R23" s="29"/>
-      <c r="S23" s="29"/>
-      <c r="T23" s="29"/>
-      <c r="U23" s="29"/>
-      <c r="V23" s="29"/>
-      <c r="W23" s="29"/>
-      <c r="X23" s="29"/>
-      <c r="Y23" s="29"/>
-      <c r="Z23" s="29"/>
-      <c r="AA23" s="53"/>
-      <c r="AB23" s="44">
+      <c r="Q23" s="28"/>
+      <c r="R23" s="28"/>
+      <c r="S23" s="28"/>
+      <c r="T23" s="28"/>
+      <c r="U23" s="28"/>
+      <c r="V23" s="28"/>
+      <c r="W23" s="28"/>
+      <c r="X23" s="28"/>
+      <c r="Y23" s="28"/>
+      <c r="Z23" s="28"/>
+      <c r="AA23" s="51"/>
+      <c r="AB23" s="43">
         <f t="shared" si="16"/>
         <v>0.320695102685624</v>
       </c>
-      <c r="AC23" s="44" t="e">
+      <c r="AC23" s="43" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD23" s="44" t="e">
+      <c r="AD23" s="43" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE23" s="44" t="e">
+      <c r="AE23" s="43" t="e">
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF23" s="44" t="e">
+      <c r="AF23" s="43" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG23" s="44"/>
-      <c r="AH23" s="53"/>
-      <c r="AI23" s="53"/>
-      <c r="AJ23" s="53"/>
-      <c r="AK23" s="53"/>
-      <c r="AL23" s="53"/>
-      <c r="AM23" s="53"/>
-      <c r="AN23" s="53"/>
-      <c r="AO23" s="53"/>
+      <c r="AG23" s="43"/>
+      <c r="AH23" s="51"/>
+      <c r="AI23" s="51"/>
+      <c r="AJ23" s="51"/>
+      <c r="AK23" s="51"/>
+      <c r="AL23" s="51"/>
+      <c r="AM23" s="51"/>
+      <c r="AN23" s="51"/>
+      <c r="AO23" s="51"/>
     </row>
     <row r="24" ht="28" spans="1:41">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="24">
+      <c r="D24" s="23">
         <v>6.1</v>
       </c>
-      <c r="E24" s="24">
+      <c r="E24" s="23">
         <v>5.492</v>
       </c>
-      <c r="F24" s="24">
+      <c r="F24" s="23">
         <v>4.302</v>
       </c>
-      <c r="G24" s="24">
+      <c r="G24" s="23">
         <v>4.153</v>
       </c>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="46" t="e">
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="45" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L24" s="46" t="e">
+      <c r="L24" s="45" t="e">
         <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M24" s="46" t="e">
+      <c r="M24" s="45" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N24" s="56"/>
-      <c r="O24" s="56"/>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="33"/>
-      <c r="R24" s="33"/>
-      <c r="S24" s="33"/>
-      <c r="T24" s="33"/>
-      <c r="U24" s="33"/>
-      <c r="V24" s="33"/>
-      <c r="W24" s="33"/>
-      <c r="X24" s="33"/>
-      <c r="Y24" s="33"/>
-      <c r="Z24" s="33"/>
-      <c r="AA24" s="56"/>
-      <c r="AB24" s="46" t="e">
+      <c r="N24" s="54"/>
+      <c r="O24" s="54"/>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="32"/>
+      <c r="R24" s="32"/>
+      <c r="S24" s="32"/>
+      <c r="T24" s="32"/>
+      <c r="U24" s="32"/>
+      <c r="V24" s="32"/>
+      <c r="W24" s="32"/>
+      <c r="X24" s="32"/>
+      <c r="Y24" s="32"/>
+      <c r="Z24" s="32"/>
+      <c r="AA24" s="54"/>
+      <c r="AB24" s="45" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC24" s="46" t="e">
+      <c r="AC24" s="45" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD24" s="46" t="e">
+      <c r="AD24" s="45" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE24" s="46" t="e">
+      <c r="AE24" s="45" t="e">
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF24" s="46" t="e">
+      <c r="AF24" s="45" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG24" s="46"/>
-      <c r="AH24" s="56"/>
-      <c r="AI24" s="56"/>
-      <c r="AJ24" s="56"/>
-      <c r="AK24" s="56"/>
-      <c r="AL24" s="56"/>
-      <c r="AM24" s="56"/>
-      <c r="AN24" s="56"/>
-      <c r="AO24" s="56"/>
+      <c r="AG24" s="45"/>
+      <c r="AH24" s="54"/>
+      <c r="AI24" s="54"/>
+      <c r="AJ24" s="54"/>
+      <c r="AK24" s="54"/>
+      <c r="AL24" s="54"/>
+      <c r="AM24" s="54"/>
+      <c r="AN24" s="54"/>
+      <c r="AO24" s="54"/>
     </row>
     <row r="25" s="3" customFormat="1" ht="28" spans="1:41">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="D25" s="20">
+      <c r="D25" s="19">
         <v>5.9</v>
       </c>
-      <c r="E25" s="20">
+      <c r="E25" s="19">
         <v>5.397</v>
       </c>
-      <c r="F25" s="20">
+      <c r="F25" s="19">
         <v>5.177</v>
       </c>
-      <c r="G25" s="20">
+      <c r="G25" s="19">
         <v>5.072</v>
       </c>
-      <c r="H25" s="29">
+      <c r="H25" s="28">
         <v>3.9</v>
       </c>
-      <c r="I25" s="29">
+      <c r="I25" s="28">
         <v>6.49</v>
       </c>
-      <c r="J25" s="29">
+      <c r="J25" s="28">
         <v>4.52</v>
       </c>
-      <c r="K25" s="44">
+      <c r="K25" s="43">
         <f t="shared" si="21"/>
         <v>0.512820512820513</v>
       </c>
-      <c r="L25" s="44">
+      <c r="L25" s="43">
         <f t="shared" si="22"/>
         <v>0.0909090909090909</v>
       </c>
-      <c r="M25" s="44">
+      <c r="M25" s="43">
         <f t="shared" si="23"/>
         <v>0.435840707964602</v>
       </c>
-      <c r="N25" s="53"/>
-      <c r="O25" s="53"/>
-      <c r="P25" s="29">
+      <c r="N25" s="51"/>
+      <c r="O25" s="51"/>
+      <c r="P25" s="28">
         <v>4.64</v>
       </c>
-      <c r="Q25" s="29">
+      <c r="Q25" s="28">
         <v>5.58</v>
       </c>
-      <c r="R25" s="29">
+      <c r="R25" s="28">
         <v>4.99</v>
       </c>
-      <c r="S25" s="29">
+      <c r="S25" s="28">
         <v>6.04</v>
       </c>
-      <c r="T25" s="29">
+      <c r="T25" s="28">
         <v>5.45</v>
       </c>
-      <c r="U25" s="29"/>
-      <c r="V25" s="29"/>
-      <c r="W25" s="29"/>
-      <c r="X25" s="29"/>
-      <c r="Y25" s="29"/>
-      <c r="Z25" s="29"/>
-      <c r="AA25" s="53"/>
-      <c r="AB25" s="44">
+      <c r="U25" s="28"/>
+      <c r="V25" s="28"/>
+      <c r="W25" s="28"/>
+      <c r="X25" s="28"/>
+      <c r="Y25" s="28"/>
+      <c r="Z25" s="28"/>
+      <c r="AA25" s="51"/>
+      <c r="AB25" s="43">
         <f t="shared" si="16"/>
         <v>0.285053929121726</v>
       </c>
-      <c r="AC25" s="44">
+      <c r="AC25" s="43">
         <f t="shared" si="17"/>
         <v>0.10573476702509</v>
       </c>
-      <c r="AD25" s="44">
+      <c r="AD25" s="43">
         <f t="shared" si="18"/>
         <v>0.097682119205298</v>
       </c>
-      <c r="AE25" s="44" t="e">
+      <c r="AE25" s="43" t="e">
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF25" s="44" t="e">
+      <c r="AF25" s="43" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG25" s="44"/>
-      <c r="AH25" s="53"/>
-      <c r="AI25" s="53"/>
-      <c r="AJ25" s="53"/>
-      <c r="AK25" s="53"/>
-      <c r="AL25" s="53"/>
-      <c r="AM25" s="53"/>
-      <c r="AN25" s="53"/>
-      <c r="AO25" s="53"/>
+      <c r="AG25" s="43"/>
+      <c r="AH25" s="51"/>
+      <c r="AI25" s="51"/>
+      <c r="AJ25" s="51"/>
+      <c r="AK25" s="51"/>
+      <c r="AL25" s="51"/>
+      <c r="AM25" s="51"/>
+      <c r="AN25" s="51"/>
+      <c r="AO25" s="51"/>
     </row>
     <row r="26" s="3" customFormat="1" ht="28" spans="1:41">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="20">
+      <c r="D26" s="19">
         <v>5.48</v>
       </c>
-      <c r="E26" s="20">
+      <c r="E26" s="19">
         <v>4.981</v>
       </c>
-      <c r="F26" s="20">
+      <c r="F26" s="19">
         <v>4.576</v>
       </c>
-      <c r="G26" s="20">
+      <c r="G26" s="19">
         <v>4.541</v>
       </c>
-      <c r="H26" s="29">
+      <c r="H26" s="28">
         <v>3.77</v>
       </c>
-      <c r="I26" s="29">
+      <c r="I26" s="28">
         <v>5.95</v>
       </c>
-      <c r="J26" s="29">
+      <c r="J26" s="28">
         <v>4.55</v>
       </c>
-      <c r="K26" s="44">
+      <c r="K26" s="43">
         <f t="shared" si="21"/>
         <v>0.453580901856764</v>
       </c>
-      <c r="L26" s="44">
+      <c r="L26" s="43">
         <f t="shared" si="22"/>
         <v>0.0789915966386554</v>
       </c>
-      <c r="M26" s="44">
+      <c r="M26" s="43">
         <f t="shared" si="23"/>
         <v>0.307692307692308</v>
       </c>
-      <c r="N26" s="53"/>
-      <c r="O26" s="53"/>
-      <c r="P26" s="29">
+      <c r="N26" s="51"/>
+      <c r="O26" s="51"/>
+      <c r="P26" s="28">
         <v>4.18</v>
       </c>
-      <c r="Q26" s="29">
+      <c r="Q26" s="28">
         <v>5.71</v>
       </c>
-      <c r="R26" s="29">
+      <c r="R26" s="28">
         <v>4.51</v>
       </c>
-      <c r="S26" s="29">
+      <c r="S26" s="28">
         <v>5.58</v>
       </c>
-      <c r="T26" s="29">
+      <c r="T26" s="28">
         <v>5.1</v>
       </c>
-      <c r="U26" s="29"/>
-      <c r="V26" s="29"/>
-      <c r="W26" s="29"/>
-      <c r="X26" s="29"/>
-      <c r="Y26" s="29"/>
-      <c r="Z26" s="29"/>
-      <c r="AA26" s="53"/>
-      <c r="AB26" s="44">
+      <c r="U26" s="28"/>
+      <c r="V26" s="28"/>
+      <c r="W26" s="28"/>
+      <c r="X26" s="28"/>
+      <c r="Y26" s="28"/>
+      <c r="Z26" s="28"/>
+      <c r="AA26" s="51"/>
+      <c r="AB26" s="43">
         <f t="shared" si="16"/>
         <v>0.297478991596639</v>
       </c>
-      <c r="AC26" s="44">
+      <c r="AC26" s="43">
         <f t="shared" si="17"/>
         <v>0.21015761821366</v>
       </c>
-      <c r="AD26" s="44">
+      <c r="AD26" s="43">
         <f t="shared" si="18"/>
         <v>0.0860215053763442</v>
       </c>
-      <c r="AE26" s="44" t="e">
+      <c r="AE26" s="43" t="e">
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF26" s="44" t="e">
+      <c r="AF26" s="43" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG26" s="44"/>
-      <c r="AH26" s="53"/>
-      <c r="AI26" s="53"/>
-      <c r="AJ26" s="53"/>
-      <c r="AK26" s="53"/>
-      <c r="AL26" s="53"/>
-      <c r="AM26" s="53"/>
-      <c r="AN26" s="53"/>
-      <c r="AO26" s="53"/>
+      <c r="AG26" s="43"/>
+      <c r="AH26" s="51"/>
+      <c r="AI26" s="51"/>
+      <c r="AJ26" s="51"/>
+      <c r="AK26" s="51"/>
+      <c r="AL26" s="51"/>
+      <c r="AM26" s="51"/>
+      <c r="AN26" s="51"/>
+      <c r="AO26" s="51"/>
     </row>
     <row r="27" s="4" customFormat="1" ht="28" spans="1:41">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="D27" s="22">
+      <c r="D27" s="21">
         <v>9.11</v>
       </c>
-      <c r="E27" s="22">
+      <c r="E27" s="21">
         <v>8.681</v>
       </c>
-      <c r="F27" s="22">
+      <c r="F27" s="21">
         <v>8.675</v>
       </c>
-      <c r="G27" s="22">
+      <c r="G27" s="21">
         <v>7.708</v>
       </c>
-      <c r="H27" s="32">
+      <c r="H27" s="31">
         <v>2.01</v>
       </c>
-      <c r="I27" s="32">
+      <c r="I27" s="31">
         <v>13.54</v>
       </c>
-      <c r="J27" s="32">
+      <c r="J27" s="31">
         <v>6.9</v>
       </c>
-      <c r="K27" s="45">
+      <c r="K27" s="44">
         <f t="shared" si="21"/>
         <v>3.53233830845771</v>
       </c>
-      <c r="L27" s="45">
+      <c r="L27" s="44">
         <f t="shared" si="22"/>
         <v>0.327178729689808</v>
       </c>
-      <c r="M27" s="45">
+      <c r="M27" s="44">
         <f t="shared" si="23"/>
         <v>0.96231884057971</v>
       </c>
-      <c r="N27" s="54"/>
-      <c r="O27" s="54"/>
-      <c r="P27" s="32">
+      <c r="N27" s="52"/>
+      <c r="O27" s="52"/>
+      <c r="P27" s="31">
         <v>6.41</v>
       </c>
-      <c r="Q27" s="31"/>
-      <c r="R27" s="31"/>
-      <c r="S27" s="31"/>
-      <c r="T27" s="31"/>
-      <c r="U27" s="31"/>
-      <c r="V27" s="31"/>
-      <c r="W27" s="31"/>
-      <c r="X27" s="31"/>
-      <c r="Y27" s="31"/>
-      <c r="Z27" s="31"/>
-      <c r="AA27" s="54"/>
-      <c r="AB27" s="45">
+      <c r="Q27" s="30"/>
+      <c r="R27" s="30"/>
+      <c r="S27" s="30"/>
+      <c r="T27" s="30"/>
+      <c r="U27" s="30"/>
+      <c r="V27" s="30"/>
+      <c r="W27" s="30"/>
+      <c r="X27" s="30"/>
+      <c r="Y27" s="30"/>
+      <c r="Z27" s="30"/>
+      <c r="AA27" s="52"/>
+      <c r="AB27" s="44">
         <f t="shared" si="16"/>
         <v>0.52658788774003</v>
       </c>
-      <c r="AC27" s="45" t="e">
+      <c r="AC27" s="44" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD27" s="45" t="e">
+      <c r="AD27" s="44" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE27" s="45" t="e">
+      <c r="AE27" s="44" t="e">
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF27" s="45" t="e">
+      <c r="AF27" s="44" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG27" s="45"/>
-      <c r="AH27" s="54"/>
-      <c r="AI27" s="54"/>
-      <c r="AJ27" s="54"/>
-      <c r="AK27" s="54"/>
-      <c r="AL27" s="54"/>
-      <c r="AM27" s="54"/>
-      <c r="AN27" s="54"/>
-      <c r="AO27" s="54"/>
+      <c r="AG27" s="44"/>
+      <c r="AH27" s="52"/>
+      <c r="AI27" s="52"/>
+      <c r="AJ27" s="52"/>
+      <c r="AK27" s="52"/>
+      <c r="AL27" s="52"/>
+      <c r="AM27" s="52"/>
+      <c r="AN27" s="52"/>
+      <c r="AO27" s="52"/>
     </row>
     <row r="28" s="4" customFormat="1" ht="28" spans="1:41">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="D28" s="22">
+      <c r="D28" s="21">
         <v>5.16</v>
       </c>
-      <c r="E28" s="22">
+      <c r="E28" s="21">
         <v>4.785</v>
       </c>
-      <c r="F28" s="22">
+      <c r="F28" s="21">
         <v>4.353</v>
       </c>
-      <c r="G28" s="22">
+      <c r="G28" s="21">
         <v>4.327</v>
       </c>
-      <c r="H28" s="31">
+      <c r="H28" s="30">
         <v>3.89</v>
       </c>
-      <c r="I28" s="31">
+      <c r="I28" s="30">
         <v>5.58</v>
       </c>
-      <c r="J28" s="31">
+      <c r="J28" s="30">
         <v>5.06</v>
       </c>
-      <c r="K28" s="45">
+      <c r="K28" s="44">
         <f t="shared" si="21"/>
         <v>0.326478149100257</v>
       </c>
-      <c r="L28" s="45">
+      <c r="L28" s="44">
         <f t="shared" si="22"/>
         <v>0.0752688172043011</v>
       </c>
-      <c r="M28" s="45">
+      <c r="M28" s="44">
         <f t="shared" si="23"/>
         <v>0.102766798418972</v>
       </c>
-      <c r="N28" s="54"/>
-      <c r="O28" s="54"/>
-      <c r="P28" s="31"/>
-      <c r="Q28" s="31"/>
-      <c r="R28" s="31"/>
-      <c r="S28" s="31"/>
-      <c r="T28" s="31"/>
-      <c r="U28" s="31"/>
-      <c r="V28" s="31"/>
-      <c r="W28" s="31"/>
-      <c r="X28" s="31"/>
-      <c r="Y28" s="31"/>
-      <c r="Z28" s="31"/>
-      <c r="AA28" s="54"/>
-      <c r="AB28" s="45">
+      <c r="N28" s="52"/>
+      <c r="O28" s="52"/>
+      <c r="P28" s="30"/>
+      <c r="Q28" s="30"/>
+      <c r="R28" s="30"/>
+      <c r="S28" s="30"/>
+      <c r="T28" s="30"/>
+      <c r="U28" s="30"/>
+      <c r="V28" s="30"/>
+      <c r="W28" s="30"/>
+      <c r="X28" s="30"/>
+      <c r="Y28" s="30"/>
+      <c r="Z28" s="30"/>
+      <c r="AA28" s="52"/>
+      <c r="AB28" s="44">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="AC28" s="45" t="e">
+      <c r="AC28" s="44" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD28" s="45" t="e">
+      <c r="AD28" s="44" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE28" s="45" t="e">
+      <c r="AE28" s="44" t="e">
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF28" s="45" t="e">
+      <c r="AF28" s="44" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG28" s="45"/>
-      <c r="AH28" s="54"/>
-      <c r="AI28" s="54"/>
-      <c r="AJ28" s="54"/>
-      <c r="AK28" s="54"/>
-      <c r="AL28" s="54"/>
-      <c r="AM28" s="54"/>
-      <c r="AN28" s="54"/>
-      <c r="AO28" s="54"/>
+      <c r="AG28" s="44"/>
+      <c r="AH28" s="52"/>
+      <c r="AI28" s="52"/>
+      <c r="AJ28" s="52"/>
+      <c r="AK28" s="52"/>
+      <c r="AL28" s="52"/>
+      <c r="AM28" s="52"/>
+      <c r="AN28" s="52"/>
+      <c r="AO28" s="52"/>
     </row>
     <row r="29" s="3" customFormat="1" ht="28" spans="1:41">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="D29" s="20">
+      <c r="D29" s="19">
         <v>5.95</v>
       </c>
-      <c r="E29" s="20">
+      <c r="E29" s="19">
         <v>5.584</v>
       </c>
-      <c r="F29" s="20">
+      <c r="F29" s="19">
         <v>5.147</v>
       </c>
-      <c r="G29" s="20">
+      <c r="G29" s="19">
         <v>5.12</v>
       </c>
-      <c r="H29" s="29">
+      <c r="H29" s="28">
         <v>4.48</v>
       </c>
-      <c r="I29" s="29">
+      <c r="I29" s="28">
         <v>7.15</v>
       </c>
-      <c r="J29" s="29">
+      <c r="J29" s="28">
         <v>5.39</v>
       </c>
-      <c r="K29" s="44">
+      <c r="K29" s="43">
         <f t="shared" si="21"/>
         <v>0.328125</v>
       </c>
-      <c r="L29" s="44">
+      <c r="L29" s="43">
         <f t="shared" si="22"/>
         <v>0.167832167832168</v>
       </c>
-      <c r="M29" s="44">
+      <c r="M29" s="43">
         <f t="shared" si="23"/>
         <v>0.326530612244898</v>
       </c>
-      <c r="N29" s="53"/>
-      <c r="O29" s="53"/>
-      <c r="P29" s="29">
+      <c r="N29" s="51"/>
+      <c r="O29" s="51"/>
+      <c r="P29" s="28">
         <v>5.51</v>
       </c>
-      <c r="Q29" s="29"/>
-      <c r="R29" s="29"/>
-      <c r="S29" s="29"/>
-      <c r="T29" s="29"/>
-      <c r="U29" s="29"/>
-      <c r="V29" s="29"/>
-      <c r="W29" s="29"/>
-      <c r="X29" s="29"/>
-      <c r="Y29" s="29"/>
-      <c r="Z29" s="29"/>
-      <c r="AA29" s="53"/>
-      <c r="AB29" s="44">
+      <c r="Q29" s="28"/>
+      <c r="R29" s="28"/>
+      <c r="S29" s="28"/>
+      <c r="T29" s="28"/>
+      <c r="U29" s="28"/>
+      <c r="V29" s="28"/>
+      <c r="W29" s="28"/>
+      <c r="X29" s="28"/>
+      <c r="Y29" s="28"/>
+      <c r="Z29" s="28"/>
+      <c r="AA29" s="51"/>
+      <c r="AB29" s="43">
         <f t="shared" si="16"/>
         <v>0.229370629370629</v>
       </c>
-      <c r="AC29" s="44" t="e">
+      <c r="AC29" s="43" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD29" s="44" t="e">
+      <c r="AD29" s="43" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE29" s="44" t="e">
+      <c r="AE29" s="43" t="e">
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF29" s="44" t="e">
+      <c r="AF29" s="43" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG29" s="44"/>
-      <c r="AH29" s="53"/>
-      <c r="AI29" s="53"/>
-      <c r="AJ29" s="53"/>
-      <c r="AK29" s="53"/>
-      <c r="AL29" s="53"/>
-      <c r="AM29" s="53"/>
-      <c r="AN29" s="53"/>
-      <c r="AO29" s="53"/>
+      <c r="AG29" s="43"/>
+      <c r="AH29" s="51"/>
+      <c r="AI29" s="51"/>
+      <c r="AJ29" s="51"/>
+      <c r="AK29" s="51"/>
+      <c r="AL29" s="51"/>
+      <c r="AM29" s="51"/>
+      <c r="AN29" s="51"/>
+      <c r="AO29" s="51"/>
     </row>
     <row r="30" s="4" customFormat="1" ht="28" spans="1:41">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D30" s="22">
+      <c r="D30" s="21">
         <v>4.57</v>
       </c>
-      <c r="E30" s="22">
+      <c r="E30" s="21">
         <v>4.208</v>
       </c>
-      <c r="F30" s="22">
+      <c r="F30" s="21">
         <v>3.085</v>
       </c>
-      <c r="G30" s="22">
+      <c r="G30" s="21">
         <v>2.937</v>
       </c>
-      <c r="H30" s="31">
+      <c r="H30" s="30">
         <v>1.77</v>
       </c>
-      <c r="I30" s="31">
+      <c r="I30" s="30">
         <v>6.24</v>
       </c>
-      <c r="J30" s="31">
+      <c r="J30" s="30">
         <v>2.19</v>
       </c>
-      <c r="K30" s="45">
+      <c r="K30" s="44">
         <f t="shared" si="21"/>
         <v>1.5819209039548</v>
       </c>
-      <c r="L30" s="45">
+      <c r="L30" s="44">
         <f t="shared" si="22"/>
         <v>0.267628205128205</v>
       </c>
-      <c r="M30" s="55">
+      <c r="M30" s="53">
         <f t="shared" si="23"/>
         <v>1.84931506849315</v>
       </c>
-      <c r="N30" s="54"/>
-      <c r="O30" s="54"/>
-      <c r="P30" s="31">
+      <c r="N30" s="52"/>
+      <c r="O30" s="52"/>
+      <c r="P30" s="30">
         <v>3.38</v>
       </c>
-      <c r="Q30" s="31">
+      <c r="Q30" s="30">
         <v>5.7</v>
       </c>
-      <c r="R30" s="31">
+      <c r="R30" s="30">
         <v>4.28</v>
       </c>
-      <c r="S30" s="31"/>
-      <c r="T30" s="31"/>
-      <c r="U30" s="31"/>
-      <c r="V30" s="31"/>
-      <c r="W30" s="31"/>
-      <c r="X30" s="31"/>
-      <c r="Y30" s="31"/>
-      <c r="Z30" s="31"/>
-      <c r="AA30" s="54"/>
-      <c r="AB30" s="45">
+      <c r="S30" s="30"/>
+      <c r="T30" s="30"/>
+      <c r="U30" s="30"/>
+      <c r="V30" s="30"/>
+      <c r="W30" s="30"/>
+      <c r="X30" s="30"/>
+      <c r="Y30" s="30"/>
+      <c r="Z30" s="30"/>
+      <c r="AA30" s="52"/>
+      <c r="AB30" s="44">
         <f t="shared" ref="AB30:AB40" si="24">(I30-P30)/I30</f>
         <v>0.458333333333333</v>
       </c>
-      <c r="AC30" s="45">
+      <c r="AC30" s="44">
         <f t="shared" ref="AC30:AC40" si="25">(Q30-R30)/Q30</f>
         <v>0.249122807017544</v>
       </c>
-      <c r="AD30" s="45" t="e">
+      <c r="AD30" s="44" t="e">
         <f t="shared" ref="AD30:AD40" si="26">(S30-T30)/S30</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE30" s="45" t="e">
+      <c r="AE30" s="44" t="e">
         <f t="shared" ref="AE30:AE40" si="27">(U30-V30)/U30</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF30" s="45" t="e">
+      <c r="AF30" s="44" t="e">
         <f t="shared" ref="AF30:AF40" si="28">(W30-X30)/W30</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG30" s="45"/>
-      <c r="AH30" s="54"/>
-      <c r="AI30" s="54"/>
-      <c r="AJ30" s="54"/>
-      <c r="AK30" s="54"/>
-      <c r="AL30" s="54"/>
-      <c r="AM30" s="54"/>
-      <c r="AN30" s="54"/>
-      <c r="AO30" s="54"/>
+      <c r="AG30" s="44"/>
+      <c r="AH30" s="52"/>
+      <c r="AI30" s="52"/>
+      <c r="AJ30" s="52"/>
+      <c r="AK30" s="52"/>
+      <c r="AL30" s="52"/>
+      <c r="AM30" s="52"/>
+      <c r="AN30" s="52"/>
+      <c r="AO30" s="52"/>
     </row>
     <row r="31" s="3" customFormat="1" ht="28" spans="1:41">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="D31" s="20">
+      <c r="D31" s="19">
         <v>11.35</v>
       </c>
-      <c r="E31" s="20">
+      <c r="E31" s="19">
         <v>10.999</v>
       </c>
-      <c r="F31" s="20">
+      <c r="F31" s="19">
         <v>10.28</v>
       </c>
-      <c r="G31" s="20">
+      <c r="G31" s="19">
         <v>9.431</v>
       </c>
-      <c r="H31" s="29">
+      <c r="H31" s="28">
         <v>6.35</v>
       </c>
-      <c r="I31" s="29">
+      <c r="I31" s="28">
         <v>14.14</v>
       </c>
-      <c r="J31" s="29">
+      <c r="J31" s="28">
         <v>8.65</v>
       </c>
-      <c r="K31" s="44">
+      <c r="K31" s="43">
         <f t="shared" si="21"/>
         <v>0.78740157480315</v>
       </c>
-      <c r="L31" s="44">
+      <c r="L31" s="43">
         <f t="shared" si="22"/>
         <v>0.197312588401697</v>
       </c>
-      <c r="M31" s="44">
+      <c r="M31" s="43">
         <f t="shared" si="23"/>
         <v>0.634682080924855</v>
       </c>
-      <c r="N31" s="53"/>
-      <c r="O31" s="53"/>
-      <c r="P31" s="29">
+      <c r="N31" s="51"/>
+      <c r="O31" s="51"/>
+      <c r="P31" s="28">
         <v>9.49</v>
       </c>
-      <c r="Q31" s="29"/>
-      <c r="R31" s="29"/>
-      <c r="S31" s="29"/>
-      <c r="T31" s="29"/>
-      <c r="U31" s="29"/>
-      <c r="V31" s="29"/>
-      <c r="W31" s="29"/>
-      <c r="X31" s="29"/>
-      <c r="Y31" s="29"/>
-      <c r="Z31" s="29"/>
-      <c r="AA31" s="53"/>
-      <c r="AB31" s="44">
+      <c r="Q31" s="28"/>
+      <c r="R31" s="28"/>
+      <c r="S31" s="28"/>
+      <c r="T31" s="28"/>
+      <c r="U31" s="28"/>
+      <c r="V31" s="28"/>
+      <c r="W31" s="28"/>
+      <c r="X31" s="28"/>
+      <c r="Y31" s="28"/>
+      <c r="Z31" s="28"/>
+      <c r="AA31" s="51"/>
+      <c r="AB31" s="43">
         <f t="shared" si="24"/>
         <v>0.328854314002829</v>
       </c>
-      <c r="AC31" s="44" t="e">
+      <c r="AC31" s="43" t="e">
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD31" s="44" t="e">
+      <c r="AD31" s="43" t="e">
         <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE31" s="44" t="e">
+      <c r="AE31" s="43" t="e">
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF31" s="44" t="e">
+      <c r="AF31" s="43" t="e">
         <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG31" s="44"/>
-      <c r="AH31" s="53"/>
-      <c r="AI31" s="53"/>
-      <c r="AJ31" s="53"/>
-      <c r="AK31" s="53"/>
-      <c r="AL31" s="53"/>
-      <c r="AM31" s="53"/>
-      <c r="AN31" s="53"/>
-      <c r="AO31" s="53"/>
+      <c r="AG31" s="43"/>
+      <c r="AH31" s="51"/>
+      <c r="AI31" s="51"/>
+      <c r="AJ31" s="51"/>
+      <c r="AK31" s="51"/>
+      <c r="AL31" s="51"/>
+      <c r="AM31" s="51"/>
+      <c r="AN31" s="51"/>
+      <c r="AO31" s="51"/>
     </row>
     <row r="32" s="4" customFormat="1" ht="28" spans="1:41">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="C32" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D32" s="22">
+      <c r="D32" s="21">
         <v>8.94</v>
       </c>
-      <c r="E32" s="22">
+      <c r="E32" s="21">
         <v>8.6</v>
       </c>
-      <c r="F32" s="22">
+      <c r="F32" s="21">
         <v>7.742</v>
       </c>
-      <c r="G32" s="22">
+      <c r="G32" s="21">
         <v>7.417</v>
       </c>
-      <c r="H32" s="31">
+      <c r="H32" s="30">
         <v>5.85</v>
       </c>
-      <c r="I32" s="31">
+      <c r="I32" s="30">
         <v>9.78</v>
       </c>
-      <c r="J32" s="31">
+      <c r="J32" s="30">
         <v>8.26</v>
       </c>
-      <c r="K32" s="45">
+      <c r="K32" s="44">
         <f t="shared" ref="K32:K40" si="29">(D32-H32)/H32</f>
         <v>0.528205128205128</v>
       </c>
-      <c r="L32" s="45">
+      <c r="L32" s="44">
         <f t="shared" ref="L32:L40" si="30">(I32-D32)/I32</f>
         <v>0.0858895705521472</v>
       </c>
-      <c r="M32" s="45">
+      <c r="M32" s="44">
         <f t="shared" ref="M32:M40" si="31">(I32-J32)/J32</f>
         <v>0.184019370460048</v>
       </c>
-      <c r="N32" s="54"/>
-      <c r="O32" s="54"/>
-      <c r="P32" s="31"/>
-      <c r="Q32" s="31"/>
-      <c r="R32" s="31"/>
-      <c r="S32" s="31"/>
-      <c r="T32" s="31"/>
-      <c r="U32" s="31"/>
-      <c r="V32" s="31"/>
-      <c r="W32" s="31"/>
-      <c r="X32" s="31"/>
-      <c r="Y32" s="31"/>
-      <c r="Z32" s="31"/>
-      <c r="AA32" s="54"/>
-      <c r="AB32" s="45">
+      <c r="N32" s="52"/>
+      <c r="O32" s="52"/>
+      <c r="P32" s="30"/>
+      <c r="Q32" s="30"/>
+      <c r="R32" s="30"/>
+      <c r="S32" s="30"/>
+      <c r="T32" s="30"/>
+      <c r="U32" s="30"/>
+      <c r="V32" s="30"/>
+      <c r="W32" s="30"/>
+      <c r="X32" s="30"/>
+      <c r="Y32" s="30"/>
+      <c r="Z32" s="30"/>
+      <c r="AA32" s="52"/>
+      <c r="AB32" s="44">
         <f t="shared" si="24"/>
         <v>1</v>
       </c>
-      <c r="AC32" s="45" t="e">
+      <c r="AC32" s="44" t="e">
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD32" s="45" t="e">
+      <c r="AD32" s="44" t="e">
         <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE32" s="45" t="e">
+      <c r="AE32" s="44" t="e">
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF32" s="45" t="e">
+      <c r="AF32" s="44" t="e">
         <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG32" s="45"/>
-      <c r="AH32" s="54"/>
-      <c r="AI32" s="54"/>
-      <c r="AJ32" s="54"/>
-      <c r="AK32" s="54"/>
-      <c r="AL32" s="54"/>
-      <c r="AM32" s="54"/>
-      <c r="AN32" s="54"/>
-      <c r="AO32" s="54"/>
+      <c r="AG32" s="44"/>
+      <c r="AH32" s="52"/>
+      <c r="AI32" s="52"/>
+      <c r="AJ32" s="52"/>
+      <c r="AK32" s="52"/>
+      <c r="AL32" s="52"/>
+      <c r="AM32" s="52"/>
+      <c r="AN32" s="52"/>
+      <c r="AO32" s="52"/>
     </row>
     <row r="33" s="2" customFormat="1" ht="28" spans="1:41">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="18">
+      <c r="D33" s="17">
         <v>14.19</v>
       </c>
-      <c r="E33" s="18">
+      <c r="E33" s="17">
         <v>13.875</v>
       </c>
-      <c r="F33" s="18">
+      <c r="F33" s="17">
         <v>12.245</v>
       </c>
-      <c r="G33" s="18">
+      <c r="G33" s="17">
         <v>11.116</v>
       </c>
-      <c r="H33" s="34">
+      <c r="H33" s="33">
         <v>5.81</v>
       </c>
-      <c r="I33" s="34">
+      <c r="I33" s="33">
         <v>16.78</v>
       </c>
-      <c r="J33" s="34">
+      <c r="J33" s="33">
         <v>9.81</v>
       </c>
-      <c r="K33" s="43">
+      <c r="K33" s="42">
         <f t="shared" si="29"/>
         <v>1.44234079173838</v>
       </c>
-      <c r="L33" s="43">
+      <c r="L33" s="42">
         <f t="shared" si="30"/>
         <v>0.15435041716329</v>
       </c>
-      <c r="M33" s="43">
+      <c r="M33" s="42">
         <f t="shared" si="31"/>
         <v>0.710499490316004</v>
       </c>
-      <c r="N33" s="52"/>
-      <c r="O33" s="52"/>
-      <c r="P33" s="34">
+      <c r="N33" s="50"/>
+      <c r="O33" s="50"/>
+      <c r="P33" s="33">
         <v>12.52</v>
       </c>
-      <c r="Q33" s="34">
+      <c r="Q33" s="33">
         <v>16.29</v>
       </c>
-      <c r="R33" s="34">
+      <c r="R33" s="33">
         <v>13.36</v>
       </c>
-      <c r="S33" s="34"/>
-      <c r="T33" s="34"/>
-      <c r="U33" s="34"/>
-      <c r="V33" s="34"/>
-      <c r="W33" s="34"/>
-      <c r="X33" s="34"/>
-      <c r="Y33" s="34"/>
-      <c r="Z33" s="34"/>
-      <c r="AA33" s="52"/>
-      <c r="AB33" s="43">
+      <c r="S33" s="33"/>
+      <c r="T33" s="33"/>
+      <c r="U33" s="33"/>
+      <c r="V33" s="33"/>
+      <c r="W33" s="33"/>
+      <c r="X33" s="33"/>
+      <c r="Y33" s="33"/>
+      <c r="Z33" s="33"/>
+      <c r="AA33" s="50"/>
+      <c r="AB33" s="42">
         <f t="shared" si="24"/>
         <v>0.253873659117998</v>
       </c>
-      <c r="AC33" s="43">
+      <c r="AC33" s="42">
         <f t="shared" si="25"/>
         <v>0.179864947820749</v>
       </c>
-      <c r="AD33" s="43" t="e">
+      <c r="AD33" s="42" t="e">
         <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE33" s="43" t="e">
+      <c r="AE33" s="42" t="e">
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF33" s="43" t="e">
+      <c r="AF33" s="42" t="e">
         <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG33" s="43"/>
-      <c r="AH33" s="52"/>
-      <c r="AI33" s="52"/>
-      <c r="AJ33" s="52"/>
-      <c r="AK33" s="52"/>
-      <c r="AL33" s="52"/>
-      <c r="AM33" s="52"/>
-      <c r="AN33" s="52"/>
-      <c r="AO33" s="52"/>
+      <c r="AG33" s="42"/>
+      <c r="AH33" s="50"/>
+      <c r="AI33" s="50"/>
+      <c r="AJ33" s="50"/>
+      <c r="AK33" s="50"/>
+      <c r="AL33" s="50"/>
+      <c r="AM33" s="50"/>
+      <c r="AN33" s="50"/>
+      <c r="AO33" s="50"/>
     </row>
     <row r="34" s="4" customFormat="1" ht="28" spans="1:41">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="C34" s="21" t="s">
+      <c r="C34" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D34" s="22">
+      <c r="D34" s="21">
         <v>8.04</v>
       </c>
-      <c r="E34" s="22">
+      <c r="E34" s="21">
         <v>7.728</v>
       </c>
-      <c r="F34" s="22">
+      <c r="F34" s="21">
         <v>6.998</v>
       </c>
-      <c r="G34" s="22">
+      <c r="G34" s="21">
         <v>6.68</v>
       </c>
-      <c r="H34" s="31">
+      <c r="H34" s="30">
         <v>5.11</v>
       </c>
-      <c r="I34" s="31">
+      <c r="I34" s="30">
         <v>8.6</v>
       </c>
-      <c r="J34" s="31">
+      <c r="J34" s="30">
         <v>7.78</v>
       </c>
-      <c r="K34" s="45">
+      <c r="K34" s="44">
         <f t="shared" si="29"/>
         <v>0.573385518590998</v>
       </c>
-      <c r="L34" s="45">
+      <c r="L34" s="44">
         <f t="shared" si="30"/>
         <v>0.0651162790697675</v>
       </c>
-      <c r="M34" s="45">
+      <c r="M34" s="44">
         <f t="shared" si="31"/>
         <v>0.105398457583547</v>
       </c>
-      <c r="N34" s="54"/>
-      <c r="O34" s="54"/>
-      <c r="P34" s="31"/>
-      <c r="Q34" s="31"/>
-      <c r="R34" s="31"/>
-      <c r="S34" s="31"/>
-      <c r="T34" s="31"/>
-      <c r="U34" s="31"/>
-      <c r="V34" s="31"/>
-      <c r="W34" s="31"/>
-      <c r="X34" s="31"/>
-      <c r="Y34" s="31"/>
-      <c r="Z34" s="31"/>
-      <c r="AA34" s="54"/>
-      <c r="AB34" s="45">
+      <c r="N34" s="52"/>
+      <c r="O34" s="52"/>
+      <c r="P34" s="30"/>
+      <c r="Q34" s="30"/>
+      <c r="R34" s="30"/>
+      <c r="S34" s="30"/>
+      <c r="T34" s="30"/>
+      <c r="U34" s="30"/>
+      <c r="V34" s="30"/>
+      <c r="W34" s="30"/>
+      <c r="X34" s="30"/>
+      <c r="Y34" s="30"/>
+      <c r="Z34" s="30"/>
+      <c r="AA34" s="52"/>
+      <c r="AB34" s="44">
         <f t="shared" si="24"/>
         <v>1</v>
       </c>
-      <c r="AC34" s="45" t="e">
+      <c r="AC34" s="44" t="e">
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD34" s="45" t="e">
+      <c r="AD34" s="44" t="e">
         <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE34" s="45" t="e">
+      <c r="AE34" s="44" t="e">
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF34" s="45" t="e">
+      <c r="AF34" s="44" t="e">
         <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG34" s="45"/>
-      <c r="AH34" s="54"/>
-      <c r="AI34" s="54"/>
-      <c r="AJ34" s="54"/>
-      <c r="AK34" s="54"/>
-      <c r="AL34" s="54"/>
-      <c r="AM34" s="54"/>
-      <c r="AN34" s="54"/>
-      <c r="AO34" s="54"/>
+      <c r="AG34" s="44"/>
+      <c r="AH34" s="52"/>
+      <c r="AI34" s="52"/>
+      <c r="AJ34" s="52"/>
+      <c r="AK34" s="52"/>
+      <c r="AL34" s="52"/>
+      <c r="AM34" s="52"/>
+      <c r="AN34" s="52"/>
+      <c r="AO34" s="52"/>
     </row>
     <row r="35" s="4" customFormat="1" ht="28" spans="1:41">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="C35" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="D35" s="22">
+      <c r="D35" s="21">
         <v>5.81</v>
       </c>
-      <c r="E35" s="22">
+      <c r="E35" s="21">
         <v>5.538</v>
       </c>
-      <c r="F35" s="22">
+      <c r="F35" s="21">
         <v>5.089</v>
       </c>
-      <c r="G35" s="22">
+      <c r="G35" s="21">
         <v>4.899</v>
       </c>
-      <c r="H35" s="31">
+      <c r="H35" s="30">
         <v>3.92</v>
       </c>
-      <c r="I35" s="31">
+      <c r="I35" s="30">
         <v>6.29</v>
       </c>
-      <c r="J35" s="31">
+      <c r="J35" s="30">
         <v>5.34</v>
       </c>
-      <c r="K35" s="45">
+      <c r="K35" s="44">
         <f t="shared" si="29"/>
         <v>0.482142857142857</v>
       </c>
-      <c r="L35" s="45">
+      <c r="L35" s="44">
         <f t="shared" si="30"/>
         <v>0.0763116057233705</v>
       </c>
-      <c r="M35" s="45">
+      <c r="M35" s="44">
         <f t="shared" si="31"/>
         <v>0.177902621722846</v>
       </c>
-      <c r="N35" s="54"/>
-      <c r="O35" s="54"/>
-      <c r="P35" s="31"/>
-      <c r="Q35" s="31"/>
-      <c r="R35" s="31"/>
-      <c r="S35" s="31"/>
-      <c r="T35" s="31"/>
-      <c r="U35" s="31"/>
-      <c r="V35" s="31"/>
-      <c r="W35" s="31"/>
-      <c r="X35" s="31"/>
-      <c r="Y35" s="31"/>
-      <c r="Z35" s="31"/>
-      <c r="AA35" s="54"/>
-      <c r="AB35" s="45">
+      <c r="N35" s="52"/>
+      <c r="O35" s="52"/>
+      <c r="P35" s="30"/>
+      <c r="Q35" s="30"/>
+      <c r="R35" s="30"/>
+      <c r="S35" s="30"/>
+      <c r="T35" s="30"/>
+      <c r="U35" s="30"/>
+      <c r="V35" s="30"/>
+      <c r="W35" s="30"/>
+      <c r="X35" s="30"/>
+      <c r="Y35" s="30"/>
+      <c r="Z35" s="30"/>
+      <c r="AA35" s="52"/>
+      <c r="AB35" s="44">
         <f t="shared" si="24"/>
         <v>1</v>
       </c>
-      <c r="AC35" s="45" t="e">
+      <c r="AC35" s="44" t="e">
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD35" s="45" t="e">
+      <c r="AD35" s="44" t="e">
         <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE35" s="45" t="e">
+      <c r="AE35" s="44" t="e">
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF35" s="45" t="e">
+      <c r="AF35" s="44" t="e">
         <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG35" s="45"/>
-      <c r="AH35" s="54"/>
-      <c r="AI35" s="54"/>
-      <c r="AJ35" s="54"/>
-      <c r="AK35" s="54"/>
-      <c r="AL35" s="54"/>
-      <c r="AM35" s="54"/>
-      <c r="AN35" s="54"/>
-      <c r="AO35" s="54"/>
+      <c r="AG35" s="44"/>
+      <c r="AH35" s="52"/>
+      <c r="AI35" s="52"/>
+      <c r="AJ35" s="52"/>
+      <c r="AK35" s="52"/>
+      <c r="AL35" s="52"/>
+      <c r="AM35" s="52"/>
+      <c r="AN35" s="52"/>
+      <c r="AO35" s="52"/>
     </row>
     <row r="36" s="3" customFormat="1" ht="28" spans="1:41">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="C36" s="19" t="s">
+      <c r="C36" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="D36" s="20">
+      <c r="D36" s="19">
         <v>11.59</v>
       </c>
-      <c r="E36" s="20">
+      <c r="E36" s="19">
         <v>11.326</v>
       </c>
-      <c r="F36" s="20">
+      <c r="F36" s="19">
         <v>10.622</v>
       </c>
-      <c r="G36" s="20">
+      <c r="G36" s="19">
         <v>10.064</v>
       </c>
-      <c r="H36" s="29">
+      <c r="H36" s="28">
         <v>7.81</v>
       </c>
-      <c r="I36" s="29">
+      <c r="I36" s="28">
         <v>12.44</v>
       </c>
-      <c r="J36" s="29">
+      <c r="J36" s="28">
         <v>11.06</v>
       </c>
-      <c r="K36" s="44">
+      <c r="K36" s="43">
         <f t="shared" si="29"/>
         <v>0.483994878361076</v>
       </c>
-      <c r="L36" s="44">
+      <c r="L36" s="43">
         <f t="shared" si="30"/>
         <v>0.0683279742765273</v>
       </c>
-      <c r="M36" s="44">
+      <c r="M36" s="43">
         <f t="shared" si="31"/>
         <v>0.124773960216998</v>
       </c>
-      <c r="N36" s="53"/>
-      <c r="O36" s="53"/>
-      <c r="P36" s="29">
+      <c r="N36" s="51"/>
+      <c r="O36" s="51"/>
+      <c r="P36" s="28">
         <v>9.93</v>
       </c>
-      <c r="Q36" s="29"/>
-      <c r="R36" s="29"/>
-      <c r="S36" s="29"/>
-      <c r="T36" s="29"/>
-      <c r="U36" s="29"/>
-      <c r="V36" s="29"/>
-      <c r="W36" s="29"/>
-      <c r="X36" s="29"/>
-      <c r="Y36" s="29"/>
-      <c r="Z36" s="29"/>
-      <c r="AA36" s="53"/>
-      <c r="AB36" s="44">
+      <c r="Q36" s="28"/>
+      <c r="R36" s="28"/>
+      <c r="S36" s="28"/>
+      <c r="T36" s="28"/>
+      <c r="U36" s="28"/>
+      <c r="V36" s="28"/>
+      <c r="W36" s="28"/>
+      <c r="X36" s="28"/>
+      <c r="Y36" s="28"/>
+      <c r="Z36" s="28"/>
+      <c r="AA36" s="51"/>
+      <c r="AB36" s="43">
         <f t="shared" si="24"/>
         <v>0.201768488745981</v>
       </c>
-      <c r="AC36" s="44" t="e">
+      <c r="AC36" s="43" t="e">
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD36" s="44" t="e">
+      <c r="AD36" s="43" t="e">
         <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE36" s="44" t="e">
+      <c r="AE36" s="43" t="e">
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF36" s="44" t="e">
+      <c r="AF36" s="43" t="e">
         <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG36" s="44"/>
-      <c r="AH36" s="53"/>
-      <c r="AI36" s="53"/>
-      <c r="AJ36" s="53"/>
-      <c r="AK36" s="53"/>
-      <c r="AL36" s="53"/>
-      <c r="AM36" s="53"/>
-      <c r="AN36" s="53"/>
-      <c r="AO36" s="53"/>
+      <c r="AG36" s="43"/>
+      <c r="AH36" s="51"/>
+      <c r="AI36" s="51"/>
+      <c r="AJ36" s="51"/>
+      <c r="AK36" s="51"/>
+      <c r="AL36" s="51"/>
+      <c r="AM36" s="51"/>
+      <c r="AN36" s="51"/>
+      <c r="AO36" s="51"/>
     </row>
     <row r="37" s="4" customFormat="1" ht="28" spans="1:41">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="C37" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D37" s="22">
+      <c r="D37" s="21">
         <v>4.15</v>
       </c>
-      <c r="E37" s="22">
+      <c r="E37" s="21">
         <v>3.9</v>
       </c>
-      <c r="F37" s="22">
+      <c r="F37" s="21">
         <v>3.74</v>
       </c>
-      <c r="G37" s="22">
+      <c r="G37" s="21">
         <v>3.718</v>
       </c>
-      <c r="H37" s="31">
+      <c r="H37" s="30">
         <v>3.41</v>
       </c>
-      <c r="I37" s="31">
+      <c r="I37" s="30">
         <v>5.2</v>
       </c>
-      <c r="J37" s="31">
+      <c r="J37" s="30">
         <v>3.94</v>
       </c>
-      <c r="K37" s="45">
+      <c r="K37" s="44">
         <f t="shared" si="29"/>
         <v>0.217008797653959</v>
       </c>
-      <c r="L37" s="45">
+      <c r="L37" s="44">
         <f t="shared" si="30"/>
         <v>0.201923076923077</v>
       </c>
-      <c r="M37" s="45">
+      <c r="M37" s="44">
         <f t="shared" si="31"/>
         <v>0.319796954314721</v>
       </c>
-      <c r="N37" s="54"/>
-      <c r="O37" s="54"/>
-      <c r="P37" s="31"/>
-      <c r="Q37" s="31"/>
-      <c r="R37" s="31"/>
-      <c r="S37" s="31"/>
-      <c r="T37" s="31"/>
-      <c r="U37" s="31"/>
-      <c r="V37" s="31"/>
-      <c r="W37" s="31"/>
-      <c r="X37" s="31"/>
-      <c r="Y37" s="31"/>
-      <c r="Z37" s="31"/>
-      <c r="AA37" s="54"/>
-      <c r="AB37" s="45">
+      <c r="N37" s="52"/>
+      <c r="O37" s="52"/>
+      <c r="P37" s="30"/>
+      <c r="Q37" s="30"/>
+      <c r="R37" s="30"/>
+      <c r="S37" s="30"/>
+      <c r="T37" s="30"/>
+      <c r="U37" s="30"/>
+      <c r="V37" s="30"/>
+      <c r="W37" s="30"/>
+      <c r="X37" s="30"/>
+      <c r="Y37" s="30"/>
+      <c r="Z37" s="30"/>
+      <c r="AA37" s="52"/>
+      <c r="AB37" s="44">
         <f t="shared" si="24"/>
         <v>1</v>
       </c>
-      <c r="AC37" s="45" t="e">
+      <c r="AC37" s="44" t="e">
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD37" s="45" t="e">
+      <c r="AD37" s="44" t="e">
         <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE37" s="45" t="e">
+      <c r="AE37" s="44" t="e">
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF37" s="45" t="e">
+      <c r="AF37" s="44" t="e">
         <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG37" s="45"/>
-      <c r="AH37" s="54"/>
-      <c r="AI37" s="54"/>
-      <c r="AJ37" s="54"/>
-      <c r="AK37" s="54"/>
-      <c r="AL37" s="54"/>
-      <c r="AM37" s="54"/>
-      <c r="AN37" s="54"/>
-      <c r="AO37" s="54"/>
+      <c r="AG37" s="44"/>
+      <c r="AH37" s="52"/>
+      <c r="AI37" s="52"/>
+      <c r="AJ37" s="52"/>
+      <c r="AK37" s="52"/>
+      <c r="AL37" s="52"/>
+      <c r="AM37" s="52"/>
+      <c r="AN37" s="52"/>
+      <c r="AO37" s="52"/>
     </row>
     <row r="38" s="2" customFormat="1" ht="28" spans="1:41">
-      <c r="A38" s="17" t="s">
+      <c r="A38" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D38" s="18">
+      <c r="D38" s="17">
         <v>23.32</v>
       </c>
-      <c r="E38" s="18">
+      <c r="E38" s="17">
         <v>23.155</v>
       </c>
-      <c r="F38" s="18">
+      <c r="F38" s="17">
         <v>22.273</v>
       </c>
-      <c r="G38" s="18">
+      <c r="G38" s="17">
         <v>21.577</v>
       </c>
-      <c r="H38" s="36">
+      <c r="H38" s="35">
         <v>17.82</v>
       </c>
-      <c r="I38" s="36">
+      <c r="I38" s="35">
         <v>25.66</v>
       </c>
-      <c r="J38" s="36">
+      <c r="J38" s="35">
         <v>19.39</v>
       </c>
-      <c r="K38" s="43">
+      <c r="K38" s="42">
         <f t="shared" si="29"/>
         <v>0.308641975308642</v>
       </c>
-      <c r="L38" s="43">
+      <c r="L38" s="42">
         <f t="shared" si="30"/>
         <v>0.0911925175370226</v>
       </c>
-      <c r="M38" s="43">
+      <c r="M38" s="42">
         <f t="shared" si="31"/>
         <v>0.323362558019598</v>
       </c>
-      <c r="N38" s="52"/>
-      <c r="O38" s="52"/>
-      <c r="P38" s="34">
+      <c r="N38" s="50"/>
+      <c r="O38" s="50"/>
+      <c r="P38" s="33">
         <v>19.88</v>
       </c>
-      <c r="Q38" s="34">
+      <c r="Q38" s="33">
         <v>25.45</v>
       </c>
-      <c r="R38" s="34">
+      <c r="R38" s="33">
         <v>21.52</v>
       </c>
-      <c r="S38" s="34">
+      <c r="S38" s="33">
         <v>24.83</v>
       </c>
-      <c r="T38" s="34">
+      <c r="T38" s="33">
         <v>21.75</v>
       </c>
-      <c r="U38" s="34"/>
-      <c r="V38" s="34"/>
-      <c r="W38" s="34"/>
-      <c r="X38" s="34"/>
-      <c r="Y38" s="34"/>
-      <c r="Z38" s="34"/>
-      <c r="AA38" s="52"/>
-      <c r="AB38" s="43">
+      <c r="U38" s="33"/>
+      <c r="V38" s="33"/>
+      <c r="W38" s="33"/>
+      <c r="X38" s="33"/>
+      <c r="Y38" s="33"/>
+      <c r="Z38" s="33"/>
+      <c r="AA38" s="50"/>
+      <c r="AB38" s="42">
         <f t="shared" si="24"/>
         <v>0.225253312548714</v>
       </c>
-      <c r="AC38" s="43">
+      <c r="AC38" s="42">
         <f t="shared" si="25"/>
         <v>0.154420432220039</v>
       </c>
-      <c r="AD38" s="43">
+      <c r="AD38" s="42">
         <f t="shared" si="26"/>
         <v>0.124043495771244</v>
       </c>
-      <c r="AE38" s="43" t="e">
+      <c r="AE38" s="42" t="e">
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF38" s="43" t="e">
+      <c r="AF38" s="42" t="e">
         <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG38" s="43"/>
-      <c r="AH38" s="52"/>
-      <c r="AI38" s="52"/>
-      <c r="AJ38" s="52"/>
-      <c r="AK38" s="52"/>
-      <c r="AL38" s="52"/>
-      <c r="AM38" s="52"/>
-      <c r="AN38" s="52"/>
-      <c r="AO38" s="52"/>
+      <c r="AG38" s="42"/>
+      <c r="AH38" s="50"/>
+      <c r="AI38" s="50"/>
+      <c r="AJ38" s="50"/>
+      <c r="AK38" s="50"/>
+      <c r="AL38" s="50"/>
+      <c r="AM38" s="50"/>
+      <c r="AN38" s="50"/>
+      <c r="AO38" s="50"/>
     </row>
     <row r="39" s="4" customFormat="1" ht="28" spans="1:41">
-      <c r="A39" s="21" t="s">
+      <c r="A39" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="B39" s="21" t="s">
+      <c r="B39" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="C39" s="21" t="s">
+      <c r="C39" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="D39" s="22">
+      <c r="D39" s="21">
         <v>3.89</v>
       </c>
-      <c r="E39" s="22">
+      <c r="E39" s="21">
         <v>3.76</v>
       </c>
-      <c r="F39" s="22">
+      <c r="F39" s="21">
         <v>3.543</v>
       </c>
-      <c r="G39" s="22">
+      <c r="G39" s="21">
         <v>3.464</v>
       </c>
-      <c r="H39" s="31">
+      <c r="H39" s="30">
         <v>3</v>
       </c>
-      <c r="I39" s="31">
+      <c r="I39" s="30">
         <v>4.55</v>
       </c>
-      <c r="J39" s="31">
+      <c r="J39" s="30">
         <v>3.54</v>
       </c>
-      <c r="K39" s="45">
+      <c r="K39" s="44">
         <f t="shared" si="29"/>
         <v>0.296666666666667</v>
       </c>
-      <c r="L39" s="45">
+      <c r="L39" s="44">
         <f t="shared" si="30"/>
         <v>0.145054945054945</v>
       </c>
-      <c r="M39" s="45">
+      <c r="M39" s="44">
         <f t="shared" si="31"/>
         <v>0.285310734463277</v>
       </c>
-      <c r="N39" s="54"/>
-      <c r="O39" s="54"/>
-      <c r="P39" s="31"/>
-      <c r="Q39" s="31"/>
-      <c r="R39" s="31"/>
-      <c r="S39" s="31"/>
-      <c r="T39" s="31"/>
-      <c r="U39" s="31"/>
-      <c r="V39" s="31"/>
-      <c r="W39" s="31"/>
-      <c r="X39" s="31"/>
-      <c r="Y39" s="31"/>
-      <c r="Z39" s="31"/>
-      <c r="AA39" s="54"/>
-      <c r="AB39" s="45">
+      <c r="N39" s="52"/>
+      <c r="O39" s="52"/>
+      <c r="P39" s="30"/>
+      <c r="Q39" s="30"/>
+      <c r="R39" s="30"/>
+      <c r="S39" s="30"/>
+      <c r="T39" s="30"/>
+      <c r="U39" s="30"/>
+      <c r="V39" s="30"/>
+      <c r="W39" s="30"/>
+      <c r="X39" s="30"/>
+      <c r="Y39" s="30"/>
+      <c r="Z39" s="30"/>
+      <c r="AA39" s="52"/>
+      <c r="AB39" s="44">
         <f t="shared" si="24"/>
         <v>1</v>
       </c>
-      <c r="AC39" s="45" t="e">
+      <c r="AC39" s="44" t="e">
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD39" s="45" t="e">
+      <c r="AD39" s="44" t="e">
         <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE39" s="45" t="e">
+      <c r="AE39" s="44" t="e">
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF39" s="45" t="e">
+      <c r="AF39" s="44" t="e">
         <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG39" s="45"/>
-      <c r="AH39" s="54"/>
-      <c r="AI39" s="54"/>
-      <c r="AJ39" s="54"/>
-      <c r="AK39" s="54"/>
-      <c r="AL39" s="54"/>
-      <c r="AM39" s="54"/>
-      <c r="AN39" s="54"/>
-      <c r="AO39" s="54"/>
+      <c r="AG39" s="44"/>
+      <c r="AH39" s="52"/>
+      <c r="AI39" s="52"/>
+      <c r="AJ39" s="52"/>
+      <c r="AK39" s="52"/>
+      <c r="AL39" s="52"/>
+      <c r="AM39" s="52"/>
+      <c r="AN39" s="52"/>
+      <c r="AO39" s="52"/>
     </row>
     <row r="40" s="2" customFormat="1" ht="28" spans="1:41">
-      <c r="A40" s="17" t="s">
+      <c r="A40" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="C40" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="D40" s="18">
+      <c r="D40" s="17">
         <v>3.86</v>
       </c>
-      <c r="E40" s="18">
+      <c r="E40" s="17">
         <v>3.743</v>
       </c>
-      <c r="F40" s="18">
+      <c r="F40" s="17">
         <v>3.373</v>
       </c>
-      <c r="G40" s="18">
+      <c r="G40" s="17">
         <v>3.244</v>
       </c>
-      <c r="H40" s="34">
+      <c r="H40" s="33">
         <v>2.49</v>
       </c>
-      <c r="I40" s="34">
+      <c r="I40" s="33">
         <v>4.48</v>
       </c>
-      <c r="J40" s="34">
+      <c r="J40" s="33">
         <v>2.85</v>
       </c>
-      <c r="K40" s="43">
+      <c r="K40" s="42">
         <f t="shared" si="29"/>
         <v>0.550200803212851</v>
       </c>
-      <c r="L40" s="43">
+      <c r="L40" s="42">
         <f t="shared" si="30"/>
         <v>0.138392857142857</v>
       </c>
-      <c r="M40" s="43">
+      <c r="M40" s="42">
         <f t="shared" si="31"/>
         <v>0.571929824561404</v>
       </c>
-      <c r="N40" s="52"/>
-      <c r="O40" s="52"/>
-      <c r="P40" s="34">
+      <c r="N40" s="50"/>
+      <c r="O40" s="50"/>
+      <c r="P40" s="33">
         <v>2.84</v>
       </c>
-      <c r="Q40" s="34">
+      <c r="Q40" s="33">
         <v>4.06</v>
       </c>
-      <c r="R40" s="34">
+      <c r="R40" s="33">
         <v>3.35</v>
       </c>
-      <c r="S40" s="34">
+      <c r="S40" s="33">
         <v>4.25</v>
       </c>
-      <c r="T40" s="34">
+      <c r="T40" s="33">
         <v>3.72</v>
       </c>
-      <c r="U40" s="34"/>
-      <c r="V40" s="34"/>
-      <c r="W40" s="61"/>
-      <c r="X40" s="61"/>
-      <c r="Y40" s="34"/>
-      <c r="Z40" s="34"/>
-      <c r="AA40" s="52"/>
-      <c r="AB40" s="43">
+      <c r="U40" s="33"/>
+      <c r="V40" s="33"/>
+      <c r="W40" s="57"/>
+      <c r="X40" s="57"/>
+      <c r="Y40" s="33"/>
+      <c r="Z40" s="33"/>
+      <c r="AA40" s="50"/>
+      <c r="AB40" s="42">
         <f t="shared" si="24"/>
         <v>0.366071428571429</v>
       </c>
-      <c r="AC40" s="43">
+      <c r="AC40" s="42">
         <f t="shared" si="25"/>
         <v>0.17487684729064</v>
       </c>
-      <c r="AD40" s="43">
+      <c r="AD40" s="42">
         <f t="shared" si="26"/>
         <v>0.124705882352941</v>
       </c>
-      <c r="AE40" s="43" t="e">
+      <c r="AE40" s="42" t="e">
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF40" s="43" t="e">
+      <c r="AF40" s="42" t="e">
         <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG40" s="43"/>
-      <c r="AH40" s="52"/>
-      <c r="AI40" s="52"/>
-      <c r="AJ40" s="52"/>
-      <c r="AK40" s="52"/>
-      <c r="AL40" s="52"/>
-      <c r="AM40" s="52"/>
-      <c r="AN40" s="52"/>
-      <c r="AO40" s="52"/>
+      <c r="AG40" s="42"/>
+      <c r="AH40" s="50"/>
+      <c r="AI40" s="50"/>
+      <c r="AJ40" s="50"/>
+      <c r="AK40" s="50"/>
+      <c r="AL40" s="50"/>
+      <c r="AM40" s="50"/>
+      <c r="AN40" s="50"/>
+      <c r="AO40" s="50"/>
     </row>
     <row r="41" s="3" customFormat="1" ht="28" spans="1:41">
-      <c r="A41" s="19" t="s">
+      <c r="A41" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="B41" s="19" t="s">
+      <c r="B41" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="C41" s="19" t="s">
+      <c r="C41" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D41" s="20">
+      <c r="D41" s="19">
         <v>32.9</v>
       </c>
-      <c r="E41" s="20">
+      <c r="E41" s="19">
         <v>32.795</v>
       </c>
-      <c r="F41" s="20">
+      <c r="F41" s="19">
         <v>32.777</v>
       </c>
-      <c r="G41" s="20">
+      <c r="G41" s="19">
         <v>32.607</v>
       </c>
-      <c r="H41" s="37">
+      <c r="H41" s="36">
         <v>24.48</v>
       </c>
-      <c r="I41" s="37">
+      <c r="I41" s="36">
         <v>41.28</v>
       </c>
-      <c r="J41" s="37">
+      <c r="J41" s="36">
         <v>36.61</v>
       </c>
-      <c r="K41" s="44">
+      <c r="K41" s="43">
         <f t="shared" ref="K41:K47" si="32">(D41-H41)/H41</f>
         <v>0.343954248366013</v>
       </c>
-      <c r="L41" s="44">
+      <c r="L41" s="43">
         <f t="shared" ref="L41:L47" si="33">(I41-D41)/I41</f>
         <v>0.203003875968992</v>
       </c>
-      <c r="M41" s="44">
+      <c r="M41" s="43">
         <f t="shared" ref="M41:M47" si="34">(I41-J41)/J41</f>
         <v>0.127560775744332</v>
       </c>
-      <c r="N41" s="53"/>
-      <c r="O41" s="53"/>
-      <c r="P41" s="37">
+      <c r="N41" s="51"/>
+      <c r="O41" s="51"/>
+      <c r="P41" s="36">
         <v>26.63</v>
       </c>
-      <c r="Q41" s="29"/>
-      <c r="R41" s="29"/>
-      <c r="S41" s="29"/>
-      <c r="T41" s="29"/>
-      <c r="U41" s="29"/>
-      <c r="V41" s="29"/>
-      <c r="W41" s="29"/>
-      <c r="X41" s="29"/>
-      <c r="Y41" s="29"/>
-      <c r="Z41" s="29"/>
-      <c r="AA41" s="53"/>
-      <c r="AB41" s="44">
+      <c r="Q41" s="28"/>
+      <c r="R41" s="28"/>
+      <c r="S41" s="28"/>
+      <c r="T41" s="28"/>
+      <c r="U41" s="28"/>
+      <c r="V41" s="28"/>
+      <c r="W41" s="28"/>
+      <c r="X41" s="28"/>
+      <c r="Y41" s="28"/>
+      <c r="Z41" s="28"/>
+      <c r="AA41" s="51"/>
+      <c r="AB41" s="43">
         <f t="shared" ref="AB41:AB47" si="35">(I41-P41)/I41</f>
         <v>0.354893410852713</v>
       </c>
-      <c r="AC41" s="44" t="e">
+      <c r="AC41" s="43" t="e">
         <f t="shared" ref="AC41:AC47" si="36">(Q41-R41)/Q41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD41" s="44" t="e">
+      <c r="AD41" s="43" t="e">
         <f t="shared" ref="AD41:AD47" si="37">(S41-T41)/S41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE41" s="44" t="e">
+      <c r="AE41" s="43" t="e">
         <f t="shared" ref="AE41:AE47" si="38">(U41-V41)/U41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF41" s="44" t="e">
+      <c r="AF41" s="43" t="e">
         <f t="shared" ref="AF41:AF47" si="39">(W41-X41)/W41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG41" s="44"/>
-      <c r="AH41" s="53"/>
-      <c r="AI41" s="53"/>
-      <c r="AJ41" s="53"/>
-      <c r="AK41" s="53"/>
-      <c r="AL41" s="53"/>
-      <c r="AM41" s="53"/>
-      <c r="AN41" s="53"/>
-      <c r="AO41" s="53"/>
+      <c r="AG41" s="43"/>
+      <c r="AH41" s="51"/>
+      <c r="AI41" s="51"/>
+      <c r="AJ41" s="51"/>
+      <c r="AK41" s="51"/>
+      <c r="AL41" s="51"/>
+      <c r="AM41" s="51"/>
+      <c r="AN41" s="51"/>
+      <c r="AO41" s="51"/>
     </row>
     <row r="42" s="3" customFormat="1" ht="28" spans="1:41">
-      <c r="A42" s="19" t="s">
+      <c r="A42" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="C42" s="19" t="s">
+      <c r="C42" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="D42" s="20">
+      <c r="D42" s="19">
         <v>3.88</v>
       </c>
-      <c r="E42" s="20">
+      <c r="E42" s="19">
         <v>3.803</v>
       </c>
-      <c r="F42" s="20">
+      <c r="F42" s="19">
         <v>3.314</v>
       </c>
-      <c r="G42" s="20">
+      <c r="G42" s="19">
         <v>3.279</v>
       </c>
-      <c r="H42" s="29">
+      <c r="H42" s="28">
         <v>2.63</v>
       </c>
-      <c r="I42" s="29">
+      <c r="I42" s="28">
         <v>4.94</v>
       </c>
-      <c r="J42" s="29">
+      <c r="J42" s="28">
         <v>3.72</v>
       </c>
-      <c r="K42" s="44">
+      <c r="K42" s="43">
         <f t="shared" si="32"/>
         <v>0.475285171102662</v>
       </c>
-      <c r="L42" s="44">
+      <c r="L42" s="43">
         <f t="shared" si="33"/>
         <v>0.214574898785425</v>
       </c>
-      <c r="M42" s="44">
+      <c r="M42" s="43">
         <f t="shared" si="34"/>
         <v>0.327956989247312</v>
       </c>
-      <c r="N42" s="53"/>
-      <c r="O42" s="53"/>
-      <c r="P42" s="29">
+      <c r="N42" s="51"/>
+      <c r="O42" s="51"/>
+      <c r="P42" s="28">
         <v>3.56</v>
       </c>
-      <c r="Q42" s="29"/>
-      <c r="R42" s="29"/>
-      <c r="S42" s="29"/>
-      <c r="T42" s="29"/>
-      <c r="U42" s="29"/>
-      <c r="V42" s="29"/>
-      <c r="W42" s="29"/>
-      <c r="X42" s="29"/>
-      <c r="Y42" s="29"/>
-      <c r="Z42" s="29"/>
-      <c r="AA42" s="53"/>
-      <c r="AB42" s="44">
+      <c r="Q42" s="28"/>
+      <c r="R42" s="28"/>
+      <c r="S42" s="28"/>
+      <c r="T42" s="28"/>
+      <c r="U42" s="28"/>
+      <c r="V42" s="28"/>
+      <c r="W42" s="28"/>
+      <c r="X42" s="28"/>
+      <c r="Y42" s="28"/>
+      <c r="Z42" s="28"/>
+      <c r="AA42" s="51"/>
+      <c r="AB42" s="43">
         <f t="shared" si="35"/>
         <v>0.279352226720648</v>
       </c>
-      <c r="AC42" s="44" t="e">
+      <c r="AC42" s="43" t="e">
         <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD42" s="44" t="e">
+      <c r="AD42" s="43" t="e">
         <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE42" s="44" t="e">
+      <c r="AE42" s="43" t="e">
         <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF42" s="44" t="e">
+      <c r="AF42" s="43" t="e">
         <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG42" s="44"/>
-      <c r="AH42" s="53"/>
-      <c r="AI42" s="53"/>
-      <c r="AJ42" s="53"/>
-      <c r="AK42" s="53"/>
-      <c r="AL42" s="53"/>
-      <c r="AM42" s="53"/>
-      <c r="AN42" s="53"/>
-      <c r="AO42" s="53"/>
+      <c r="AG42" s="43"/>
+      <c r="AH42" s="51"/>
+      <c r="AI42" s="51"/>
+      <c r="AJ42" s="51"/>
+      <c r="AK42" s="51"/>
+      <c r="AL42" s="51"/>
+      <c r="AM42" s="51"/>
+      <c r="AN42" s="51"/>
+      <c r="AO42" s="51"/>
     </row>
     <row r="43" s="4" customFormat="1" ht="28" spans="1:41">
-      <c r="A43" s="21" t="s">
+      <c r="A43" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="B43" s="21" t="s">
+      <c r="B43" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="C43" s="21" t="s">
+      <c r="C43" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D43" s="22">
+      <c r="D43" s="21">
         <v>3.77</v>
       </c>
-      <c r="E43" s="22">
+      <c r="E43" s="21">
         <v>3.718</v>
       </c>
-      <c r="F43" s="22">
+      <c r="F43" s="21">
         <v>3.323</v>
       </c>
-      <c r="G43" s="22">
+      <c r="G43" s="21">
         <v>3.226</v>
       </c>
-      <c r="H43" s="31">
+      <c r="H43" s="30">
         <v>2.66</v>
       </c>
-      <c r="I43" s="31">
+      <c r="I43" s="30">
         <v>4.42</v>
       </c>
-      <c r="J43" s="31">
+      <c r="J43" s="30">
         <v>4.05</v>
       </c>
-      <c r="K43" s="45">
+      <c r="K43" s="44">
         <f t="shared" si="32"/>
         <v>0.417293233082707</v>
       </c>
-      <c r="L43" s="45">
+      <c r="L43" s="44">
         <f t="shared" si="33"/>
         <v>0.147058823529412</v>
       </c>
-      <c r="M43" s="45">
+      <c r="M43" s="44">
         <f t="shared" si="34"/>
         <v>0.091358024691358</v>
       </c>
-      <c r="N43" s="54"/>
-      <c r="O43" s="54"/>
-      <c r="P43" s="31"/>
-      <c r="Q43" s="31"/>
-      <c r="R43" s="31"/>
-      <c r="S43" s="31"/>
-      <c r="T43" s="31"/>
-      <c r="U43" s="31"/>
-      <c r="V43" s="31"/>
-      <c r="W43" s="31"/>
-      <c r="X43" s="31"/>
-      <c r="Y43" s="31"/>
-      <c r="Z43" s="31"/>
-      <c r="AA43" s="54"/>
-      <c r="AB43" s="45">
+      <c r="N43" s="52"/>
+      <c r="O43" s="52"/>
+      <c r="P43" s="30"/>
+      <c r="Q43" s="30"/>
+      <c r="R43" s="30"/>
+      <c r="S43" s="30"/>
+      <c r="T43" s="30"/>
+      <c r="U43" s="30"/>
+      <c r="V43" s="30"/>
+      <c r="W43" s="30"/>
+      <c r="X43" s="30"/>
+      <c r="Y43" s="30"/>
+      <c r="Z43" s="30"/>
+      <c r="AA43" s="52"/>
+      <c r="AB43" s="44">
         <f t="shared" si="35"/>
         <v>1</v>
       </c>
-      <c r="AC43" s="45" t="e">
+      <c r="AC43" s="44" t="e">
         <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD43" s="45" t="e">
+      <c r="AD43" s="44" t="e">
         <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE43" s="45" t="e">
+      <c r="AE43" s="44" t="e">
         <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF43" s="45" t="e">
+      <c r="AF43" s="44" t="e">
         <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG43" s="45"/>
-      <c r="AH43" s="54"/>
-      <c r="AI43" s="54"/>
-      <c r="AJ43" s="54"/>
-      <c r="AK43" s="54"/>
-      <c r="AL43" s="54"/>
-      <c r="AM43" s="54"/>
-      <c r="AN43" s="54"/>
-      <c r="AO43" s="54"/>
+      <c r="AG43" s="44"/>
+      <c r="AH43" s="52"/>
+      <c r="AI43" s="52"/>
+      <c r="AJ43" s="52"/>
+      <c r="AK43" s="52"/>
+      <c r="AL43" s="52"/>
+      <c r="AM43" s="52"/>
+      <c r="AN43" s="52"/>
+      <c r="AO43" s="52"/>
     </row>
     <row r="44" s="4" customFormat="1" ht="28" spans="1:41">
-      <c r="A44" s="21" t="s">
+      <c r="A44" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="B44" s="21" t="s">
+      <c r="B44" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="C44" s="21" t="s">
+      <c r="C44" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="D44" s="22">
+      <c r="D44" s="21">
         <v>8.7</v>
       </c>
-      <c r="E44" s="22">
+      <c r="E44" s="21">
         <v>8.666</v>
       </c>
-      <c r="F44" s="22">
+      <c r="F44" s="21">
         <v>6.833</v>
       </c>
-      <c r="G44" s="22">
+      <c r="G44" s="21">
         <v>6.247</v>
       </c>
-      <c r="H44" s="31">
+      <c r="H44" s="30">
         <v>3.99</v>
       </c>
-      <c r="I44" s="31">
+      <c r="I44" s="30">
         <v>13.05</v>
       </c>
-      <c r="J44" s="31">
+      <c r="J44" s="30">
         <v>5.19</v>
       </c>
-      <c r="K44" s="45">
+      <c r="K44" s="44">
         <f t="shared" si="32"/>
         <v>1.18045112781955</v>
       </c>
-      <c r="L44" s="45">
+      <c r="L44" s="44">
         <f t="shared" si="33"/>
         <v>0.333333333333333</v>
       </c>
-      <c r="M44" s="55">
+      <c r="M44" s="53">
         <f t="shared" si="34"/>
         <v>1.51445086705202</v>
       </c>
-      <c r="N44" s="54"/>
-      <c r="O44" s="54"/>
-      <c r="P44" s="31">
+      <c r="N44" s="52"/>
+      <c r="O44" s="52"/>
+      <c r="P44" s="30">
         <v>7.13</v>
       </c>
-      <c r="Q44" s="31"/>
-      <c r="R44" s="31"/>
-      <c r="S44" s="31"/>
-      <c r="T44" s="31"/>
-      <c r="U44" s="31"/>
-      <c r="V44" s="31"/>
-      <c r="W44" s="31"/>
-      <c r="X44" s="31"/>
-      <c r="Y44" s="31"/>
-      <c r="Z44" s="31"/>
-      <c r="AA44" s="54"/>
-      <c r="AB44" s="45">
+      <c r="Q44" s="30"/>
+      <c r="R44" s="30"/>
+      <c r="S44" s="30"/>
+      <c r="T44" s="30"/>
+      <c r="U44" s="30"/>
+      <c r="V44" s="30"/>
+      <c r="W44" s="30"/>
+      <c r="X44" s="30"/>
+      <c r="Y44" s="30"/>
+      <c r="Z44" s="30"/>
+      <c r="AA44" s="52"/>
+      <c r="AB44" s="44">
         <f t="shared" si="35"/>
         <v>0.453639846743295</v>
       </c>
-      <c r="AC44" s="45" t="e">
+      <c r="AC44" s="44" t="e">
         <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD44" s="45" t="e">
+      <c r="AD44" s="44" t="e">
         <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE44" s="45" t="e">
+      <c r="AE44" s="44" t="e">
         <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF44" s="45" t="e">
+      <c r="AF44" s="44" t="e">
         <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG44" s="45"/>
-      <c r="AH44" s="54"/>
-      <c r="AI44" s="54"/>
-      <c r="AJ44" s="54"/>
-      <c r="AK44" s="54"/>
-      <c r="AL44" s="54"/>
-      <c r="AM44" s="54"/>
-      <c r="AN44" s="54"/>
-      <c r="AO44" s="54"/>
+      <c r="AG44" s="44"/>
+      <c r="AH44" s="52"/>
+      <c r="AI44" s="52"/>
+      <c r="AJ44" s="52"/>
+      <c r="AK44" s="52"/>
+      <c r="AL44" s="52"/>
+      <c r="AM44" s="52"/>
+      <c r="AN44" s="52"/>
+      <c r="AO44" s="52"/>
     </row>
     <row r="45" s="2" customFormat="1" ht="28" spans="1:41">
-      <c r="A45" s="17" t="s">
+      <c r="A45" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="B45" s="17" t="s">
+      <c r="B45" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="C45" s="17" t="s">
+      <c r="C45" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="D45" s="18">
+      <c r="D45" s="17">
         <v>10.4</v>
       </c>
-      <c r="E45" s="18">
+      <c r="E45" s="17">
         <v>10.378</v>
       </c>
-      <c r="F45" s="18">
+      <c r="F45" s="17">
         <v>8.54</v>
       </c>
-      <c r="G45" s="18">
+      <c r="G45" s="17">
         <v>8.228</v>
       </c>
-      <c r="H45" s="36">
+      <c r="H45" s="35">
         <v>5.74</v>
       </c>
-      <c r="I45" s="36">
+      <c r="I45" s="35">
         <v>12</v>
       </c>
-      <c r="J45" s="36">
+      <c r="J45" s="35">
         <v>9.91</v>
       </c>
-      <c r="K45" s="43">
+      <c r="K45" s="42">
         <f t="shared" si="32"/>
         <v>0.81184668989547</v>
       </c>
-      <c r="L45" s="43">
+      <c r="L45" s="42">
         <f t="shared" si="33"/>
         <v>0.133333333333333</v>
       </c>
-      <c r="M45" s="43">
+      <c r="M45" s="42">
         <f t="shared" si="34"/>
         <v>0.210898082744702</v>
       </c>
-      <c r="N45" s="52"/>
-      <c r="O45" s="52"/>
-      <c r="P45" s="36">
+      <c r="N45" s="50"/>
+      <c r="O45" s="50"/>
+      <c r="P45" s="35">
         <v>9.75</v>
       </c>
-      <c r="Q45" s="34"/>
-      <c r="R45" s="34"/>
-      <c r="S45" s="34"/>
-      <c r="T45" s="34"/>
-      <c r="U45" s="34"/>
-      <c r="V45" s="34"/>
-      <c r="W45" s="34"/>
-      <c r="X45" s="34"/>
-      <c r="Y45" s="34"/>
-      <c r="Z45" s="34"/>
-      <c r="AA45" s="52"/>
-      <c r="AB45" s="43">
+      <c r="Q45" s="33"/>
+      <c r="R45" s="33"/>
+      <c r="S45" s="33"/>
+      <c r="T45" s="33"/>
+      <c r="U45" s="33"/>
+      <c r="V45" s="33"/>
+      <c r="W45" s="33"/>
+      <c r="X45" s="33"/>
+      <c r="Y45" s="33"/>
+      <c r="Z45" s="33"/>
+      <c r="AA45" s="50"/>
+      <c r="AB45" s="42">
         <f t="shared" si="35"/>
         <v>0.1875</v>
       </c>
-      <c r="AC45" s="43" t="e">
+      <c r="AC45" s="42" t="e">
         <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD45" s="43" t="e">
+      <c r="AD45" s="42" t="e">
         <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE45" s="43" t="e">
+      <c r="AE45" s="42" t="e">
         <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF45" s="43" t="e">
+      <c r="AF45" s="42" t="e">
         <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG45" s="43"/>
-      <c r="AH45" s="52"/>
-      <c r="AI45" s="52"/>
-      <c r="AJ45" s="52"/>
-      <c r="AK45" s="52"/>
-      <c r="AL45" s="52"/>
-      <c r="AM45" s="52"/>
-      <c r="AN45" s="52"/>
-      <c r="AO45" s="52"/>
+      <c r="AG45" s="42"/>
+      <c r="AH45" s="50"/>
+      <c r="AI45" s="50"/>
+      <c r="AJ45" s="50"/>
+      <c r="AK45" s="50"/>
+      <c r="AL45" s="50"/>
+      <c r="AM45" s="50"/>
+      <c r="AN45" s="50"/>
+      <c r="AO45" s="50"/>
     </row>
     <row r="46" s="3" customFormat="1" ht="28" spans="1:41">
-      <c r="A46" s="19" t="s">
+      <c r="A46" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="B46" s="19" t="s">
+      <c r="B46" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="C46" s="19" t="s">
+      <c r="C46" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="D46" s="20">
+      <c r="D46" s="19">
         <v>6.46</v>
       </c>
-      <c r="E46" s="20">
+      <c r="E46" s="19">
         <v>6.44</v>
       </c>
-      <c r="F46" s="20">
+      <c r="F46" s="19">
         <v>6.101</v>
       </c>
-      <c r="G46" s="20">
+      <c r="G46" s="19">
         <v>6.074</v>
       </c>
-      <c r="H46" s="29">
+      <c r="H46" s="28">
         <v>5.1</v>
       </c>
-      <c r="I46" s="29">
+      <c r="I46" s="28">
         <v>7.27</v>
       </c>
-      <c r="J46" s="29">
+      <c r="J46" s="28">
         <v>5.78</v>
       </c>
-      <c r="K46" s="44">
+      <c r="K46" s="43">
         <f t="shared" si="32"/>
         <v>0.266666666666667</v>
       </c>
-      <c r="L46" s="44">
+      <c r="L46" s="43">
         <f t="shared" si="33"/>
         <v>0.111416781292985</v>
       </c>
-      <c r="M46" s="44">
+      <c r="M46" s="43">
         <f t="shared" si="34"/>
         <v>0.257785467128028</v>
       </c>
-      <c r="N46" s="53"/>
-      <c r="O46" s="53"/>
-      <c r="P46" s="29">
+      <c r="N46" s="51"/>
+      <c r="O46" s="51"/>
+      <c r="P46" s="28">
         <v>5.78</v>
       </c>
-      <c r="Q46" s="29"/>
-      <c r="R46" s="29"/>
-      <c r="S46" s="29"/>
-      <c r="T46" s="29"/>
-      <c r="U46" s="29"/>
-      <c r="V46" s="29"/>
-      <c r="W46" s="29"/>
-      <c r="X46" s="29"/>
-      <c r="Y46" s="29"/>
-      <c r="Z46" s="29"/>
-      <c r="AA46" s="53"/>
-      <c r="AB46" s="44">
+      <c r="Q46" s="28"/>
+      <c r="R46" s="28"/>
+      <c r="S46" s="28"/>
+      <c r="T46" s="28"/>
+      <c r="U46" s="28"/>
+      <c r="V46" s="28"/>
+      <c r="W46" s="28"/>
+      <c r="X46" s="28"/>
+      <c r="Y46" s="28"/>
+      <c r="Z46" s="28"/>
+      <c r="AA46" s="51"/>
+      <c r="AB46" s="43">
         <f t="shared" si="35"/>
         <v>0.204951856946355</v>
       </c>
-      <c r="AC46" s="44" t="e">
+      <c r="AC46" s="43" t="e">
         <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD46" s="44" t="e">
+      <c r="AD46" s="43" t="e">
         <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE46" s="44" t="e">
+      <c r="AE46" s="43" t="e">
         <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF46" s="44" t="e">
+      <c r="AF46" s="43" t="e">
         <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG46" s="44"/>
-      <c r="AH46" s="53"/>
-      <c r="AI46" s="53"/>
-      <c r="AJ46" s="53"/>
-      <c r="AK46" s="53"/>
-      <c r="AL46" s="53"/>
-      <c r="AM46" s="53"/>
-      <c r="AN46" s="53"/>
-      <c r="AO46" s="53"/>
+      <c r="AG46" s="43"/>
+      <c r="AH46" s="51"/>
+      <c r="AI46" s="51"/>
+      <c r="AJ46" s="51"/>
+      <c r="AK46" s="51"/>
+      <c r="AL46" s="51"/>
+      <c r="AM46" s="51"/>
+      <c r="AN46" s="51"/>
+      <c r="AO46" s="51"/>
     </row>
     <row r="47" s="4" customFormat="1" ht="28" spans="1:41">
-      <c r="A47" s="21" t="s">
+      <c r="A47" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="B47" s="21" t="s">
+      <c r="B47" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="C47" s="21" t="s">
+      <c r="C47" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D47" s="22">
+      <c r="D47" s="21">
         <v>8.15</v>
       </c>
-      <c r="E47" s="22">
+      <c r="E47" s="21">
         <v>8.142</v>
       </c>
-      <c r="F47" s="22">
+      <c r="F47" s="21">
         <v>6.542</v>
       </c>
-      <c r="G47" s="22">
+      <c r="G47" s="21">
         <v>6.263</v>
       </c>
-      <c r="H47" s="31">
+      <c r="H47" s="30">
         <v>5.04</v>
       </c>
-      <c r="I47" s="31">
+      <c r="I47" s="30">
         <v>11.74</v>
       </c>
-      <c r="J47" s="31">
+      <c r="J47" s="30">
         <v>6.35</v>
       </c>
-      <c r="K47" s="45">
+      <c r="K47" s="44">
         <f t="shared" si="32"/>
         <v>0.617063492063492</v>
       </c>
-      <c r="L47" s="45">
+      <c r="L47" s="44">
         <f t="shared" si="33"/>
         <v>0.305792163543441</v>
       </c>
-      <c r="M47" s="45">
+      <c r="M47" s="44">
         <f t="shared" si="34"/>
         <v>0.848818897637795</v>
       </c>
-      <c r="N47" s="54"/>
-      <c r="O47" s="54"/>
-      <c r="P47" s="31">
+      <c r="N47" s="52"/>
+      <c r="O47" s="52"/>
+      <c r="P47" s="30">
         <v>8.01</v>
       </c>
-      <c r="Q47" s="31"/>
-      <c r="R47" s="31"/>
-      <c r="S47" s="31"/>
-      <c r="T47" s="31"/>
-      <c r="U47" s="31"/>
-      <c r="V47" s="31"/>
-      <c r="W47" s="31"/>
-      <c r="X47" s="31"/>
-      <c r="Y47" s="31"/>
-      <c r="Z47" s="31"/>
-      <c r="AA47" s="54"/>
-      <c r="AB47" s="45">
+      <c r="Q47" s="30"/>
+      <c r="R47" s="30"/>
+      <c r="S47" s="30"/>
+      <c r="T47" s="30"/>
+      <c r="U47" s="30"/>
+      <c r="V47" s="30"/>
+      <c r="W47" s="30"/>
+      <c r="X47" s="30"/>
+      <c r="Y47" s="30"/>
+      <c r="Z47" s="30"/>
+      <c r="AA47" s="52"/>
+      <c r="AB47" s="44">
         <f t="shared" si="35"/>
         <v>0.317717206132879</v>
       </c>
-      <c r="AC47" s="45" t="e">
+      <c r="AC47" s="44" t="e">
         <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD47" s="45" t="e">
+      <c r="AD47" s="44" t="e">
         <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE47" s="45" t="e">
+      <c r="AE47" s="44" t="e">
         <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF47" s="45" t="e">
+      <c r="AF47" s="44" t="e">
         <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG47" s="45"/>
-      <c r="AH47" s="54"/>
-      <c r="AI47" s="54"/>
-      <c r="AJ47" s="54"/>
-      <c r="AK47" s="54"/>
-      <c r="AL47" s="54"/>
-      <c r="AM47" s="54"/>
-      <c r="AN47" s="54"/>
-      <c r="AO47" s="54"/>
+      <c r="AG47" s="44"/>
+      <c r="AH47" s="52"/>
+      <c r="AI47" s="52"/>
+      <c r="AJ47" s="52"/>
+      <c r="AK47" s="52"/>
+      <c r="AL47" s="52"/>
+      <c r="AM47" s="52"/>
+      <c r="AN47" s="52"/>
+      <c r="AO47" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="27">
@@ -6506,4 +6491,20 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.94117647058824" defaultRowHeight="14.8"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2022-03/当前股价大于50日均线,50日均线大于150日均线....xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2022-03/当前股价大于50日均线,50日均线大于150日均线....xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26500" windowHeight="13420" activeTab="1"/>
+    <workbookView windowWidth="26500" windowHeight="13420"/>
   </bookViews>
   <sheets>
     <sheet name="技术面分析" sheetId="2" r:id="rId1"/>
@@ -2264,12 +2264,12 @@
   <sheetPr/>
   <dimension ref="A1:AO47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C39" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="G10" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B40" sqref="B40"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.94117647058824" defaultRowHeight="14.8"/>
@@ -6498,7 +6498,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
